--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D63D124-B7B1-4B33-8BC9-79964759D0A3}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B7B738-E1AC-459B-AFAC-47DAFE659E82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Apply a function f to column A &amp; Create a column Af</t>
   </si>
   <si>
-    <t>Apply a function f to Rows A &amp; Create a column Af</t>
-  </si>
-  <si>
-    <t>Apply a function f(x,a) to Rows A &amp; Create a column Af</t>
-  </si>
-  <si>
     <t>Concates Vertically two dataframes df1, df2</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>df.count()</t>
   </si>
   <si>
-    <t>df.count(0)</t>
-  </si>
-  <si>
-    <t>Counts the number of Unique Values</t>
-  </si>
-  <si>
     <t>df.value_counts()</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>df.drop_duplicates()</t>
   </si>
   <si>
-    <t>Randomly selects 10 values</t>
-  </si>
-  <si>
     <t>Sorts values in a dataframe by a column A</t>
   </si>
   <si>
@@ -129,24 +114,9 @@
     <t>df.drop(['A','B'],axis=1)</t>
   </si>
   <si>
-    <t>df=pd.DataFrame()</t>
-  </si>
-  <si>
     <t>df['Af']=df['A'].apply(f)</t>
   </si>
   <si>
-    <t>df=pd.read_csv('file.csv')</t>
-  </si>
-  <si>
-    <t>df=pd.read_excel('file.xlsx')</t>
-  </si>
-  <si>
-    <t>df['Af']=df['A'].apply(f,axis=1)</t>
-  </si>
-  <si>
-    <t>df['Af']=df['A'].apply(f,a='value')</t>
-  </si>
-  <si>
     <t>df.dropna(axis=1)</t>
   </si>
   <si>
@@ -160,19 +130,645 @@
   </si>
   <si>
     <t xml:space="preserve">Out of </t>
+  </si>
+  <si>
+    <t>Show top left corner with n rows and columns</t>
+  </si>
+  <si>
+    <t>df.iloc[:n,:n]</t>
+  </si>
+  <si>
+    <t>Transpose rows and columns</t>
+  </si>
+  <si>
+    <t>df.T</t>
+  </si>
+  <si>
+    <t>Show Number of rows and columns</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>get a numpy array of the df</t>
+  </si>
+  <si>
+    <t>df.values</t>
+  </si>
+  <si>
+    <t>Convert a df to a different datatype dtype</t>
+  </si>
+  <si>
+    <t>df.astype(dtype)</t>
+  </si>
+  <si>
+    <t>df.abs()</t>
+  </si>
+  <si>
+    <t>Save df to dictionary</t>
+  </si>
+  <si>
+    <t>df.to_dict()</t>
+  </si>
+  <si>
+    <t>df['A']</t>
+  </si>
+  <si>
+    <t>Select a column A to series</t>
+  </si>
+  <si>
+    <t>Select a column A to df</t>
+  </si>
+  <si>
+    <t>df[['A']]</t>
+  </si>
+  <si>
+    <t>Find the datatype of a column A</t>
+  </si>
+  <si>
+    <t>df['A'].dtype</t>
+  </si>
+  <si>
+    <t>Find the dimensions of a column A</t>
+  </si>
+  <si>
+    <t>df['A'].size</t>
+  </si>
+  <si>
+    <t>To check if there is any null element in column A</t>
+  </si>
+  <si>
+    <t>df['A'].isnull()</t>
+  </si>
+  <si>
+    <t>To check if there is not any null element in column A</t>
+  </si>
+  <si>
+    <t>df['A'].notnull()</t>
+  </si>
+  <si>
+    <t>Get the absolute values in a dataframe (Or a column)</t>
+  </si>
+  <si>
+    <t>To change a column A to datetime</t>
+  </si>
+  <si>
+    <t>df['A'].to_datetime()</t>
+  </si>
+  <si>
+    <t>Add the row total as a column A</t>
+  </si>
+  <si>
+    <t>df['A']=df.sum(axis=1)</t>
+  </si>
+  <si>
+    <t>Selecting Columns A and B with loc</t>
+  </si>
+  <si>
+    <t>df.loc[:,'A':'B']</t>
+  </si>
+  <si>
+    <t>To get the Value of a Cell at 'A' column and 'B' row</t>
+  </si>
+  <si>
+    <t>df.loc['B','A']</t>
+  </si>
+  <si>
+    <t>df1 and df2 merge on Indexes, outer join</t>
+  </si>
+  <si>
+    <t>pd.merge(left=df1,right=df2,how='outer',left_index=True,right_index=True)</t>
+  </si>
+  <si>
+    <t>df1 and df2 merge on columns A and B, outer join</t>
+  </si>
+  <si>
+    <t>pd.merge(left=df1,right=df2,how='outer',left_on='A',right_on='B')</t>
+  </si>
+  <si>
+    <t>Groupby one column A</t>
+  </si>
+  <si>
+    <t>df.groupby('A')</t>
+  </si>
+  <si>
+    <t>groupby two columns A and B</t>
+  </si>
+  <si>
+    <t>df.groupby(['A','B'])</t>
+  </si>
+  <si>
+    <t>Select a group a from the groupby operation with column A</t>
+  </si>
+  <si>
+    <t>df.groupby('A').get_group('a')</t>
+  </si>
+  <si>
+    <t>df.groupby('A')['B'].sum()</t>
+  </si>
+  <si>
+    <t>Aggregate a sum on col B of the groupby object on A</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values- Doesn’t show NA</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values- shows NA as well</t>
+  </si>
+  <si>
+    <t>df.value_counts(dropna=False)</t>
+  </si>
+  <si>
+    <t>df.value_counts(normalize=True)</t>
+  </si>
+  <si>
+    <t>Counts the fraction of Unique Values</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values- and sort it in ascending order</t>
+  </si>
+  <si>
+    <t>df.value_counts(ascending=True)</t>
+  </si>
+  <si>
+    <t>You are given these bins =[0,25,50,75,100], divide a column 'A' into these bins</t>
+  </si>
+  <si>
+    <t>df.groupby(pd.cut(df['A'],bins=bins)).size()</t>
+  </si>
+  <si>
+    <t>Set a column 'A' as index</t>
+  </si>
+  <si>
+    <t>df.set_index('A')</t>
+  </si>
+  <si>
+    <t>You have a df with columns 'A', 'B','C', rename all of them as 'D','E','F'</t>
+  </si>
+  <si>
+    <t>You have a date as date ='2023-01-01', convert it to datetime object</t>
+  </si>
+  <si>
+    <t>pd.to_datetime(date)</t>
+  </si>
+  <si>
+    <t>get the year from the date ( variable is 'date') which is converted to datetime</t>
+  </si>
+  <si>
+    <t>date.year</t>
+  </si>
+  <si>
+    <t>Write 5 days as timedelta object</t>
+  </si>
+  <si>
+    <t>Write '2023-01-01' as a period object with monthly frequency</t>
+  </si>
+  <si>
+    <t>pd.Period('2020-01-01',freq='M')</t>
+  </si>
+  <si>
+    <t>You have a datetime object 'date' you want to get the date after 1 day, how do you write the command</t>
+  </si>
+  <si>
+    <t>date+pd.DateOffset(days=1)</t>
+  </si>
+  <si>
+    <t>You want to create a series of datetime objects with start date as start= '2023-01-01' and end date is end= '2023-12-01' , frequency- Daily</t>
+  </si>
+  <si>
+    <t>pd.date_range(start=start,end=end,freq='D')</t>
+  </si>
+  <si>
+    <t>pd.to_timedelta(5,unit='D')</t>
+  </si>
+  <si>
+    <t>You want to create a series of datetime objects with start date as start= '2023-01-01' and end date is end= '2023-12-01' , generate 10 values</t>
+  </si>
+  <si>
+    <t>pd.date_range(start=start,end=end,periods=10)</t>
+  </si>
+  <si>
+    <t>pd.date_range(start=df.index.min(),end=df.index.max(),freq='D')</t>
+  </si>
+  <si>
+    <t>You have a complete date_range called complete_date_range, how to reindex a timeseries df with it</t>
+  </si>
+  <si>
+    <t>df.reindex(complete_date_range)</t>
+  </si>
+  <si>
+    <t>You have a timeseries df, you want to extract day of the week</t>
+  </si>
+  <si>
+    <t>df.index.dayofweek</t>
+  </si>
+  <si>
+    <t>You have a timeseries df, you want to extract month</t>
+  </si>
+  <si>
+    <t>df.index.month</t>
+  </si>
+  <si>
+    <t>You have a timeseries df, you want to shift all dates forward by n days</t>
+  </si>
+  <si>
+    <t>df.shift(n)</t>
+  </si>
+  <si>
+    <t>You have a timeseries df, you want to shift all dates backwards by n days</t>
+  </si>
+  <si>
+    <t>df.shift(-n)</t>
+  </si>
+  <si>
+    <t>pd.DataFrame()</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv')</t>
+  </si>
+  <si>
+    <t>pd.read_excel('file.xlsx')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Python code snippet to create a figure object and a single axes object </t>
+  </si>
+  <si>
+    <t>Write a Python code snippet to generate a NumPy array of 100 evenly spaced values between 0 and 2 </t>
+  </si>
+  <si>
+    <t>np.linspace(0,2,100)</t>
+  </si>
+  <si>
+    <t>Write a Python code snippet to plot the x array against itself on the ax axes object  and set the label of the line to "linear"</t>
+  </si>
+  <si>
+    <t>ax.plot(x,x,label='linear')</t>
+  </si>
+  <si>
+    <t>Write a Python code snippet to add a legend to the plot on the ax axes object.</t>
+  </si>
+  <si>
+    <t>ax.legend()</t>
+  </si>
+  <si>
+    <t>Write a Python code snippet to set the title of the plot to "Simple Plot"  on the ax axes object.</t>
+  </si>
+  <si>
+    <t>Create a scatter plot of the x and y values on the axes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a histogram plot of the 'data'  on the axes . Set the number of bins to 30 </t>
+  </si>
+  <si>
+    <t>Create a bar plot of x and y values on the axes</t>
+  </si>
+  <si>
+    <t>ax.bar(x,y)</t>
+  </si>
+  <si>
+    <t>Set the label for the x-axis to "X-axis".</t>
+  </si>
+  <si>
+    <t>ax.set_xlabel('X-axis')</t>
+  </si>
+  <si>
+    <t>Set the title of the plot to "Title" on the axes object.</t>
+  </si>
+  <si>
+    <t>ax.set_title('Title')</t>
+  </si>
+  <si>
+    <t>Add a legend to the plot </t>
+  </si>
+  <si>
+    <t>Set the x-axis limits to (0, 5) on the axis object</t>
+  </si>
+  <si>
+    <t>ax.set_xlim(0,5)</t>
+  </si>
+  <si>
+    <t>Set the y-axis limits to (0, 5) on the axis object</t>
+  </si>
+  <si>
+    <t>ax.set_ylim(0,5)</t>
+  </si>
+  <si>
+    <t>Change the x-axis tick labels to display 1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>ax.set_xticklabels([1,2,3,4,5])</t>
+  </si>
+  <si>
+    <t>Add a grid to the plot</t>
+  </si>
+  <si>
+    <t>ax.grid()</t>
+  </si>
+  <si>
+    <t>Add a text ='text'on the axes object. It should be located at the point (2, 0.8), have a font size of 14, and be colored red.</t>
+  </si>
+  <si>
+    <t>Create a figure with two subplots, where the size of the subplots is set to be 6 inches wide and 3 inches tall:</t>
+  </si>
+  <si>
+    <t>plot the column A and column B on the ax axes object  and set the label of the line to "data"</t>
+  </si>
+  <si>
+    <t>Add a horizontal line at y=1, color is green</t>
+  </si>
+  <si>
+    <t>ax.axvline(x=1,color='green')</t>
+  </si>
+  <si>
+    <t>Shade the area between x=4 and x=6 with a gray color and alpha=0.5</t>
+  </si>
+  <si>
+    <t>Shade the area between y=4 and y=6 with a gray color and alpha=0.5</t>
+  </si>
+  <si>
+    <t>Create a box plot for the following two columns : Categorical:'A', Numeric: 'B'</t>
+  </si>
+  <si>
+    <t>sns.catplot(data=df,kind='box',x='A',y='B')</t>
+  </si>
+  <si>
+    <t>To get the percent change from the previous value of a column in a timerseries df</t>
+  </si>
+  <si>
+    <t>df['A'].pct_change()</t>
+  </si>
+  <si>
+    <t>Find the number of unique values in a column</t>
+  </si>
+  <si>
+    <t>df['A'].nunique()</t>
+  </si>
+  <si>
+    <t>Find the list of unique values in a column</t>
+  </si>
+  <si>
+    <t>df['A'].unique()</t>
+  </si>
+  <si>
+    <t>Finding if any value in a column is duplicated</t>
+  </si>
+  <si>
+    <t>any(df['A'].duplicated())</t>
+  </si>
+  <si>
+    <t>How to read an xlsb file</t>
+  </si>
+  <si>
+    <t>pd.read_excel('file.xlsb',engine='pyxlsb')</t>
+  </si>
+  <si>
+    <t>Generate one random integer from 0 to 100</t>
+  </si>
+  <si>
+    <t>Generate one random float from 0 to 1</t>
+  </si>
+  <si>
+    <t>Generate a 1 dimensional array containing 5 random integers between 0 to 100</t>
+  </si>
+  <si>
+    <t>Generate a 2 dimensional array with 3 rows, each row containing 5 random integers from 0 to 100</t>
+  </si>
+  <si>
+    <t>Generate a 1d array containing 5 random floats</t>
+  </si>
+  <si>
+    <t>Generate a 2 dimensional array with 3 rows, each row containing 5 random floats</t>
+  </si>
+  <si>
+    <t>Return randomly one of the values in an array</t>
+  </si>
+  <si>
+    <t>return an array of size (3,5) out of elements 3,5,7,9</t>
+  </si>
+  <si>
+    <t>Generate an array of 5 Normal random Numbers</t>
+  </si>
+  <si>
+    <t>There is a list called 'alist' containing itegers from 1 to 10. Generate a list that contains square of the even number of elements using list comprehension</t>
+  </si>
+  <si>
+    <t>Get the names of all columns</t>
+  </si>
+  <si>
+    <t>df.columns</t>
+  </si>
+  <si>
+    <t>df.loc[0]</t>
+  </si>
+  <si>
+    <t>df.loc[n-1]</t>
+  </si>
+  <si>
+    <t>How to get the number of rows</t>
+  </si>
+  <si>
+    <t>df.shape[0]</t>
+  </si>
+  <si>
+    <t>How to get the number of columns</t>
+  </si>
+  <si>
+    <t>df.shape[1]</t>
+  </si>
+  <si>
+    <t>df.loc[[0,99,999]]</t>
+  </si>
+  <si>
+    <t>how to get the first row using iloc</t>
+  </si>
+  <si>
+    <t>df.iloc[1]</t>
+  </si>
+  <si>
+    <t>How to get the last row</t>
+  </si>
+  <si>
+    <t>How to get the first row ( index start from 0 onwards)- use loc</t>
+  </si>
+  <si>
+    <t>How to get the nth row - use loc</t>
+  </si>
+  <si>
+    <t>how to get 1st, 100th and 1000th row- use loc</t>
+  </si>
+  <si>
+    <t>df.iloc[-1]</t>
+  </si>
+  <si>
+    <t>Get all the rows of col A and B , use loc</t>
+  </si>
+  <si>
+    <t>df.loc[:,['A','B']]</t>
+  </si>
+  <si>
+    <t>Get all the rows of 3rd, 5th and Last column use iloc</t>
+  </si>
+  <si>
+    <t>df.iloc[:,[2,4,-1]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get all the columns from 3 to 5, </t>
+  </si>
+  <si>
+    <t>get all the columns from 3 to 10, skip 1</t>
+  </si>
+  <si>
+    <t>df.iloc[:,3:6]</t>
+  </si>
+  <si>
+    <t>df.iloc[:,3:10:2]</t>
+  </si>
+  <si>
+    <t>Select rows 2,3,5 and columns 0,3,5</t>
+  </si>
+  <si>
+    <t>df.iloc[[2,3,5],[0,3,5]]</t>
+  </si>
+  <si>
+    <t>Select rows 2,3,5 and columns A, B, C</t>
+  </si>
+  <si>
+    <t>df.loc[[2,3,5],['A','B','C']]</t>
+  </si>
+  <si>
+    <t>You have a timeseries object df, you want to get thelist of complete date range, how to do it, assuming daily frequency</t>
+  </si>
+  <si>
+    <t>Apply a function f to Rows  &amp; Create a column Af</t>
+  </si>
+  <si>
+    <t>df['Af']=df.apply(f,axis=0)</t>
+  </si>
+  <si>
+    <t>df['Af']=df.apply(f,a='value')</t>
+  </si>
+  <si>
+    <t>Apply a function f(x,a) to Rows A &amp; Create a column Af, let a is 'value'</t>
+  </si>
+  <si>
+    <t>Randomly selects 10 values from a df</t>
+  </si>
+  <si>
+    <t>df.count(axis=0)</t>
+  </si>
+  <si>
+    <t>df.columns=['D','E','F']</t>
+  </si>
+  <si>
+    <t>fig,ax=plt.subplots()</t>
+  </si>
+  <si>
+    <t>ax.set_title('SimplePlot')</t>
+  </si>
+  <si>
+    <t>ax.scatter(x,y)</t>
+  </si>
+  <si>
+    <t>ax.hist(data,bins=30)</t>
+  </si>
+  <si>
+    <t>ax.text(2,0.8,'text',fontsize=14,color='red')</t>
+  </si>
+  <si>
+    <t>fig,axs=plt.subplots(1,2,figsize=(6,3))</t>
+  </si>
+  <si>
+    <t>ax.plot(df['A'],df['A'],label='Data')</t>
+  </si>
+  <si>
+    <t>ax.axvspan(xmin=4,xmax=6,color='gray',alpha=0.5)</t>
+  </si>
+  <si>
+    <t>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</t>
+  </si>
+  <si>
+    <t>random.randint(100)</t>
+  </si>
+  <si>
+    <t>random.rand()</t>
+  </si>
+  <si>
+    <t>random.randint(100,size=(5))</t>
+  </si>
+  <si>
+    <t>random.randint(100,size=(3,5))</t>
+  </si>
+  <si>
+    <t>random.rand(5)</t>
+  </si>
+  <si>
+    <t>random.rand(3,5)</t>
+  </si>
+  <si>
+    <t>random.choice([3,5,7,9])</t>
+  </si>
+  <si>
+    <t>random.choice([3,5,7,9],size=(3,5))</t>
+  </si>
+  <si>
+    <t>np.random.randn(5,1)</t>
+  </si>
+  <si>
+    <t>[x**2forxinaifx%2==0]</t>
+  </si>
+  <si>
+    <t>ax.axhline(y=1,color='green')</t>
+  </si>
+  <si>
+    <t>Add a vertical line at x=1, color is green</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,9 +791,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,180 +1088,1386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TRIM(SUBSTITUTE(B2," ",""))</f>
+        <v>pd.DataFrame()</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">TRIM(SUBSTITUTE(B3," ",""))</f>
+        <v>pd.read_csv('file.csv')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.read_excel('file.xlsx')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>df['Af']=df['A'].apply(f)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>df['Af']=df.apply(f,axis=0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>df['Af']=df.apply(f,a='value')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.concat([df1,df2])</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>df.count()</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>df.count(axis=0)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>df.value_counts()</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>df.dropna()</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>df.dropna(axis=1)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>df.fillna(0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>df.drop_duplicates()</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>df.sample(10)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>df.sort_values('A')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>df.sort_values('A',ascending=False)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>df.rename(columns={'A':'B'})</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>df.drop(['A','B'],axis=1)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>df.iloc[:n,:n]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>df.T</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>df.shape</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>df.values</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>df.astype(dtype)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>df.abs()</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>df.to_dict()</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A']</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>df[['A']]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].dtype</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].size</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].isnull()</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].notnull()</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].to_datetime()</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A']=df.sum(axis=1)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>df.loc[:,'A':'B']</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>df.loc['B','A']</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.merge(left=df1,right=df2,how='outer',left_index=True,right_index=True)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.merge(left=df1,right=df2,how='outer',left_on='A',right_on='B')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>df.groupby('A')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>df.groupby(['A','B'])</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>df.groupby('A').get_group('a')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>df.groupby('A')['B'].sum()</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>df.value_counts(dropna=False)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>df.value_counts(normalize=True)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>df.value_counts(ascending=True)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>df.groupby(pd.cut(df['A'],bins=bins)).size()</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>df.set_index('A')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>df.columns=['D','E','F']</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.to_datetime(date)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>date.year</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.to_timedelta(5,unit='D')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.Period('2020-01-01',freq='M')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>date+pd.DateOffset(days=1)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.date_range(start=start,end=end,freq='D')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.date_range(start=start,end=end,periods=10)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.date_range(start=df.index.min(),end=df.index.max(),freq='D')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>df.reindex(complete_date_range)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>df.index.dayofweek</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>df.index.month</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>df.shift(n)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>df.shift(-n)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>fig,ax=plt.subplots()</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>np.linspace(0,2,100)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>ax.plot(x,x,label='linear')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75">
+      <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>ax.legend()</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.25">
+      <c r="A67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C114" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
+        <v>ax.set_title('SimplePlot')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.scatter(x,y)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.hist(data,bins=30)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.bar(x,y)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.set_xlabel('X-axis')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.set_title('Title')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.legend()</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.set_xlim(0,5)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.set_ylim(0,5)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.set_xticklabels([1,2,3,4,5])</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.grid()</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.text(2,0.8,'text',fontsize=14,color='red')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>fig,axs=plt.subplots(1,2,figsize=(6,3))</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.plot(df['A'],df['A'],label='Data')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.axhline(y=1,color='green')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.axvline(x=1,color='green')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.axvspan(xmin=4,xmax=6,color='gray',alpha=0.5)</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>sns.catplot(data=df,kind='box',x='A',y='B')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>df['A'].pct_change()</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>df['A'].nunique()</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>df['A'].unique()</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>any(df['A'].duplicated())</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>pd.read_excel('file.xlsb',engine='pyxlsb')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>random.randint(100)</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>random.rand()</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>random.randint(100,size=(5))</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>random.randint(100,size=(3,5))</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>random.rand(5)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>random.rand(3,5)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>random.choice([3,5,7,9])</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>random.choice([3,5,7,9],size=(3,5))</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>np.random.randn(5,1)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>[x**2forxinaifx%2==0]</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>df.columns</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>df.loc[0]</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>df.loc[n-1]</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>df.shape[0]</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>df.shape[1]</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>df.loc[[0,99,999]]</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[1]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[-1]</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>df.loc[:,['A','B']]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[:,[2,4,-1]]</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[:,3:6]</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[:,3:10:2]</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>df.iloc[[2,3,5],[0,3,5]]</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>df.loc[[2,3,5],['A','B','C']]</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -667,14 +2479,14 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4">
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" s="1">
         <v>45149</v>
       </c>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B7B738-E1AC-459B-AFAC-47DAFE659E82}"/>
+  <xr:revisionPtr revIDLastSave="612" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53905D25-09BC-44D4-BB81-E821AE4B6362}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -721,6 +721,186 @@
   </si>
   <si>
     <t>Add a vertical line at x=1, color is green</t>
+  </si>
+  <si>
+    <t>get the first letter of a word</t>
+  </si>
+  <si>
+    <t>word[0]</t>
+  </si>
+  <si>
+    <t>get the first three characters of word</t>
+  </si>
+  <si>
+    <t>word[0:3]</t>
+  </si>
+  <si>
+    <t>Get the last letter of a word</t>
+  </si>
+  <si>
+    <t>word[-1]</t>
+  </si>
+  <si>
+    <t>Getting the length of the word</t>
+  </si>
+  <si>
+    <t>len(word)</t>
+  </si>
+  <si>
+    <t>To get every second string of a word</t>
+  </si>
+  <si>
+    <t>word[::2]</t>
+  </si>
+  <si>
+    <t>Capitalize first letter of the word</t>
+  </si>
+  <si>
+    <t>word.capitalize()</t>
+  </si>
+  <si>
+    <t>count the occurrence of 'u' in a word</t>
+  </si>
+  <si>
+    <t>word.count('u')</t>
+  </si>
+  <si>
+    <t>word.startswith('val')</t>
+  </si>
+  <si>
+    <t>Check if the word starts with a particular string 'val'</t>
+  </si>
+  <si>
+    <t>Check if the word ends with a particular string 'val'</t>
+  </si>
+  <si>
+    <t>word.endswith("val")</t>
+  </si>
+  <si>
+    <t>Check the position of the first occurrence of character 'u' in a word</t>
+  </si>
+  <si>
+    <t>word.find('u')</t>
+  </si>
+  <si>
+    <t>To check if there Is a whitespace in a word</t>
+  </si>
+  <si>
+    <t>word.isalpha()</t>
+  </si>
+  <si>
+    <t>to check if a word is decimal</t>
+  </si>
+  <si>
+    <t>word.isdecima()</t>
+  </si>
+  <si>
+    <t>To check if the word has any special character</t>
+  </si>
+  <si>
+    <t>word.isalnum()</t>
+  </si>
+  <si>
+    <t>word - to convert to upper case</t>
+  </si>
+  <si>
+    <t>word.upper()</t>
+  </si>
+  <si>
+    <t>word - to convert to lower case</t>
+  </si>
+  <si>
+    <t>word.lower()</t>
+  </si>
+  <si>
+    <t>to replace a string'abc' with another string'def' in  a word</t>
+  </si>
+  <si>
+    <t>word.replace('abc','def')</t>
+  </si>
+  <si>
+    <t>To remove any leading or trailing whitespaces in a word</t>
+  </si>
+  <si>
+    <t>word.strip()</t>
+  </si>
+  <si>
+    <t>to split the words in a sentence by a comma</t>
+  </si>
+  <si>
+    <t>word.split(sep = ",")</t>
+  </si>
+  <si>
+    <t>",".join(my_list)</t>
+  </si>
+  <si>
+    <t>to join the words given in a list (my_list) separated by comma</t>
+  </si>
+  <si>
+    <t>To split the lines in a multiline-'text'- separated by \n etc characters</t>
+  </si>
+  <si>
+    <t>text.splitlines()</t>
+  </si>
+  <si>
+    <t>Format the stirng : "my name is -variable'name'-"</t>
+  </si>
+  <si>
+    <t>f"My Name is {name}"</t>
+  </si>
+  <si>
+    <t>Format the number pi to 2 places of decimals</t>
+  </si>
+  <si>
+    <t>f"{pi:.2f}"</t>
+  </si>
+  <si>
+    <t>Format the number pi using thousands operator</t>
+  </si>
+  <si>
+    <t>f"{pi:,}"</t>
+  </si>
+  <si>
+    <t>Format the number pi padded to 5 places</t>
+  </si>
+  <si>
+    <t>f"{pi:5}"</t>
+  </si>
+  <si>
+    <t>Format the number pi left aligned and padded to 5 places</t>
+  </si>
+  <si>
+    <t>Format the number pi using 2e notation</t>
+  </si>
+  <si>
+    <t>f"{pi:&lt;5}"</t>
+  </si>
+  <si>
+    <t>f"{pi:.2e}"</t>
+  </si>
+  <si>
+    <t>Format the number pi to have a % with 2 decimal places</t>
+  </si>
+  <si>
+    <t>f"{pi:.2%}"</t>
+  </si>
+  <si>
+    <t>How to make a df wide to long, you don’t' want to change column A, call changed column as B and value as C</t>
+  </si>
+  <si>
+    <t>pd.melt(df,id_vars='A',var_name='B',value_name='C')</t>
+  </si>
+  <si>
+    <t>How to make a df wide to long, you don’t' want to change column A and B, call changed column as C and value as D</t>
+  </si>
+  <si>
+    <t>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</t>
+  </si>
+  <si>
+    <t>How to split a text column A containing value eg. ab_c on underscore_</t>
+  </si>
+  <si>
+    <t>df.A.str.split('_')</t>
   </si>
 </sst>
 </file>
@@ -1088,16 +1268,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" outlineLevel="2"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1897,7 +2077,7 @@
         <v>208</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C114" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
+        <f t="shared" ref="C67:C142" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
         <v>ax.set_title('SimplePlot')</v>
       </c>
     </row>
@@ -2463,6 +2643,358 @@
       <c r="C114" t="str">
         <f t="shared" si="1"/>
         <v>df.loc[[2,3,5],['A','B','C']]</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>word[0]</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>word[0:3]</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>word[-1]</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>len(word)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>word[::2]</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>word.capitalize()</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>word.count('u')</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>word.startswith('val')</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>word.endswith("val")</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>word.find('u')</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>word.isalpha()</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>word.isdecima()</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>word.isalnum()</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>word.upper()</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>word.lower()</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v>word.replace('abc','def')</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="1"/>
+        <v>word.strip()</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="1"/>
+        <v>word.split(sep=",")</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="1"/>
+        <v>",".join(my_list)</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="1"/>
+        <v>text.splitlines()</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="1"/>
+        <v>f"MyNameis{name}"</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:.2f}"</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:,}"</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:5}"</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:&lt;5}"</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:.2e}"</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="1"/>
+        <v>f"{pi:.2%}"</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="1"/>
+        <v>pd.melt(df,id_vars='A',var_name='B',value_name='C')</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="612" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53905D25-09BC-44D4-BB81-E821AE4B6362}"/>
+  <xr:revisionPtr revIDLastSave="747" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E0D7C9-57AD-41E1-92EB-25307F46D3CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Rename column A in a dataframe to B</t>
   </si>
   <si>
-    <t>df.rename(columns={'A':'B'})</t>
-  </si>
-  <si>
     <t>Dropping Columns A, B from df</t>
   </si>
   <si>
@@ -273,21 +270,12 @@
     <t>Counts the number of Unique Values- Doesn’t show NA</t>
   </si>
   <si>
-    <t>Counts the number of Unique Values- shows NA as well</t>
-  </si>
-  <si>
     <t>df.value_counts(dropna=False)</t>
   </si>
   <si>
     <t>df.value_counts(normalize=True)</t>
   </si>
   <si>
-    <t>Counts the fraction of Unique Values</t>
-  </si>
-  <si>
-    <t>Counts the number of Unique Values- and sort it in ascending order</t>
-  </si>
-  <si>
     <t>df.value_counts(ascending=True)</t>
   </si>
   <si>
@@ -901,6 +889,288 @@
   </si>
   <si>
     <t>df.A.str.split('_')</t>
+  </si>
+  <si>
+    <t>Find the number of missing values in each column of df</t>
+  </si>
+  <si>
+    <t>df.isnull().sum()</t>
+  </si>
+  <si>
+    <t>df.dropna(axis=1,how='all')</t>
+  </si>
+  <si>
+    <t>Remove all the columns that only contain missing values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter a df by a column A  if it has a value equal to 'a' </t>
+  </si>
+  <si>
+    <t>df[df['A']=='a']</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values in a category pref- and sort it in ascending order</t>
+  </si>
+  <si>
+    <t>Counts the fraction of Unique Values in a category pref</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values in a category col pref- shows NA as well</t>
+  </si>
+  <si>
+    <t>To know if a text column contains a string ab, it puts NA against - if it doesn't</t>
+  </si>
+  <si>
+    <t>df['A'].str.contains('ab')</t>
+  </si>
+  <si>
+    <t>Show the pandas installed version</t>
+  </si>
+  <si>
+    <t>pd.__version__</t>
+  </si>
+  <si>
+    <t>pd.show_versions()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show the versions of pandas dependencies eg. Python, </t>
+  </si>
+  <si>
+    <t>create a dataframe using dictionary with two columns 'A' and 'B' with values 1,2 and 3,4</t>
+  </si>
+  <si>
+    <t>pd.DataFrame({'A':[1,2],'B':[3,4]})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crate a dataframe with 4 rows and 8 columns passing random values </t>
+  </si>
+  <si>
+    <t>pd.DataFrame(np.random.rand(4,8))</t>
+  </si>
+  <si>
+    <t>Crate a dataframe with 4 rows and 8 columns passing random values . Non Numeric column names</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(np.random.rand(4,8),columns=list('abcdefgh'))</t>
+  </si>
+  <si>
+    <t>df.rename({'A':'B'},axis=1)</t>
+  </si>
+  <si>
+    <t>Reverse the rows of a dataframe  using loc</t>
+  </si>
+  <si>
+    <t>df.loc[::-1]</t>
+  </si>
+  <si>
+    <t>Reverse the columns of a dataframe using loc</t>
+  </si>
+  <si>
+    <t>df.loc[:,::-1]</t>
+  </si>
+  <si>
+    <t>Select only the numeric column of a dataframe</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(include='number')</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(include=['number','object','category','datetime'])</t>
+  </si>
+  <si>
+    <t>Select only the number, object, category and datetime columns of a dataframe</t>
+  </si>
+  <si>
+    <t>Select all columns excluding number datatypes</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(exclude='number')</t>
+  </si>
+  <si>
+    <t>Convert a string column to numeric if it contains any invalid input say a - or blank</t>
+  </si>
+  <si>
+    <t>df.to_numeric('A',errors='coerce')</t>
+  </si>
+  <si>
+    <t>Convert all the strings to numeric if the df contains any invalid input say a- or blank</t>
+  </si>
+  <si>
+    <t>df.apply(pd.to_numeric,errors='coerce')</t>
+  </si>
+  <si>
+    <t>Read the clipborard</t>
+  </si>
+  <si>
+    <t>pd.read_clipboard()</t>
+  </si>
+  <si>
+    <t>Randomly Split the dataframe into two random subset, 25% in one dataframe and 75% in another</t>
+  </si>
+  <si>
+    <t>df.sample(frac=0.75)</t>
+  </si>
+  <si>
+    <t>Sort the index of a dataframe</t>
+  </si>
+  <si>
+    <t>df.index.sort_values()</t>
+  </si>
+  <si>
+    <t>Filter a df by multiple categories a, b, c present in a particular column A</t>
+  </si>
+  <si>
+    <t>df[df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
+  </si>
+  <si>
+    <t>df[~df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>Get only the min and max of describe function of a dataframe</t>
+  </si>
+  <si>
+    <t>df.describe.loc['min':'max']</t>
+  </si>
+  <si>
+    <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
+  </si>
+  <si>
+    <t>df.pivot_table(index='R',columns='C',values='V',aggfunc='mean',margins=True)</t>
+  </si>
+  <si>
+    <t>Convert continuous datacolumn A into categorical Data columns with three categories c1,c2,c3., with c1:0 to 25, c2: 26 to 50, c3 51 to 99</t>
+  </si>
+  <si>
+    <t>pd.cut(df['A'],bins=[0,25,50,99],labels=['c1','c2','c3'])</t>
+  </si>
+  <si>
+    <t>Get the profile report of a dataframe</t>
+  </si>
+  <si>
+    <t>pandas_profiling.ProfileReport(df)</t>
+  </si>
+  <si>
+    <t>Compare two columns A and B of a dataframe</t>
+  </si>
+  <si>
+    <t>df['A'].equals(df['B'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide a df numeric column into three parts </t>
+  </si>
+  <si>
+    <t>pd.qcut(df['A'],q=3)</t>
+  </si>
+  <si>
+    <t>pd.crosstab(df['A'],df['B'],margins=True)</t>
+  </si>
+  <si>
+    <t>Create a cross tabulation of the count of values of two columns A and B, add totals as well</t>
+  </si>
+  <si>
+    <t>Resample a timeseries df with daily data to give you mean of the column A monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M')['A'].mean()</t>
+  </si>
+  <si>
+    <t>Resample a timeseries df with daily data to give you count of the column A monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M')['A'].count()</t>
+  </si>
+  <si>
+    <t>Write a zipped csv file called file</t>
+  </si>
+  <si>
+    <t>df.to_csv('file.csv.zip')</t>
+  </si>
+  <si>
+    <t>Read a zipped csv file called file</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv.zip')</t>
+  </si>
+  <si>
+    <t>Do a auomatic interploation  of missing values</t>
+  </si>
+  <si>
+    <t>df.interpolate()</t>
+  </si>
+  <si>
+    <t>we have two dataframe dfl and dfr, we want to merge inner on key 'A', how to ensure that the dfl has unique 'A'</t>
+  </si>
+  <si>
+    <t>pd.merge(dfl,dfr,how='inner',validate='one_to_many'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To flat a multi index </t>
+  </si>
+  <si>
+    <t>df.unstack()</t>
+  </si>
+  <si>
+    <t>Resample a df with date column at A to give you sum of numeric column B and mean of numeric column C monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, inner join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, left join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, right  join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>BDEF</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, outer  join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,df3])</t>
+  </si>
+  <si>
+    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from top to bottom</t>
+  </si>
+  <si>
+    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from side to side</t>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,df3],axis=1)</t>
+  </si>
+  <si>
+    <t>Create a correlation between A and B columns of df</t>
+  </si>
+  <si>
+    <t>df['A'].corr(df['B'])</t>
+  </si>
+  <si>
+    <t>Create a correlation matrix in a df for numerical columns</t>
+  </si>
+  <si>
+    <t>df.corr()</t>
+  </si>
+  <si>
+    <t>Plot a kde plot for all numerical values in a df</t>
+  </si>
+  <si>
+    <t>df.plot.kde()</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1268,25 +1534,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="141.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" outlineLevel="2"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1294,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" t="str">
         <f>TRIM(SUBSTITUTE(B2," ",""))</f>
@@ -1306,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">TRIM(SUBSTITUTE(B3," ",""))</f>
@@ -1318,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -1339,10 +1605,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1351,10 +1617,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1390,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1399,7 +1665,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1426,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -1459,10 +1725,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -1498,19 +1764,19 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>df.rename(columns={'A':'B'})</v>
+        <v>df.rename({'A':'B'},axis=1)</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -1519,10 +1785,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -1531,10 +1797,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -1543,10 +1809,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -1555,10 +1821,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1567,10 +1833,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1579,10 +1845,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1591,10 +1857,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1603,10 +1869,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -1615,10 +1881,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -1627,10 +1893,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -1639,10 +1905,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -1651,10 +1917,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -1663,10 +1929,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -1675,10 +1941,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -1687,10 +1953,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -1699,10 +1965,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -1711,10 +1977,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
         <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -1723,10 +1989,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -1735,10 +2001,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -1747,10 +2013,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -1759,10 +2025,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -1771,10 +2037,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
         <v>73</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
@@ -1783,10 +2049,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
@@ -1795,10 +2061,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -1807,10 +2073,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -1819,10 +2085,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -1831,10 +2097,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -1843,10 +2109,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -1855,10 +2121,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -1867,10 +2133,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -1879,10 +2145,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -1891,10 +2157,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -1903,10 +2169,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -1915,10 +2181,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -1927,10 +2193,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -1939,10 +2205,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -1951,10 +2217,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -1963,10 +2229,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -1975,10 +2241,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -1987,10 +2253,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -1999,10 +2265,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -2011,10 +2277,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -2023,10 +2289,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -2035,10 +2301,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -2047,10 +2313,10 @@
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -2059,10 +2325,10 @@
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -2071,10 +2337,10 @@
     </row>
     <row r="67" spans="1:3" ht="17.25">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C142" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
@@ -2083,10 +2349,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -2095,10 +2361,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -2107,10 +2373,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -2119,10 +2385,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -2131,10 +2397,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -2143,10 +2409,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -2155,10 +2421,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -2167,10 +2433,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -2179,10 +2445,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -2191,10 +2457,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -2203,10 +2469,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -2215,10 +2481,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -2227,10 +2493,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -2239,10 +2505,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -2251,10 +2517,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -2263,10 +2529,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -2275,10 +2541,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -2287,10 +2553,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -2299,10 +2565,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -2311,10 +2577,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -2323,10 +2589,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -2335,10 +2601,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -2347,10 +2613,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -2359,10 +2625,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -2371,10 +2637,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -2383,10 +2649,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -2395,10 +2661,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -2407,10 +2673,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -2419,10 +2685,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -2431,10 +2697,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -2443,10 +2709,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -2455,10 +2721,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -2467,10 +2733,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -2479,10 +2745,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -2491,10 +2757,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -2503,10 +2769,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -2515,10 +2781,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -2527,10 +2793,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -2539,10 +2805,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -2551,10 +2817,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -2563,10 +2829,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -2575,10 +2841,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -2587,10 +2853,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -2599,10 +2865,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -2611,10 +2877,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -2623,10 +2889,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -2635,10 +2901,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -2647,10 +2913,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -2659,10 +2925,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -2671,10 +2937,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -2683,10 +2949,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -2695,10 +2961,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -2707,10 +2973,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -2719,10 +2985,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -2731,10 +2997,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -2743,10 +3009,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -2755,10 +3021,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -2767,10 +3033,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -2779,10 +3045,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -2791,10 +3057,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -2803,10 +3069,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -2815,10 +3081,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -2827,10 +3093,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -2839,10 +3105,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="1"/>
@@ -2851,10 +3117,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="1"/>
@@ -2863,10 +3129,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="1"/>
@@ -2875,10 +3141,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="1"/>
@@ -2887,10 +3153,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="1"/>
@@ -2899,10 +3165,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="1"/>
@@ -2911,10 +3177,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="1"/>
@@ -2923,10 +3189,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="1"/>
@@ -2935,10 +3201,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="1"/>
@@ -2947,10 +3213,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="1"/>
@@ -2959,10 +3225,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="1"/>
@@ -2971,10 +3237,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="1"/>
@@ -2983,18 +3249,378 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>287</v>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:4">

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="747" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E0D7C9-57AD-41E1-92EB-25307F46D3CA}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A6AA49-0EDA-4BB0-B58B-B7B4163CA3AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Aggregate a sum on col B of the groupby object on A</t>
   </si>
   <si>
-    <t>Counts the number of Unique Values- Doesn’t show NA</t>
-  </si>
-  <si>
     <t>df.value_counts(dropna=False)</t>
   </si>
   <si>
@@ -816,9 +813,6 @@
     <t>to split the words in a sentence by a comma</t>
   </si>
   <si>
-    <t>word.split(sep = ",")</t>
-  </si>
-  <si>
     <t>",".join(my_list)</t>
   </si>
   <si>
@@ -834,9 +828,6 @@
     <t>Format the stirng : "my name is -variable'name'-"</t>
   </si>
   <si>
-    <t>f"My Name is {name}"</t>
-  </si>
-  <si>
     <t>Format the number pi to 2 places of decimals</t>
   </si>
   <si>
@@ -909,15 +900,6 @@
     <t>df[df['A']=='a']</t>
   </si>
   <si>
-    <t>Counts the number of Unique Values in a category pref- and sort it in ascending order</t>
-  </si>
-  <si>
-    <t>Counts the fraction of Unique Values in a category pref</t>
-  </si>
-  <si>
-    <t>Counts the number of Unique Values in a category col pref- shows NA as well</t>
-  </si>
-  <si>
     <t>To know if a text column contains a string ab, it puts NA against - if it doesn't</t>
   </si>
   <si>
@@ -1171,6 +1153,24 @@
   </si>
   <si>
     <t>df.plot.kde()</t>
+  </si>
+  <si>
+    <t>word.split(sep=",")</t>
+  </si>
+  <si>
+    <t>f"MyNameis{name}"</t>
+  </si>
+  <si>
+    <t>Give me the Sorted Frequency of Unique values in a df</t>
+  </si>
+  <si>
+    <t>Counts the Sorted frequecy of Unique Values in a column shows frequency  of NA as well</t>
+  </si>
+  <si>
+    <t>Sorted Percentage distribution of Unique Values in a category pref</t>
+  </si>
+  <si>
+    <t>Gives  the Frequency of  Unique Values in a column- and sort it in ascending order</t>
   </si>
 </sst>
 </file>
@@ -1269,6 +1269,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1536,15 +1540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="141.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1560,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
         <f>TRIM(SUBSTITUTE(B2," ",""))</f>
@@ -1572,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" si="0">TRIM(SUBSTITUTE(B3," ",""))</f>
@@ -1584,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -1605,10 +1609,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
         <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1617,10 +1621,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1656,7 +1660,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1665,7 +1669,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1764,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2061,10 +2065,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -2073,10 +2077,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -2085,10 +2089,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -2097,10 +2101,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
         <v>80</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -2109,10 +2113,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
         <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -2121,10 +2125,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2133,10 +2137,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -2145,10 +2149,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -2157,10 +2161,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
@@ -2169,10 +2173,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
         <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -2181,10 +2185,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
         <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -2193,10 +2197,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
         <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -2205,10 +2209,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -2217,10 +2221,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -2229,10 +2233,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
         <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -2241,10 +2245,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
         <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
@@ -2253,10 +2257,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
         <v>104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -2265,10 +2269,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
         <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -2277,10 +2281,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
         <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -2289,10 +2293,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -2301,10 +2305,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
         <v>114</v>
-      </c>
-      <c r="B64" t="s">
-        <v>115</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -2313,10 +2317,10 @@
     </row>
     <row r="65" spans="1:3" ht="15.75">
       <c r="A65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
@@ -2325,10 +2329,10 @@
     </row>
     <row r="66" spans="1:3" ht="15.75">
       <c r="A66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
@@ -2337,22 +2341,22 @@
     </row>
     <row r="67" spans="1:3" ht="17.25">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C142" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
+        <f t="shared" ref="C67:C130" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
         <v>ax.set_title('SimplePlot')</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -2361,10 +2365,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -2373,10 +2377,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
         <v>123</v>
-      </c>
-      <c r="B70" t="s">
-        <v>124</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -2385,10 +2389,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
         <v>125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>126</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -2397,10 +2401,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
         <v>127</v>
-      </c>
-      <c r="B72" t="s">
-        <v>128</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -2409,10 +2413,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -2421,10 +2425,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
         <v>130</v>
-      </c>
-      <c r="B74" t="s">
-        <v>131</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -2433,10 +2437,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
         <v>132</v>
-      </c>
-      <c r="B75" t="s">
-        <v>133</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -2445,10 +2449,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -2457,10 +2461,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
         <v>136</v>
-      </c>
-      <c r="B77" t="s">
-        <v>137</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -2469,10 +2473,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -2481,10 +2485,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -2505,10 +2509,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -2517,10 +2521,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -2529,10 +2533,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -2541,10 +2545,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -2553,10 +2557,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" t="s">
         <v>145</v>
-      </c>
-      <c r="B85" t="s">
-        <v>146</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -2565,10 +2569,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
         <v>147</v>
-      </c>
-      <c r="B86" t="s">
-        <v>148</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -2577,10 +2581,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" t="s">
-        <v>150</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -2589,10 +2593,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
         <v>151</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -2601,10 +2605,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
         <v>153</v>
-      </c>
-      <c r="B89" t="s">
-        <v>154</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -2613,10 +2617,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
         <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>156</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -2625,10 +2629,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -2637,10 +2641,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -2649,10 +2653,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -2673,10 +2677,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -2685,10 +2689,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -2697,10 +2701,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -2709,10 +2713,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -2721,10 +2725,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -2733,10 +2737,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -2745,10 +2749,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -2769,10 +2773,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -2781,10 +2785,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -2793,10 +2797,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -2805,10 +2809,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -2817,10 +2821,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -2829,10 +2833,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -2841,10 +2845,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -2853,10 +2857,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -2865,10 +2869,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -2877,10 +2881,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -2889,10 +2893,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -2901,10 +2905,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -2913,10 +2917,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -2925,10 +2929,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -2937,10 +2941,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -2949,10 +2953,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -2961,10 +2965,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -2973,10 +2977,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -2985,10 +2989,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -2997,10 +3001,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -3009,10 +3013,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -3021,10 +3025,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -3033,10 +3037,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -3045,10 +3049,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -3057,10 +3061,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -3069,10 +3073,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -3081,10 +3085,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -3093,10 +3097,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -3105,522 +3109,710 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="C131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C131:C189" si="2">TRIM(SUBSTITUTE(B131," ",""))</f>
         <v>word.strip()</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>word.split(sep=",")</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>",".join(my_list)</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>text.splitlines()</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"MyNameis{name}"</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:.2f}"</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:,}"</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:5}"</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:&lt;5}"</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:.2e}"</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>f"{pi:.2%}"</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pd.melt(df,id_vars='A',var_name='B',value_name='C')</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>df.A.str.split('_')</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>df.isnull().sum()</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>df.dropna(axis=1,how='all')</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="6" t="s">
+      <c r="B147" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>df[df['A']=='a']</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="6" t="s">
+      <c r="B148" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>df['A'].str.contains('ab')</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="6" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="6" t="s">
+      <c r="B149" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.__version__</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.show_versions()</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="6" t="s">
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.DataFrame({'A':[1,2],'B':[3,4]})</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="6" t="s">
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.DataFrame(np.random.rand(4,8))</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.DataFrame(np.random.rand(4,8),columns=list('abcdefgh'))</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="6" t="s">
+      <c r="B154" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>df.loc[::-1]</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="6" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="6" t="s">
+      <c r="B155" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>df.loc[:,::-1]</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="6" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="6" t="s">
+      <c r="B156" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>df.select_dtypes(include='number')</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="6" t="s">
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v>df.select_dtypes(include=['number','object','category','datetime'])</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="6" t="s">
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>df.select_dtypes(exclude='number')</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="6" t="s">
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>df.to_numeric('A',errors='coerce')</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="6" t="s">
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>df.apply(pd.to_numeric,errors='coerce')</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="6" t="s">
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.read_clipboard()</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="6" t="s">
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>df.sample(frac=0.75)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="6" t="s">
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>df.index.sort_values()</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B164" s="7" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="6" t="s">
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>df[df['A'].isin(['a','b','c'])]</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B165" s="7" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="6" t="s">
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>df[~df['A'].isin(['a','b','c'])]</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="6" t="s">
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>df.describe.loc['min':'max']</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="6" t="s">
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>df.pivot_table(index='R',columns='C',values='V',aggfunc='mean',margins=True)</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B168" s="7" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="6" t="s">
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.cut(df['A'],bins=[0,25,50,99],labels=['c1','c2','c3'])</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="6" t="s">
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>pandas_profiling.ProfileReport(df)</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="6" t="s">
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>df['A'].equals(df['B'])</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="6" t="s">
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.qcut(df['A'],q=3)</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="6" t="s">
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.crosstab(df['A'],df['B'],margins=True)</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="6" t="s">
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>df.resample('M')['A'].mean()</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="6" t="s">
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>df.resample('M')['A'].count()</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B172" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="6" t="s">
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>df.to_csv('file.csv.zip')</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="6" t="s">
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.read_csv('file.csv.zip')</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="6" t="s">
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>df.interpolate()</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="6" t="s">
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.merge(dfl,dfr,how='inner',validate='one_to_many'</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="6" t="s">
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>df.unstack()</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="6" t="s">
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="6" t="s">
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>BD</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B182" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="6" t="s">
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>ABCD</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="6" t="s">
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>BDEF</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B184" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="6" t="s">
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>ABCDEF</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B182" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="6" t="s">
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.concat([df1,df2,df3])</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="6" t="s">
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>pd.concat([df1,df2,df3],axis=1)</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B187" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="6" t="s">
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>df['A'].corr(df['B'])</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B188" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="6" t="s">
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>df.corr()</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B189" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>377</v>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>df.plot.kde()</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A6AA49-0EDA-4BB0-B58B-B7B4163CA3AC}"/>
+  <xr:revisionPtr revIDLastSave="917" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE1880B-4915-460A-8F0A-8687DBAF7228}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="450">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -267,7 +267,7 @@
     <t>Aggregate a sum on col B of the groupby object on A</t>
   </si>
   <si>
-    <t>df.value_counts(dropna=False)</t>
+    <t>Counts the number of Unique Values- Doesn’t show NA</t>
   </si>
   <si>
     <t>df.value_counts(normalize=True)</t>
@@ -396,9 +396,6 @@
     <t>ax.legend()</t>
   </si>
   <si>
-    <t>Write a Python code snippet to set the title of the plot to "Simple Plot"  on the ax axes object.</t>
-  </si>
-  <si>
     <t>Create a scatter plot of the x and y values on the axes</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>how to get the first row using iloc</t>
   </si>
   <si>
-    <t>df.iloc[1]</t>
-  </si>
-  <si>
     <t>How to get the last row</t>
   </si>
   <si>
@@ -606,9 +600,6 @@
     <t>df.iloc[:,3:6]</t>
   </si>
   <si>
-    <t>df.iloc[:,3:10:2]</t>
-  </si>
-  <si>
     <t>Select rows 2,3,5 and columns 0,3,5</t>
   </si>
   <si>
@@ -648,9 +639,6 @@
     <t>fig,ax=plt.subplots()</t>
   </si>
   <si>
-    <t>ax.set_title('SimplePlot')</t>
-  </si>
-  <si>
     <t>ax.scatter(x,y)</t>
   </si>
   <si>
@@ -663,514 +651,742 @@
     <t>fig,axs=plt.subplots(1,2,figsize=(6,3))</t>
   </si>
   <si>
-    <t>ax.plot(df['A'],df['A'],label='Data')</t>
-  </si>
-  <si>
     <t>ax.axvspan(xmin=4,xmax=6,color='gray',alpha=0.5)</t>
   </si>
   <si>
     <t>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</t>
   </si>
   <si>
-    <t>random.randint(100)</t>
-  </si>
-  <si>
-    <t>random.rand()</t>
-  </si>
-  <si>
-    <t>random.randint(100,size=(5))</t>
-  </si>
-  <si>
-    <t>random.randint(100,size=(3,5))</t>
-  </si>
-  <si>
-    <t>random.rand(5)</t>
-  </si>
-  <si>
-    <t>random.rand(3,5)</t>
-  </si>
-  <si>
-    <t>random.choice([3,5,7,9])</t>
-  </si>
-  <si>
-    <t>random.choice([3,5,7,9],size=(3,5))</t>
-  </si>
-  <si>
     <t>np.random.randn(5,1)</t>
   </si>
   <si>
+    <t>ax.axhline(y=1,color='green')</t>
+  </si>
+  <si>
+    <t>Add a vertical line at x=1, color is green</t>
+  </si>
+  <si>
+    <t>get the first letter of a word</t>
+  </si>
+  <si>
+    <t>word[0]</t>
+  </si>
+  <si>
+    <t>get the first three characters of word</t>
+  </si>
+  <si>
+    <t>Get the last letter of a word</t>
+  </si>
+  <si>
+    <t>word[-1]</t>
+  </si>
+  <si>
+    <t>Getting the length of the word</t>
+  </si>
+  <si>
+    <t>len(word)</t>
+  </si>
+  <si>
+    <t>To get every second string of a word</t>
+  </si>
+  <si>
+    <t>word[::2]</t>
+  </si>
+  <si>
+    <t>Capitalize first letter of the word</t>
+  </si>
+  <si>
+    <t>word.capitalize()</t>
+  </si>
+  <si>
+    <t>count the occurrence of 'u' in a word</t>
+  </si>
+  <si>
+    <t>word.count('u')</t>
+  </si>
+  <si>
+    <t>word.startswith('val')</t>
+  </si>
+  <si>
+    <t>Check if the word starts with a particular string 'val'</t>
+  </si>
+  <si>
+    <t>Check if the word ends with a particular string 'val'</t>
+  </si>
+  <si>
+    <t>word.endswith("val")</t>
+  </si>
+  <si>
+    <t>Check the position of the first occurrence of character 'u' in a word</t>
+  </si>
+  <si>
+    <t>word.find('u')</t>
+  </si>
+  <si>
+    <t>To check if there Is a whitespace in a word</t>
+  </si>
+  <si>
+    <t>word.isalpha()</t>
+  </si>
+  <si>
+    <t>to check if a word is decimal</t>
+  </si>
+  <si>
+    <t>word.isdecima()</t>
+  </si>
+  <si>
+    <t>To check if the word has any special character</t>
+  </si>
+  <si>
+    <t>word.isalnum()</t>
+  </si>
+  <si>
+    <t>word - to convert to upper case</t>
+  </si>
+  <si>
+    <t>word.upper()</t>
+  </si>
+  <si>
+    <t>word - to convert to lower case</t>
+  </si>
+  <si>
+    <t>word.lower()</t>
+  </si>
+  <si>
+    <t>to replace a string'abc' with another string'def' in  a word</t>
+  </si>
+  <si>
+    <t>word.replace('abc','def')</t>
+  </si>
+  <si>
+    <t>To remove any leading or trailing whitespaces in a word</t>
+  </si>
+  <si>
+    <t>word.strip()</t>
+  </si>
+  <si>
+    <t>to split the words in a sentence by a comma</t>
+  </si>
+  <si>
+    <t>",".join(my_list)</t>
+  </si>
+  <si>
+    <t>to join the words given in a list (my_list) separated by comma</t>
+  </si>
+  <si>
+    <t>To split the lines in a multiline-'text'- separated by \n etc characters</t>
+  </si>
+  <si>
+    <t>text.splitlines()</t>
+  </si>
+  <si>
+    <t>Format the stirng : "my name is -variable'name'-"</t>
+  </si>
+  <si>
+    <t>Format the number pi to 2 places of decimals</t>
+  </si>
+  <si>
+    <t>f"{pi:.2f}"</t>
+  </si>
+  <si>
+    <t>Format the number pi using thousands operator</t>
+  </si>
+  <si>
+    <t>f"{pi:,}"</t>
+  </si>
+  <si>
+    <t>Format the number pi padded to 5 places</t>
+  </si>
+  <si>
+    <t>f"{pi:5}"</t>
+  </si>
+  <si>
+    <t>Format the number pi left aligned and padded to 5 places</t>
+  </si>
+  <si>
+    <t>Format the number pi using 2e notation</t>
+  </si>
+  <si>
+    <t>f"{pi:&lt;5}"</t>
+  </si>
+  <si>
+    <t>f"{pi:.2e}"</t>
+  </si>
+  <si>
+    <t>Format the number pi to have a % with 2 decimal places</t>
+  </si>
+  <si>
+    <t>f"{pi:.2%}"</t>
+  </si>
+  <si>
+    <t>How to make a df wide to long, you don’t' want to change column A, call changed column as B and value as C</t>
+  </si>
+  <si>
+    <t>pd.melt(df,id_vars='A',var_name='B',value_name='C')</t>
+  </si>
+  <si>
+    <t>How to make a df wide to long, you don’t' want to change column A and B, call changed column as C and value as D</t>
+  </si>
+  <si>
+    <t>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</t>
+  </si>
+  <si>
+    <t>How to split a text column A containing value eg. ab_c on underscore_</t>
+  </si>
+  <si>
+    <t>df.A.str.split('_')</t>
+  </si>
+  <si>
+    <t>Find the number of missing values in each column of df</t>
+  </si>
+  <si>
+    <t>df.isnull().sum()</t>
+  </si>
+  <si>
+    <t>df.dropna(axis=1,how='all')</t>
+  </si>
+  <si>
+    <t>Remove all the columns that only contain missing values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter a df by a column A  if it has a value equal to 'a' </t>
+  </si>
+  <si>
+    <t>df[df['A']=='a']</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values in a category pref- and sort it in ascending order</t>
+  </si>
+  <si>
+    <t>Counts the fraction of Unique Values in a category pref</t>
+  </si>
+  <si>
+    <t>Counts the number of Unique Values in a category col pref- shows NA as well</t>
+  </si>
+  <si>
+    <t>To know if a text column contains a string ab, it puts NA against - if it doesn't</t>
+  </si>
+  <si>
+    <t>df['A'].str.contains('ab')</t>
+  </si>
+  <si>
+    <t>Show the pandas installed version</t>
+  </si>
+  <si>
+    <t>pd.__version__</t>
+  </si>
+  <si>
+    <t>pd.show_versions()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To show the versions of pandas dependencies eg. Python, </t>
+  </si>
+  <si>
+    <t>create a dataframe using dictionary with two columns 'A' and 'B' with values 1,2 and 3,4</t>
+  </si>
+  <si>
+    <t>pd.DataFrame({'A':[1,2],'B':[3,4]})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crate a dataframe with 4 rows and 8 columns passing random values </t>
+  </si>
+  <si>
+    <t>pd.DataFrame(np.random.rand(4,8))</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(np.random.rand(4,8),columns=list('abcdefgh'))</t>
+  </si>
+  <si>
+    <t>df.rename({'A':'B'},axis=1)</t>
+  </si>
+  <si>
+    <t>Reverse the rows of a dataframe  using loc</t>
+  </si>
+  <si>
+    <t>df.loc[::-1]</t>
+  </si>
+  <si>
+    <t>Reverse the columns of a dataframe using loc</t>
+  </si>
+  <si>
+    <t>df.loc[:,::-1]</t>
+  </si>
+  <si>
+    <t>Select only the numeric column of a dataframe</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(include='number')</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(include=['number','object','category','datetime'])</t>
+  </si>
+  <si>
+    <t>Select only the number, object, category and datetime columns of a dataframe</t>
+  </si>
+  <si>
+    <t>Select all columns excluding number datatypes</t>
+  </si>
+  <si>
+    <t>df.select_dtypes(exclude='number')</t>
+  </si>
+  <si>
+    <t>Convert a string column to numeric if it contains any invalid input say a - or blank</t>
+  </si>
+  <si>
+    <t>df.to_numeric('A',errors='coerce')</t>
+  </si>
+  <si>
+    <t>Convert all the strings to numeric if the df contains any invalid input say a- or blank</t>
+  </si>
+  <si>
+    <t>df.apply(pd.to_numeric,errors='coerce')</t>
+  </si>
+  <si>
+    <t>Read the clipborard</t>
+  </si>
+  <si>
+    <t>pd.read_clipboard()</t>
+  </si>
+  <si>
+    <t>Randomly Split the dataframe into two random subset, 25% in one dataframe and 75% in another</t>
+  </si>
+  <si>
+    <t>df.sample(frac=0.75)</t>
+  </si>
+  <si>
+    <t>Sort the index of a dataframe</t>
+  </si>
+  <si>
+    <t>df.index.sort_values()</t>
+  </si>
+  <si>
+    <t>Filter a df by multiple categories a, b, c present in a particular column A</t>
+  </si>
+  <si>
+    <t>df[df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
+  </si>
+  <si>
+    <t>df[~df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>Get only the min and max of describe function of a dataframe</t>
+  </si>
+  <si>
+    <t>df.describe.loc['min':'max']</t>
+  </si>
+  <si>
+    <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
+  </si>
+  <si>
+    <t>df.pivot_table(index='R',columns='C',values='V',aggfunc='mean',margins=True)</t>
+  </si>
+  <si>
+    <t>Convert continuous datacolumn A into categorical Data columns with three categories c1,c2,c3., with c1:0 to 25, c2: 26 to 50, c3 51 to 99</t>
+  </si>
+  <si>
+    <t>pd.cut(df['A'],bins=[0,25,50,99],labels=['c1','c2','c3'])</t>
+  </si>
+  <si>
+    <t>Get the profile report of a dataframe</t>
+  </si>
+  <si>
+    <t>pandas_profiling.ProfileReport(df)</t>
+  </si>
+  <si>
+    <t>Compare two columns A and B of a dataframe</t>
+  </si>
+  <si>
+    <t>df['A'].equals(df['B'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide a df numeric column into three parts </t>
+  </si>
+  <si>
+    <t>pd.qcut(df['A'],q=3)</t>
+  </si>
+  <si>
+    <t>pd.crosstab(df['A'],df['B'],margins=True)</t>
+  </si>
+  <si>
+    <t>Create a cross tabulation of the count of values of two columns A and B, add totals as well</t>
+  </si>
+  <si>
+    <t>Resample a timeseries df with daily data to give you mean of the column A monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M')['A'].mean()</t>
+  </si>
+  <si>
+    <t>Resample a timeseries df with daily data to give you count of the column A monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M')['A'].count()</t>
+  </si>
+  <si>
+    <t>Write a zipped csv file called file</t>
+  </si>
+  <si>
+    <t>df.to_csv('file.csv.zip')</t>
+  </si>
+  <si>
+    <t>Read a zipped csv file called file</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv.zip')</t>
+  </si>
+  <si>
+    <t>Do a auomatic interploation  of missing values</t>
+  </si>
+  <si>
+    <t>df.interpolate()</t>
+  </si>
+  <si>
+    <t>we have two dataframe dfl and dfr, we want to merge inner on key 'A', how to ensure that the dfl has unique 'A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To flat a multi index </t>
+  </si>
+  <si>
+    <t>df.unstack()</t>
+  </si>
+  <si>
+    <t>Resample a df with date column at A to give you sum of numeric column B and mean of numeric column C monthwise</t>
+  </si>
+  <si>
+    <t>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, inner join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, left join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, right  join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>BDEF</t>
+  </si>
+  <si>
+    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, outer  join on key will  give you these cols (Answer like AB)</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,df3])</t>
+  </si>
+  <si>
+    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from top to bottom</t>
+  </si>
+  <si>
+    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from side to side</t>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2,df3],axis=1)</t>
+  </si>
+  <si>
+    <t>Create a correlation between A and B columns of df</t>
+  </si>
+  <si>
+    <t>df['A'].corr(df['B'])</t>
+  </si>
+  <si>
+    <t>Create a correlation matrix in a df for numerical columns</t>
+  </si>
+  <si>
+    <t>df.corr()</t>
+  </si>
+  <si>
+    <t>Plot a kde plot for all numerical values in a df</t>
+  </si>
+  <si>
+    <t>df.plot.kde()</t>
+  </si>
+  <si>
+    <t>df['A'].value_counts(dropna=False)</t>
+  </si>
+  <si>
+    <t>df.nsmallest(5,'A')</t>
+  </si>
+  <si>
+    <t>Find the bottom 5 values in a df column</t>
+  </si>
+  <si>
+    <t>Find the top 5 values in a df column</t>
+  </si>
+  <si>
+    <t>df.nlargest(5,'A')</t>
+  </si>
+  <si>
+    <t>Take out the rows from a df which are between 4000 to 10000</t>
+  </si>
+  <si>
+    <t>df.query('4000&lt;"A"&lt;10000')</t>
+  </si>
+  <si>
+    <t>set the x-ticks to the values represented by variable values = [0,25,50,75,100]</t>
+  </si>
+  <si>
+    <t>ax.set_xticks(values)</t>
+  </si>
+  <si>
+    <t>Change the x-ticks rotation to 45 degrees</t>
+  </si>
+  <si>
+    <t>ax.xticks(rotation=45)</t>
+  </si>
+  <si>
+    <t>sns.countplot(data=df,x='A')</t>
+  </si>
+  <si>
+    <t>sns.countplot(data=df,x='A',hue='B')</t>
+  </si>
+  <si>
+    <t>Shows the counts of each value in the df column A as a multi bar plot, Separate it by another column B</t>
+  </si>
+  <si>
+    <t>Shows the counts of each value in the df column as a vertical bar plot- use sns</t>
+  </si>
+  <si>
+    <t>Shows the counts of each value in the df column as a horizontal bar plot- use sns</t>
+  </si>
+  <si>
+    <t>sns.countplot(data=df,y='A')</t>
+  </si>
+  <si>
+    <t>Creates the scatter plot between two columns A and B with an additional color C</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D")</t>
+  </si>
+  <si>
+    <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D</t>
+  </si>
+  <si>
+    <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns  basis column D. create ,more rows basis column E</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E")</t>
+  </si>
+  <si>
+    <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D,wrap the columns across rows if exceeded</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2)</t>
+  </si>
+  <si>
+    <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D, also size the dots basis E and Style the dots basis F</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F")</t>
+  </si>
+  <si>
+    <t>Creates the line plot between two columns A and B with an additional color C</t>
+  </si>
+  <si>
+    <t>Creates the line plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D</t>
+  </si>
+  <si>
+    <t>Creates the line plot between two columns A and B with an additional color C, Create more columns  basis column D. create ,more rows basis column E</t>
+  </si>
+  <si>
+    <t>Creates the line plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D,wrap the columns across rows if exceeded</t>
+  </si>
+  <si>
+    <t>Creates the line plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D, also size the dots basis E and Style the dots basis F</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E",kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2,kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F",kind='line')</t>
+  </si>
+  <si>
+    <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B</t>
+  </si>
+  <si>
+    <t>sns.lmplot(data=df,x='A',y='B')</t>
+  </si>
+  <si>
+    <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B, Split the lines on the basis of column C</t>
+  </si>
+  <si>
+    <t>sns.lmplot(data=df,x='A',y='B',hue='C')</t>
+  </si>
+  <si>
+    <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B, Split the lines on the basis of column C, further split the graphs on the basis of Column D</t>
+  </si>
+  <si>
+    <t>sns.lmplot(data=df,x='A',y='B',hue='C',col='D')</t>
+  </si>
+  <si>
+    <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B, Split the lines on the basis of column C, further split the graphs on the basis of Column D. Add rows on the basis of column E</t>
+  </si>
+  <si>
+    <t>sns.lmplot(data=df,x='A',y='B',hue='C',col='D',row='E')</t>
+  </si>
+  <si>
+    <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B, Split the lines on the basis of column C, further split the graphs on the basis of Column D. Add rows on the basis of column E. Allow limits of x and y to vary across the graphs</t>
+  </si>
+  <si>
+    <t>Draw a pairplot for all the numeric columns in a df</t>
+  </si>
+  <si>
+    <t>sns.pairplot(df)</t>
+  </si>
+  <si>
+    <t>word.split(sep=",")</t>
+  </si>
+  <si>
+    <t>f"MyNameis{name}"</t>
+  </si>
+  <si>
+    <t>Count the non-null values In a df column A</t>
+  </si>
+  <si>
+    <t>df['A'].count()</t>
+  </si>
+  <si>
+    <t>pd.merge(dfl,dfr,how='inner',validate='one_to_many')</t>
+  </si>
+  <si>
+    <t>sns.lmplot(data=df,x='A',y='B',hue='C',col='D',row='E',facet_kws=dict(sharex=False,sharey=False))</t>
+  </si>
+  <si>
+    <t>ax.plot(df['A'],df['B'],label='data')</t>
+  </si>
+  <si>
+    <t>Crate a dataframe with 4 rows and 8 columns passing random values . Non Numeric column names are  a, b, c,d,e,f,g,h</t>
+  </si>
+  <si>
+    <t>Create a cross tabulation of two columns A and B, put the values in Column C and aggregate by sum</t>
+  </si>
+  <si>
+    <t>pd.crosstab(df['A'],df['B'],values=df['C'],aggfunc='sum')</t>
+  </si>
+  <si>
     <t>[x**2forxinaifx%2==0]</t>
   </si>
   <si>
-    <t>ax.axhline(y=1,color='green')</t>
-  </si>
-  <si>
-    <t>Add a vertical line at x=1, color is green</t>
-  </si>
-  <si>
-    <t>get the first letter of a word</t>
-  </si>
-  <si>
-    <t>word[0]</t>
-  </si>
-  <si>
-    <t>get the first three characters of word</t>
-  </si>
-  <si>
-    <t>word[0:3]</t>
-  </si>
-  <si>
-    <t>Get the last letter of a word</t>
-  </si>
-  <si>
-    <t>word[-1]</t>
-  </si>
-  <si>
-    <t>Getting the length of the word</t>
-  </si>
-  <si>
-    <t>len(word)</t>
-  </si>
-  <si>
-    <t>To get every second string of a word</t>
-  </si>
-  <si>
-    <t>word[::2]</t>
-  </si>
-  <si>
-    <t>Capitalize first letter of the word</t>
-  </si>
-  <si>
-    <t>word.capitalize()</t>
-  </si>
-  <si>
-    <t>count the occurrence of 'u' in a word</t>
-  </si>
-  <si>
-    <t>word.count('u')</t>
-  </si>
-  <si>
-    <t>word.startswith('val')</t>
-  </si>
-  <si>
-    <t>Check if the word starts with a particular string 'val'</t>
-  </si>
-  <si>
-    <t>Check if the word ends with a particular string 'val'</t>
-  </si>
-  <si>
-    <t>word.endswith("val")</t>
-  </si>
-  <si>
-    <t>Check the position of the first occurrence of character 'u' in a word</t>
-  </si>
-  <si>
-    <t>word.find('u')</t>
-  </si>
-  <si>
-    <t>To check if there Is a whitespace in a word</t>
-  </si>
-  <si>
-    <t>word.isalpha()</t>
-  </si>
-  <si>
-    <t>to check if a word is decimal</t>
-  </si>
-  <si>
-    <t>word.isdecima()</t>
-  </si>
-  <si>
-    <t>To check if the word has any special character</t>
-  </si>
-  <si>
-    <t>word.isalnum()</t>
-  </si>
-  <si>
-    <t>word - to convert to upper case</t>
-  </si>
-  <si>
-    <t>word.upper()</t>
-  </si>
-  <si>
-    <t>word - to convert to lower case</t>
-  </si>
-  <si>
-    <t>word.lower()</t>
-  </si>
-  <si>
-    <t>to replace a string'abc' with another string'def' in  a word</t>
-  </si>
-  <si>
-    <t>word.replace('abc','def')</t>
-  </si>
-  <si>
-    <t>To remove any leading or trailing whitespaces in a word</t>
-  </si>
-  <si>
-    <t>word.strip()</t>
-  </si>
-  <si>
-    <t>to split the words in a sentence by a comma</t>
-  </si>
-  <si>
-    <t>",".join(my_list)</t>
-  </si>
-  <si>
-    <t>to join the words given in a list (my_list) separated by comma</t>
-  </si>
-  <si>
-    <t>To split the lines in a multiline-'text'- separated by \n etc characters</t>
-  </si>
-  <si>
-    <t>text.splitlines()</t>
-  </si>
-  <si>
-    <t>Format the stirng : "my name is -variable'name'-"</t>
-  </si>
-  <si>
-    <t>Format the number pi to 2 places of decimals</t>
-  </si>
-  <si>
-    <t>f"{pi:.2f}"</t>
-  </si>
-  <si>
-    <t>Format the number pi using thousands operator</t>
-  </si>
-  <si>
-    <t>f"{pi:,}"</t>
-  </si>
-  <si>
-    <t>Format the number pi padded to 5 places</t>
-  </si>
-  <si>
-    <t>f"{pi:5}"</t>
-  </si>
-  <si>
-    <t>Format the number pi left aligned and padded to 5 places</t>
-  </si>
-  <si>
-    <t>Format the number pi using 2e notation</t>
-  </si>
-  <si>
-    <t>f"{pi:&lt;5}"</t>
-  </si>
-  <si>
-    <t>f"{pi:.2e}"</t>
-  </si>
-  <si>
-    <t>Format the number pi to have a % with 2 decimal places</t>
-  </si>
-  <si>
-    <t>f"{pi:.2%}"</t>
-  </si>
-  <si>
-    <t>How to make a df wide to long, you don’t' want to change column A, call changed column as B and value as C</t>
-  </si>
-  <si>
-    <t>pd.melt(df,id_vars='A',var_name='B',value_name='C')</t>
-  </si>
-  <si>
-    <t>How to make a df wide to long, you don’t' want to change column A and B, call changed column as C and value as D</t>
-  </si>
-  <si>
-    <t>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</t>
-  </si>
-  <si>
-    <t>How to split a text column A containing value eg. ab_c on underscore_</t>
-  </si>
-  <si>
-    <t>df.A.str.split('_')</t>
-  </si>
-  <si>
-    <t>Find the number of missing values in each column of df</t>
-  </si>
-  <si>
-    <t>df.isnull().sum()</t>
-  </si>
-  <si>
-    <t>df.dropna(axis=1,how='all')</t>
-  </si>
-  <si>
-    <t>Remove all the columns that only contain missing values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter a df by a column A  if it has a value equal to 'a' </t>
-  </si>
-  <si>
-    <t>df[df['A']=='a']</t>
-  </si>
-  <si>
-    <t>To know if a text column contains a string ab, it puts NA against - if it doesn't</t>
-  </si>
-  <si>
-    <t>df['A'].str.contains('ab')</t>
-  </si>
-  <si>
-    <t>Show the pandas installed version</t>
-  </si>
-  <si>
-    <t>pd.__version__</t>
-  </si>
-  <si>
-    <t>pd.show_versions()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To show the versions of pandas dependencies eg. Python, </t>
-  </si>
-  <si>
-    <t>create a dataframe using dictionary with two columns 'A' and 'B' with values 1,2 and 3,4</t>
-  </si>
-  <si>
-    <t>pd.DataFrame({'A':[1,2],'B':[3,4]})</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crate a dataframe with 4 rows and 8 columns passing random values </t>
-  </si>
-  <si>
-    <t>pd.DataFrame(np.random.rand(4,8))</t>
-  </si>
-  <si>
-    <t>Crate a dataframe with 4 rows and 8 columns passing random values . Non Numeric column names</t>
-  </si>
-  <si>
-    <t>pd.DataFrame(np.random.rand(4,8),columns=list('abcdefgh'))</t>
-  </si>
-  <si>
-    <t>df.rename({'A':'B'},axis=1)</t>
-  </si>
-  <si>
-    <t>Reverse the rows of a dataframe  using loc</t>
-  </si>
-  <si>
-    <t>df.loc[::-1]</t>
-  </si>
-  <si>
-    <t>Reverse the columns of a dataframe using loc</t>
-  </si>
-  <si>
-    <t>df.loc[:,::-1]</t>
-  </si>
-  <si>
-    <t>Select only the numeric column of a dataframe</t>
-  </si>
-  <si>
-    <t>df.select_dtypes(include='number')</t>
-  </si>
-  <si>
-    <t>df.select_dtypes(include=['number','object','category','datetime'])</t>
-  </si>
-  <si>
-    <t>Select only the number, object, category and datetime columns of a dataframe</t>
-  </si>
-  <si>
-    <t>Select all columns excluding number datatypes</t>
-  </si>
-  <si>
-    <t>df.select_dtypes(exclude='number')</t>
-  </si>
-  <si>
-    <t>Convert a string column to numeric if it contains any invalid input say a - or blank</t>
-  </si>
-  <si>
-    <t>df.to_numeric('A',errors='coerce')</t>
-  </si>
-  <si>
-    <t>Convert all the strings to numeric if the df contains any invalid input say a- or blank</t>
-  </si>
-  <si>
-    <t>df.apply(pd.to_numeric,errors='coerce')</t>
-  </si>
-  <si>
-    <t>Read the clipborard</t>
-  </si>
-  <si>
-    <t>pd.read_clipboard()</t>
-  </si>
-  <si>
-    <t>Randomly Split the dataframe into two random subset, 25% in one dataframe and 75% in another</t>
-  </si>
-  <si>
-    <t>df.sample(frac=0.75)</t>
-  </si>
-  <si>
-    <t>Sort the index of a dataframe</t>
-  </si>
-  <si>
-    <t>df.index.sort_values()</t>
-  </si>
-  <si>
-    <t>Filter a df by multiple categories a, b, c present in a particular column A</t>
-  </si>
-  <si>
-    <t>df[df['A'].isin(['a','b','c'])]</t>
-  </si>
-  <si>
-    <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
-  </si>
-  <si>
-    <t>df[~df['A'].isin(['a','b','c'])]</t>
-  </si>
-  <si>
-    <t>Get only the min and max of describe function of a dataframe</t>
-  </si>
-  <si>
-    <t>df.describe.loc['min':'max']</t>
-  </si>
-  <si>
-    <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
-  </si>
-  <si>
-    <t>df.pivot_table(index='R',columns='C',values='V',aggfunc='mean',margins=True)</t>
-  </si>
-  <si>
-    <t>Convert continuous datacolumn A into categorical Data columns with three categories c1,c2,c3., with c1:0 to 25, c2: 26 to 50, c3 51 to 99</t>
-  </si>
-  <si>
-    <t>pd.cut(df['A'],bins=[0,25,50,99],labels=['c1','c2','c3'])</t>
-  </si>
-  <si>
-    <t>Get the profile report of a dataframe</t>
-  </si>
-  <si>
-    <t>pandas_profiling.ProfileReport(df)</t>
-  </si>
-  <si>
-    <t>Compare two columns A and B of a dataframe</t>
-  </si>
-  <si>
-    <t>df['A'].equals(df['B'])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide a df numeric column into three parts </t>
-  </si>
-  <si>
-    <t>pd.qcut(df['A'],q=3)</t>
-  </si>
-  <si>
-    <t>pd.crosstab(df['A'],df['B'],margins=True)</t>
-  </si>
-  <si>
-    <t>Create a cross tabulation of the count of values of two columns A and B, add totals as well</t>
-  </si>
-  <si>
-    <t>Resample a timeseries df with daily data to give you mean of the column A monthwise</t>
-  </si>
-  <si>
-    <t>df.resample('M')['A'].mean()</t>
-  </si>
-  <si>
-    <t>Resample a timeseries df with daily data to give you count of the column A monthwise</t>
-  </si>
-  <si>
-    <t>df.resample('M')['A'].count()</t>
-  </si>
-  <si>
-    <t>Write a zipped csv file called file</t>
-  </si>
-  <si>
-    <t>df.to_csv('file.csv.zip')</t>
-  </si>
-  <si>
-    <t>Read a zipped csv file called file</t>
-  </si>
-  <si>
-    <t>pd.read_csv('file.csv.zip')</t>
-  </si>
-  <si>
-    <t>Do a auomatic interploation  of missing values</t>
-  </si>
-  <si>
-    <t>df.interpolate()</t>
-  </si>
-  <si>
-    <t>we have two dataframe dfl and dfr, we want to merge inner on key 'A', how to ensure that the dfl has unique 'A'</t>
-  </si>
-  <si>
-    <t>pd.merge(dfl,dfr,how='inner',validate='one_to_many'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To flat a multi index </t>
-  </si>
-  <si>
-    <t>df.unstack()</t>
-  </si>
-  <si>
-    <t>Resample a df with date column at A to give you sum of numeric column B and mean of numeric column C monthwise</t>
-  </si>
-  <si>
-    <t>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</t>
-  </si>
-  <si>
-    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, inner join on key will  give you these cols (Answer like AB)</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, left join on key will  give you these cols (Answer like AB)</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, right  join on key will  give you these cols (Answer like AB)</t>
-  </si>
-  <si>
-    <t>BDEF</t>
-  </si>
-  <si>
-    <t>You have two dfs, left and right, left has col 'key' with values ABCD, right col 'key' with values BDEF, outer  join on key will  give you these cols (Answer like AB)</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>pd.concat([df1,df2,df3])</t>
-  </si>
-  <si>
-    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from top to bottom</t>
-  </si>
-  <si>
-    <t>There are 3 dfs df1, df2, df3, all have the same types, names and number of columns. You need to combine them from side to side</t>
-  </si>
-  <si>
-    <t>pd.concat([df1,df2,df3],axis=1)</t>
-  </si>
-  <si>
-    <t>Create a correlation between A and B columns of df</t>
-  </si>
-  <si>
-    <t>df['A'].corr(df['B'])</t>
-  </si>
-  <si>
-    <t>Create a correlation matrix in a df for numerical columns</t>
-  </si>
-  <si>
-    <t>df.corr()</t>
-  </si>
-  <si>
-    <t>Plot a kde plot for all numerical values in a df</t>
-  </si>
-  <si>
-    <t>df.plot.kde()</t>
-  </si>
-  <si>
-    <t>word.split(sep=",")</t>
-  </si>
-  <si>
-    <t>f"MyNameis{name}"</t>
-  </si>
-  <si>
-    <t>Give me the Sorted Frequency of Unique values in a df</t>
-  </si>
-  <si>
-    <t>Counts the Sorted frequecy of Unique Values in a column shows frequency  of NA as well</t>
-  </si>
-  <si>
-    <t>Sorted Percentage distribution of Unique Values in a category pref</t>
-  </si>
-  <si>
-    <t>Gives  the Frequency of  Unique Values in a column- and sort it in ascending order</t>
+    <t>date= "2023-01-01" in the datetime format. You want to find the date after 29 days.How do you get in pandas</t>
+  </si>
+  <si>
+    <t>date+pd.DateOffset(days=29)</t>
+  </si>
+  <si>
+    <t>You are given a timeseries dataframe with a value column called "A". Find the three day moving average of this value</t>
+  </si>
+  <si>
+    <t>df['A'].rolling(window=3).sum()</t>
+  </si>
+  <si>
+    <t>You are given a timeseries dataframe with a value column called "A". Find the three day moving sum of this value</t>
+  </si>
+  <si>
+    <t>df['A'].rolling(window=3).mean()</t>
+  </si>
+  <si>
+    <t>np.random.randint(100)</t>
+  </si>
+  <si>
+    <t>np.random.rand()</t>
+  </si>
+  <si>
+    <t>np.random.randint(100,size=(5))</t>
+  </si>
+  <si>
+    <t>np.random.randint(100,size=(3,5))</t>
+  </si>
+  <si>
+    <t>np.random.rand(5)</t>
+  </si>
+  <si>
+    <t>np.random.rand(3,5)</t>
+  </si>
+  <si>
+    <t>np.random.choice([3,5,7,9])</t>
+  </si>
+  <si>
+    <t>np.random.choice([3,5,7,9],size=(3,5))</t>
+  </si>
+  <si>
+    <t>Create a histogram using sns of a df column A</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',kind='histplot')</t>
+  </si>
+  <si>
+    <t>Create an outline histogram ( kde) using sns of a df column A</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',kind='kde')</t>
+  </si>
+  <si>
+    <t>Create an cumulative Frequency distribution ( ecdf) using sns of a df column A</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',kind='ecdf')</t>
+  </si>
+  <si>
+    <t>Create a histogram using sns of a df column A. Add an outline as well</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',kind='histplot',kde=True)</t>
+  </si>
+  <si>
+    <t>To draw a bivariate plot between two numerical columns A and B</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',y='B')</t>
+  </si>
+  <si>
+    <t>To draw a bivariate gradient outline type of plot between two numerical columns A and B</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',y='B',kind='kde')</t>
+  </si>
+  <si>
+    <t>Create an outline histogram ( kde) using sns of a df column A, Draw graphs of different colors based on categorical column B</t>
+  </si>
+  <si>
+    <t>sns.displot(data=df,x='A',hue='B',kind='kde')</t>
+  </si>
+  <si>
+    <t>df.iloc[0]</t>
+  </si>
+  <si>
+    <t>df.iloc[:,3:11:2]</t>
+  </si>
+  <si>
+    <t>word[0:2]</t>
+  </si>
+  <si>
+    <t>ax.set_title('Simple_Plot')</t>
+  </si>
+  <si>
+    <t>Write a Python code snippet to set the title of the plot to "Simple_Plot"  on the ax axes object.</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1253,6 +1469,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1609,10 +1828,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -1621,10 +1840,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -1660,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1669,7 +1888,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1729,7 +1948,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1768,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2065,19 +2284,19 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>df.value_counts(dropna=False)</v>
+        <v>df['A'].value_counts(dropna=False)</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
@@ -2089,7 +2308,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
         <v>78</v>
@@ -2128,7 +2347,7 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -2221,7 +2440,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -2296,7 +2515,7 @@
         <v>112</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -2341,22 +2560,22 @@
     </row>
     <row r="67" spans="1:3" ht="17.25">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>203</v>
+        <v>448</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
-        <v>ax.set_title('SimplePlot')</v>
+        <v>ax.set_title('Simple_Plot')</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
@@ -2365,10 +2584,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
@@ -2377,10 +2596,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
         <v>122</v>
-      </c>
-      <c r="B70" t="s">
-        <v>123</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -2389,10 +2608,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" t="s">
         <v>124</v>
-      </c>
-      <c r="B71" t="s">
-        <v>125</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -2401,10 +2620,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" t="s">
         <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -2413,7 +2632,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
         <v>118</v>
@@ -2425,10 +2644,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -2437,10 +2656,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
         <v>131</v>
-      </c>
-      <c r="B75" t="s">
-        <v>132</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -2449,10 +2668,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -2461,10 +2680,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
         <v>135</v>
-      </c>
-      <c r="B77" t="s">
-        <v>136</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -2473,10 +2692,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -2485,10 +2704,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -2497,22 +2716,22 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>ax.plot(df['A'],df['A'],label='Data')</v>
+        <v>ax.plot(df['A'],df['B'],label='data')</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -2521,10 +2740,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -2533,10 +2752,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -2545,10 +2764,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -2557,10 +2776,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
         <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>145</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
@@ -2569,10 +2788,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" t="s">
         <v>146</v>
-      </c>
-      <c r="B86" t="s">
-        <v>147</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
@@ -2581,10 +2800,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
         <v>148</v>
-      </c>
-      <c r="B87" t="s">
-        <v>149</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -2593,10 +2812,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" t="s">
         <v>150</v>
-      </c>
-      <c r="B88" t="s">
-        <v>151</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
@@ -2605,10 +2824,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" t="s">
         <v>152</v>
-      </c>
-      <c r="B89" t="s">
-        <v>153</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
@@ -2617,10 +2836,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
         <v>154</v>
-      </c>
-      <c r="B90" t="s">
-        <v>155</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
@@ -2629,106 +2848,106 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>random.randint(100)</v>
+        <v>np.random.randint(100)</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>random.rand()</v>
+        <v>np.random.rand()</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>213</v>
+        <v>425</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>random.randint(100,size=(5))</v>
+        <v>np.random.randint(100,size=(5))</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>random.randint(100,size=(3,5))</v>
+        <v>np.random.randint(100,size=(3,5))</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>random.rand(5)</v>
+        <v>np.random.rand(5)</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>random.rand(3,5)</v>
+        <v>np.random.rand(3,5)</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
-        <v>random.choice([3,5,7,9])</v>
+        <v>np.random.choice([3,5,7,9])</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
-        <v>random.choice([3,5,7,9],size=(3,5))</v>
+        <v>np.random.choice([3,5,7,9],size=(3,5))</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -2737,10 +2956,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>220</v>
+        <v>416</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -2749,10 +2968,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -2761,10 +2980,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -2773,10 +2992,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -2785,10 +3004,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -2797,10 +3016,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -2809,10 +3028,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -2821,22 +3040,22 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>176</v>
+        <v>445</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
-        <v>df.iloc[1]</v>
+        <v>df.iloc[0]</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -2845,10 +3064,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -2857,10 +3076,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -2869,10 +3088,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -2881,22 +3100,22 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>189</v>
+        <v>446</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
-        <v>df.iloc[:,3:10:2]</v>
+        <v>df.iloc[:,3:11:2]</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -2905,10 +3124,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -2917,10 +3136,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -2929,22 +3148,22 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
-        <v>word[0:3]</v>
+        <v>word[0:2]</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="6" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -2953,10 +3172,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="6" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
@@ -2965,10 +3184,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
@@ -2977,10 +3196,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -2989,10 +3208,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
@@ -3001,10 +3220,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
@@ -3013,10 +3232,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -3025,10 +3244,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -3037,10 +3256,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="6" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
@@ -3049,10 +3268,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="6" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
@@ -3061,10 +3280,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -3073,10 +3292,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
@@ -3085,10 +3304,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
@@ -3097,10 +3316,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -3109,22 +3328,22 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C189" si="2">TRIM(SUBSTITUTE(B131," ",""))</f>
+        <f t="shared" ref="C131:C194" si="2">TRIM(SUBSTITUTE(B131," ",""))</f>
         <v>word.strip()</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
@@ -3133,10 +3352,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
@@ -3145,10 +3364,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -3157,10 +3376,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -3169,10 +3388,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
@@ -3181,10 +3400,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
@@ -3193,10 +3412,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
@@ -3205,10 +3424,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -3217,10 +3436,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -3229,10 +3448,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -3241,10 +3460,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -3253,10 +3472,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -3265,10 +3484,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -3277,10 +3496,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -3289,10 +3508,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="6" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -3301,10 +3520,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="6" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -3313,10 +3532,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -3325,10 +3544,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="6" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -3337,10 +3556,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -3349,10 +3568,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -3361,10 +3580,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -3373,10 +3592,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
-        <v>297</v>
+        <v>413</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
@@ -3385,10 +3604,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="6" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -3397,10 +3616,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="6" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
@@ -3409,10 +3628,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -3421,10 +3640,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -3433,10 +3652,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -3445,10 +3664,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -3457,10 +3676,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -3469,10 +3688,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -3481,10 +3700,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
@@ -3493,10 +3712,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -3505,10 +3724,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -3517,10 +3736,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -3529,10 +3748,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -3541,10 +3760,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -3553,10 +3772,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -3565,10 +3784,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
@@ -3577,10 +3796,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
@@ -3589,10 +3808,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="6" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -3601,10 +3820,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="6" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
@@ -3613,206 +3832,638 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
-        <v>df.resample('M')['A'].mean()</v>
+        <v>pd.crosstab(df['A'],df['B'],values=df['C'],aggfunc='sum')</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="6" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
-        <v>df.resample('M')['A'].count()</v>
+        <v>df.resample('M')['A'].mean()</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="6" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
-        <v>df.to_csv('file.csv.zip')</v>
+        <v>df.resample('M')['A'].count()</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="6" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
-        <v>pd.read_csv('file.csv.zip')</v>
+        <v>df.to_csv('file.csv.zip')</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
-        <v>df.interpolate()</v>
+        <v>pd.read_csv('file.csv.zip')</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
-        <v>pd.merge(dfl,dfr,how='inner',validate='one_to_many'</v>
+        <v>df.interpolate()</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="6" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
-        <v>df.unstack()</v>
+        <v>pd.merge(dfl,dfr,how='inner',validate='one_to_many')</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="6" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
-        <v>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</v>
+        <v>df.unstack()</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="6" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
-        <v>BD</v>
+        <v>df.resample('M',on='A').agg({'B':'mean','C':'sum'})</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
-        <v>ABCD</v>
+        <v>BD</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
-        <v>BDEF</v>
+        <v>ABCD</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
-        <v>ABCDEF</v>
+        <v>BDEF</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
-        <v>pd.concat([df1,df2,df3])</v>
+        <v>ABCDEF</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
-        <v>pd.concat([df1,df2,df3],axis=1)</v>
+        <v>pd.concat([df1,df2,df3])</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
-        <v>df['A'].corr(df['B'])</v>
+        <v>pd.concat([df1,df2,df3],axis=1)</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="6" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
-        <v>df.corr()</v>
+        <v>df['A'].corr(df['B'])</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>df.corr()</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>df.plot.kde()</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>df.nsmallest(5,'A')</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>df.nlargest(5,'A')</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>df.query('4000&lt;"A"&lt;10000')</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="2"/>
+        <v>ax.set_xticks(values)</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C225" si="3">TRIM(SUBSTITUTE(B195," ",""))</f>
+        <v>ax.xticks(rotation=45)</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.countplot(data=df,x='A')</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B197" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C189" t="str">
-        <f t="shared" si="2"/>
-        <v>df.plot.kde()</v>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.countplot(data=df,x='A',hue='B')</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.countplot(data=df,y='A')</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C')</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D")</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E")</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2)</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F")</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',kind='line')</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",kind='line')</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E",kind='line')</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2,kind='line')</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F",kind='line')</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.lmplot(data=df,x='A',y='B')</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.lmplot(data=df,x='A',y='B',hue='C')</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.lmplot(data=df,x='A',y='B',hue='C',col='D')</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="25.5">
+      <c r="A212" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.lmplot(data=df,x='A',y='B',hue='C',col='D',row='E')</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="25.5">
+      <c r="A213" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.lmplot(data=df,x='A',y='B',hue='C',col='D',row='E',facet_kws=dict(sharex=False,sharey=False))</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.pairplot(df)</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v>df['A'].count()</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v>date+pd.DateOffset(days=29)</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v>df['A'].rolling(window=3).sum()</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v>df['A'].rolling(window=3).mean()</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',kind='histplot')</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',kind='kde')</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',kind='ecdf')</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',kind='histplot',kde=True)</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',y='B')</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',y='B',kind='kde')</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v>sns.displot(data=df,x='A',hue='B',kind='kde')</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="917" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE1880B-4915-460A-8F0A-8687DBAF7228}"/>
+  <xr:revisionPtr revIDLastSave="920" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD036C0-3F34-415C-81D8-EE2066A4A3D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,30 +1170,18 @@
     <t>sns.relplot(data=df,x='A',y='B',hue='C')</t>
   </si>
   <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D")</t>
-  </si>
-  <si>
     <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D</t>
   </si>
   <si>
     <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns  basis column D. create ,more rows basis column E</t>
   </si>
   <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E")</t>
-  </si>
-  <si>
     <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D,wrap the columns across rows if exceeded</t>
   </si>
   <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2)</t>
-  </si>
-  <si>
     <t>Creates the scatter plot between two columns A and B with an additional color C, Create more columns of these graphs basis column D, also size the dots basis E and Style the dots basis F</t>
   </si>
   <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F")</t>
-  </si>
-  <si>
     <t>Creates the line plot between two columns A and B with an additional color C</t>
   </si>
   <si>
@@ -1212,18 +1200,6 @@
     <t>sns.relplot(data=df,x='A',y='B',hue='C',kind='line')</t>
   </si>
   <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",kind='line')</t>
-  </si>
-  <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E",kind='line')</t>
-  </si>
-  <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2,kind='line')</t>
-  </si>
-  <si>
-    <t>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F",kind='line')</t>
-  </si>
-  <si>
     <t>Draw a scatter plot and linear regression line for a df with numeric columns A and B</t>
   </si>
   <si>
@@ -1387,6 +1363,30 @@
   </si>
   <si>
     <t>Write a Python code snippet to set the title of the plot to "Simple_Plot"  on the ax axes object.</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',row='E')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',col_wrap=2)</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',size='E',style='F')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',row='E',kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',col_wrap=2,kind='line')</t>
+  </si>
+  <si>
+    <t>sns.relplot(data=df,x='A',y='B',hue='C',col='D',size='E',style='F',kind='line')</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="67" spans="1:3" ht="17.25">
       <c r="A67" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C130" si="1">TRIM(SUBSTITUTE(B67," ",""))</f>
@@ -2719,7 +2719,7 @@
         <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -2851,7 +2851,7 @@
         <v>155</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -2863,7 +2863,7 @@
         <v>156</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
@@ -2875,7 +2875,7 @@
         <v>157</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
@@ -2887,7 +2887,7 @@
         <v>158</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -2899,7 +2899,7 @@
         <v>159</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -2911,7 +2911,7 @@
         <v>160</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -2923,7 +2923,7 @@
         <v>161</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -2935,7 +2935,7 @@
         <v>162</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -2959,7 +2959,7 @@
         <v>164</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -3043,7 +3043,7 @@
         <v>174</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -3103,7 +3103,7 @@
         <v>185</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -3151,7 +3151,7 @@
         <v>211</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -3343,7 +3343,7 @@
         <v>242</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
@@ -3379,7 +3379,7 @@
         <v>247</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="6" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>285</v>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
@@ -3907,7 +3907,7 @@
         <v>335</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -4156,58 +4156,58 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D")</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D')</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E")</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',row='E')</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2)</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',col_wrap=2)</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F")</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',size='E',style='F')</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
@@ -4216,58 +4216,58 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",kind='line')</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',kind='line')</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",row="E",kind='line')</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',row='E',kind='line')</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",col_wrap=2,kind='line')</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',col_wrap=2,kind='line')</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
-        <v>sns.relplot(data=df,x='A',y='B',hue='C',col="D",size="E",style="F",kind='line')</v>
+        <v>sns.relplot(data=df,x='A',y='B',hue='C',col='D',size='E',style='F',kind='line')</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="212" spans="1:3" ht="25.5">
       <c r="A212" s="8" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="213" spans="1:3" ht="25.5">
       <c r="A213" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
@@ -4336,10 +4336,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="6" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="6" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="6" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/project_directory/MyProjects/Question Answer Game/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1045" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5CF2F5-5108-41AA-ACE0-390287BB122D}"/>
+  <xr:revisionPtr revIDLastSave="1134" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{130A4CEB-4C15-43E4-A7E1-C5D614125139}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$230</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$234</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="511">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>Cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">How to </t>
-  </si>
-  <si>
     <t>Find the smallest 5 values in a df column</t>
   </si>
   <si>
@@ -1449,6 +1446,132 @@
   </si>
   <si>
     <t>pd.crosstab(df['A'],df['B'],normalize="columns")</t>
+  </si>
+  <si>
+    <t>Convert a list (mylist) to df column A</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(my_list,columns='A')</t>
+  </si>
+  <si>
+    <t>Convert a df column A and B to dictionary, where A will be the key and B will be the value</t>
+  </si>
+  <si>
+    <t>df.set_index('A')['B'].to_dict()</t>
+  </si>
+  <si>
+    <t>Convert a df column A to list</t>
+  </si>
+  <si>
+    <t>df['A'].to_list()</t>
+  </si>
+  <si>
+    <t>Convert a df column A to ndarray</t>
+  </si>
+  <si>
+    <t>df['A'].values</t>
+  </si>
+  <si>
+    <t>Convert an ndarray(my_array) to a df column A</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(my_array,columns='A')</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, read it as a series, assuming header is on the first line</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',header=0).sqeeze("columns")</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',index_col=0)</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv assuming 1st column as index</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, take only A and B as columns</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',usecols=['A','B'])</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, take datatype of column A as int and B as float</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',dtype={'A':int,'B':float})</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, skip the first n rows</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',skiprows=n)</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, recognize NA and NAN as the unknown values</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',na_values=['NA','UNKNOWN'])</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, parse column A as date column</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',parse_dates=['A'])</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, Read only the first 10 rows</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',nrows=10)</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, skip n lines at the end</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',skipfooter=10)</t>
+  </si>
+  <si>
+    <t>Align dfl and dfr on the index to get the dfs adfl and adfr</t>
+  </si>
+  <si>
+    <t>adfl,adfr =dfl.align(dfr)</t>
+  </si>
+  <si>
+    <t>Generate 1000 samples from the standard Normal distribution</t>
+  </si>
+  <si>
+    <t>np.random.randn(100)</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv assuming 'A' column as index</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',index_col='A')</t>
+  </si>
+  <si>
+    <t>To plot a numeric column A with figsize as 20 inches x 8 inches</t>
+  </si>
+  <si>
+    <t>df['A'].plot(figsize=(20,8))</t>
+  </si>
+  <si>
+    <t>To get the percent change from the previous to previous value of a column in a timerseries df</t>
+  </si>
+  <si>
+    <t>df['A'].pct_change(2)</t>
+  </si>
+  <si>
+    <t>Select all rows except the last n rows</t>
+  </si>
+  <si>
+    <t>df.iloc[:-n]</t>
+  </si>
+  <si>
+    <t>Select all rows from the last n rows till end</t>
+  </si>
+  <si>
+    <t>df.iloc[-n:]</t>
   </si>
 </sst>
 </file>
@@ -1549,6 +1672,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1814,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1840,131 +1967,131 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
+      <c r="A4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="A5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
+      <c r="A6" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
+      <c r="A7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
         <v>447</v>
@@ -1972,186 +2099,186 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="A18" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C18" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>284</v>
+      <c r="A19" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="C19" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
+      <c r="A20" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>33</v>
+      <c r="A23" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
+      <c r="A28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
+      <c r="A29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
+      <c r="A30" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="C30" t="s">
         <v>447</v>
@@ -2159,417 +2286,417 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
+      <c r="A32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
+      <c r="A33" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
+      <c r="A34" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
+      <c r="A35" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
+      <c r="A36" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#N/A</v>
+      <c r="A37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
+      <c r="A38" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>448</v>
+        <v>62</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>67</v>
+      <c r="A40" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
+      <c r="A41" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
+      <c r="A42" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
+      <c r="A43" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" t="s">
-        <v>355</v>
+      <c r="A44" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
+      <c r="A47" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="C47" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
+      <c r="A48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>196</v>
+      <c r="A49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>86</v>
+      <c r="A51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C51" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
+      <c r="A52" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
+      <c r="A53" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>91</v>
+      <c r="A54" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="C54" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
+      <c r="A57" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="C57" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
+      <c r="A58" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" t="s">
-        <v>101</v>
+      <c r="A59" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" t="s">
-        <v>103</v>
+      <c r="A60" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
+      <c r="A62" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>202</v>
       </c>
       <c r="C65" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17.25">
-      <c r="A67" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>431</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>198</v>
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>454</v>
@@ -2577,10 +2704,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
       </c>
       <c r="C69" t="s">
         <v>454</v>
@@ -2588,373 +2715,373 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>122</v>
+      <c r="A71" t="s">
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>124</v>
+      <c r="A72" t="s">
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="s">
-        <v>454</v>
+        <v>60</v>
+      </c>
+      <c r="C72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" t="s">
-        <v>117</v>
+      <c r="A73" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" t="s">
-        <v>128</v>
+      <c r="A74" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
+      <c r="A75" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C75" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>132</v>
+      <c r="A76" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
+      <c r="A77" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C77" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>200</v>
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>136</v>
+      <c r="A79" t="s">
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>396</v>
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="4" t="s">
-        <v>138</v>
+      <c r="A81" t="s">
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B82" t="s">
-        <v>139</v>
+      <c r="A82" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B83" t="s">
-        <v>202</v>
+      <c r="A83" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" t="s">
-        <v>203</v>
+      <c r="A84" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" t="s">
-        <v>143</v>
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="C85" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" t="s">
-        <v>145</v>
+      <c r="A86" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="C86" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" t="s">
-        <v>147</v>
+      <c r="A87" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C87" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" t="s">
-        <v>149</v>
+      <c r="A88" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="C88" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>150</v>
+      <c r="A89" t="s">
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="C89" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" t="s">
-        <v>153</v>
+      <c r="A90" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>409</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>410</v>
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>411</v>
+      <c r="A95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>444</v>
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>413</v>
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>400</v>
+      <c r="A100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>445</v>
@@ -2962,10 +3089,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>445</v>
@@ -2973,10 +3100,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
         <v>445</v>
@@ -2984,10 +3111,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C106" t="s">
         <v>445</v>
@@ -3006,10 +3133,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
         <v>445</v>
@@ -3017,87 +3144,87 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C109" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>181</v>
+      <c r="A110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>184</v>
+      <c r="A111" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>429</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>186</v>
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>188</v>
+        <v>316</v>
       </c>
       <c r="C114" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>430</v>
+        <v>211</v>
       </c>
       <c r="C116" t="s">
         <v>455</v>
@@ -3105,10 +3232,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>211</v>
+        <v>430</v>
       </c>
       <c r="C117" t="s">
         <v>455</v>
@@ -3116,175 +3243,175 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C118" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>215</v>
+      <c r="A119" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>225</v>
+        <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>227</v>
+      <c r="A125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" t="s">
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>231</v>
+        <v>408</v>
       </c>
       <c r="C127" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>235</v>
+        <v>410</v>
       </c>
       <c r="C129" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="C130" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="C131" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C132" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>241</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
         <v>455</v>
@@ -3292,10 +3419,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
         <v>455</v>
@@ -3303,10 +3430,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="C135" t="s">
         <v>455</v>
@@ -3314,10 +3441,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
         <v>455</v>
@@ -3325,10 +3452,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C137" t="s">
         <v>455</v>
@@ -3357,33 +3484,33 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>255</v>
+      <c r="A140" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>151</v>
       </c>
       <c r="C140" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>256</v>
+        <v>457</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
       <c r="C141" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>259</v>
+      <c r="A142" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>147</v>
       </c>
       <c r="C142" t="s">
         <v>447</v>
@@ -3391,21 +3518,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C143" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>263</v>
+      <c r="A144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
       </c>
       <c r="C144" t="s">
         <v>447</v>
@@ -3413,32 +3540,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>264</v>
+        <v>458</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>266</v>
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
       </c>
       <c r="C146" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>269</v>
+      <c r="A147" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
       </c>
       <c r="C147" t="s">
         <v>447</v>
@@ -3446,10 +3573,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s">
         <v>447</v>
@@ -3457,153 +3584,153 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C150" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>280</v>
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>282</v>
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>283</v>
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>286</v>
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>288</v>
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>289</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="25.5">
+      <c r="A156" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="C156" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>292</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="25.5">
+      <c r="A157" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="C157" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>293</v>
+        <v>385</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="C159" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>299</v>
+        <v>390</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="C161" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="C162" t="s">
         <v>447</v>
@@ -3611,732 +3738,994 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C163" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>306</v>
+      <c r="A164" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" t="s">
+        <v>64</v>
       </c>
       <c r="C164" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>308</v>
+      <c r="A165" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" t="s">
+        <v>66</v>
       </c>
       <c r="C165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>310</v>
+        <v>402</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="5" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="C167" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>314</v>
+        <v>436</v>
       </c>
       <c r="C168" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>316</v>
+        <v>433</v>
       </c>
       <c r="C169" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="5" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="C170" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="C171" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>463</v>
+        <v>378</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>321</v>
+        <v>439</v>
       </c>
       <c r="C172" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="C173" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="5" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="5" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="C175" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="5" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="C176" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="5" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="C177" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="5" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="C178" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>441</v>
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>108</v>
       </c>
       <c r="C179" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="C180" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>336</v>
+      <c r="A181" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C181" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C182" t="e">
-        <v>#N/A</v>
+        <v>312</v>
+      </c>
+      <c r="C182" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C183" t="e">
-        <v>#N/A</v>
+        <v>421</v>
+      </c>
+      <c r="C183" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C184" t="e">
-        <v>#N/A</v>
+        <v>415</v>
+      </c>
+      <c r="C184" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C185" t="e">
-        <v>#N/A</v>
+      <c r="A185" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C185" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>345</v>
+      <c r="A186" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" t="s">
+        <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="C187" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C188" t="e">
-        <v>#N/A</v>
+        <v>399</v>
+      </c>
+      <c r="C188" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>351</v>
+        <v>467</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>352</v>
+        <v>468</v>
       </c>
       <c r="C189" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>353</v>
+        <v>465</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>354</v>
+        <v>466</v>
       </c>
       <c r="C190" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>356</v>
+        <v>463</v>
       </c>
       <c r="C191" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C192" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>460</v>
       </c>
       <c r="C193" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C194" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195" t="s">
-        <v>452</v>
+        <v>350</v>
+      </c>
+      <c r="C195" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>363</v>
+      <c r="A196" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" t="s">
+        <v>143</v>
       </c>
       <c r="C196" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>364</v>
+      <c r="A197" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B197" t="s">
+        <v>121</v>
       </c>
       <c r="C197" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C198" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="C199" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>433</v>
+      <c r="A200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B200" t="s">
+        <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>434</v>
+      <c r="A201" t="s">
+        <v>272</v>
+      </c>
+      <c r="B201" t="s">
+        <v>355</v>
       </c>
       <c r="C201" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>435</v>
+      <c r="A202" t="s">
+        <v>75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>436</v>
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>195</v>
       </c>
       <c r="C203" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>380</v>
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>437</v>
+      <c r="A205" t="s">
+        <v>271</v>
+      </c>
+      <c r="B205" t="s">
+        <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5" t="s">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="C206" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="5" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="C207" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="C208" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>381</v>
+        <v>297</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>382</v>
+        <v>298</v>
       </c>
       <c r="C209" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="C210" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>386</v>
+      <c r="A211" t="s">
+        <v>37</v>
+      </c>
+      <c r="B211" t="s">
+        <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="25.5">
-      <c r="A212" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>388</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="25.5">
-      <c r="A213" s="7" t="s">
-        <v>389</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5" t="s">
+        <v>317</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>390</v>
+        <v>224</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>391</v>
+        <v>225</v>
       </c>
       <c r="C214" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>393</v>
+        <v>221</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>394</v>
+        <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>401</v>
+        <v>222</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>402</v>
+        <v>223</v>
       </c>
       <c r="C216" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>406</v>
+      <c r="A218" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C218" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
-        <v>414</v>
+        <v>216</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>415</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>417</v>
+      <c r="A220" t="s">
+        <v>193</v>
+      </c>
+      <c r="B220" t="s">
+        <v>192</v>
       </c>
       <c r="C220" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>419</v>
+      <c r="A221" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221" t="s">
+        <v>191</v>
       </c>
       <c r="C221" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>421</v>
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>423</v>
+      <c r="A223" t="s">
+        <v>74</v>
+      </c>
+      <c r="B223" t="s">
+        <v>73</v>
       </c>
       <c r="C223" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>425</v>
+      <c r="A224" t="s">
+        <v>57</v>
+      </c>
+      <c r="B224" t="s">
+        <v>58</v>
       </c>
       <c r="C224" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>427</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" t="s">
+        <v>139</v>
       </c>
       <c r="C225" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C226" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B228" t="s">
+        <v>205</v>
+      </c>
+      <c r="C228" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B229" t="s">
+        <v>134</v>
+      </c>
+      <c r="C229" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="C230" t="s">
+        <v>445</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" ref="D230:D235" si="0">TRIM(SUBSTITUTE(B230," ",""))</f>
+        <v>pd.DataFrame(my_list,columns='A')</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C231" t="s">
+        <v>445</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="0"/>
+        <v>df.set_index('A')['B'].to_dict()</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C232" t="s">
+        <v>445</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].to_list()</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C233" t="s">
+        <v>445</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="0"/>
+        <v>df['A'].values</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C234" t="s">
+        <v>445</v>
+      </c>
+      <c r="D234" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.DataFrame(my_array,columns='A')</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C235" t="s">
+        <v>445</v>
+      </c>
+      <c r="D235" t="str">
+        <f t="shared" si="0"/>
+        <v>pd.read_csv('file.csv',header=0).sqeeze("columns")</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C236" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C237" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C238" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C239" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C240" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C241" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C242" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C243" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C244" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C245" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C246" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C247" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B248" t="s">
+        <v>506</v>
+      </c>
+      <c r="C248" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C249" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C250" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1134" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{130A4CEB-4C15-43E4-A7E1-C5D614125139}"/>
+  <xr:revisionPtr revIDLastSave="1271" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9648C58-8963-4BC2-A7CF-87C315A781B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="593">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -710,9 +710,6 @@
     <t>Check if the word ends with a particular string 'val'</t>
   </si>
   <si>
-    <t>word.endswith("val")</t>
-  </si>
-  <si>
     <t>Check the position of the first occurrence of character 'u' in a word</t>
   </si>
   <si>
@@ -1572,6 +1569,255 @@
   </si>
   <si>
     <t>df.iloc[-n:]</t>
+  </si>
+  <si>
+    <t>word.endswith('val')</t>
+  </si>
+  <si>
+    <t>To set the index of timeseries df frequency to months</t>
+  </si>
+  <si>
+    <t>df.index.freq='MS'</t>
+  </si>
+  <si>
+    <t>I have a list of lists eg. "lists"--&gt; [['x','y'],[2,3],['a','b'].I would like to get a list of all possible eg. [('x',2,'a'),('x','2','b')…]   and so on Write the code 2 lines</t>
+  </si>
+  <si>
+    <t>from itertools import product; list(prouduct(*lists))</t>
+  </si>
+  <si>
+    <t>Select the rows where data is missing from a column A</t>
+  </si>
+  <si>
+    <t>df[df['A'].isnull()])</t>
+  </si>
+  <si>
+    <t>Select the rows where values in column A is less than 2 and in B is more than 3</t>
+  </si>
+  <si>
+    <t>df[(df['A']&lt;2)&amp;(df['B']&gt;3)]</t>
+  </si>
+  <si>
+    <t>df.loc['r', 'A'] = 11.5</t>
+  </si>
+  <si>
+    <t>Change the value at row 'r' and column A to 11.5</t>
+  </si>
+  <si>
+    <t>Sort the df by column A by descending order then by column B by ascending order</t>
+  </si>
+  <si>
+    <t>df.sort_values(by=['A','B'],ascending[False,True])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I see 500 rows without…. In a df </t>
+  </si>
+  <si>
+    <t>pd.set_option('display_max_rows',500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I see 500 columns without…. In a df </t>
+  </si>
+  <si>
+    <t>pd.set_option('display_max_columns',500)</t>
+  </si>
+  <si>
+    <t>I want to display my df by 1000 characters without wrapping to new line</t>
+  </si>
+  <si>
+    <t>pd.set_option('display.width',1000)</t>
+  </si>
+  <si>
+    <t>Drop rows 2 and 4 from a dataframe</t>
+  </si>
+  <si>
+    <t>df.drop(df.index[[2,4]])</t>
+  </si>
+  <si>
+    <t>Careful with df.drop([2,4)</t>
+  </si>
+  <si>
+    <t>combine two series A and B into a dataframe</t>
+  </si>
+  <si>
+    <t>pd.concat([A,B],axis=1)</t>
+  </si>
+  <si>
+    <t>find the row for where the value of a given column is maximum.</t>
+  </si>
+  <si>
+    <t>df['A'].argmax()</t>
+  </si>
+  <si>
+    <t>To find the site with max sales</t>
+  </si>
+  <si>
+    <t>to check whether a given column is present in a DataFrame or not.</t>
+  </si>
+  <si>
+    <t>if 'A' in df.columns:print("present")</t>
+  </si>
+  <si>
+    <t>remove infinite values from a given DataFrame., replace by NaN</t>
+  </si>
+  <si>
+    <t>df.replace([np.inf,-np.inf],np.nan)</t>
+  </si>
+  <si>
+    <t> Group by the first column A and get second column B as lists in rows</t>
+  </si>
+  <si>
+    <t>df.groupby('A')['B'].apply(list)</t>
+  </si>
+  <si>
+    <t>df.columns.get_loc('A')</t>
+  </si>
+  <si>
+    <t>to get column index from column name A of a given DataFrame.</t>
+  </si>
+  <si>
+    <t>Select all Column except one column A</t>
+  </si>
+  <si>
+    <t>df.loc[:,df.columns !='A']</t>
+  </si>
+  <si>
+    <t>to remove first n rows of a given DataFrame.</t>
+  </si>
+  <si>
+    <t>df.iloc[3:]</t>
+  </si>
+  <si>
+    <t>to remove last n rows in a dataframe</t>
+  </si>
+  <si>
+    <t>df.iloc[:-3]</t>
+  </si>
+  <si>
+    <t>to add a prefix  "a_" to all columns</t>
+  </si>
+  <si>
+    <t>df.add_prefix("a_")</t>
+  </si>
+  <si>
+    <t>to add a suffix "_b" to all columns</t>
+  </si>
+  <si>
+    <t>df.add_suffix("_b")</t>
+  </si>
+  <si>
+    <t>to convert the column header to a lower case and remove all trailing spaces in it</t>
+  </si>
+  <si>
+    <t>df.columns.str.lower().str.rstrip()</t>
+  </si>
+  <si>
+    <t>to check if merge keys are unique in both left and right datasets dfl and dfr</t>
+  </si>
+  <si>
+    <t>to check if merge keys are unique in left dataset dfl and dfr</t>
+  </si>
+  <si>
+    <t>to check if merge keys are unique in right dataset dfl and dfr</t>
+  </si>
+  <si>
+    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='one_to_one'</t>
+  </si>
+  <si>
+    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='one_to_many'</t>
+  </si>
+  <si>
+    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='many_to_one'</t>
+  </si>
+  <si>
+    <t>Check if the two dataframes are unequal</t>
+  </si>
+  <si>
+    <t>df1.ne(df2)</t>
+  </si>
+  <si>
+    <t>Create a multi index using columns A and B</t>
+  </si>
+  <si>
+    <t>Create a multi index using default index and a column A</t>
+  </si>
+  <si>
+    <t>df.set_index(['A','B']}</t>
+  </si>
+  <si>
+    <t>df.set_index</t>
+  </si>
+  <si>
+    <t>set the name of the index as a</t>
+  </si>
+  <si>
+    <t>df.index.name='a'</t>
+  </si>
+  <si>
+    <t>to convert the index back into the colunm</t>
+  </si>
+  <si>
+    <t>df.reset_index(level=0,inplace=True)</t>
+  </si>
+  <si>
+    <t>to convert index named 'a' and 'b' back into the column</t>
+  </si>
+  <si>
+    <t>df.reset_index(level=['a','b'])</t>
+  </si>
+  <si>
+    <t>check if a value 'a' exist in a single index df</t>
+  </si>
+  <si>
+    <t>a' in df.index</t>
+  </si>
+  <si>
+    <t>sort the index level 1 of a df</t>
+  </si>
+  <si>
+    <t>df.sort_index(level=1)</t>
+  </si>
+  <si>
+    <t>sort the index named 'a'</t>
+  </si>
+  <si>
+    <t>df.sort_index(level=a)</t>
+  </si>
+  <si>
+    <t>df.index[df['A']=='a'].tolist()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the list of indexes of rows where certain column A matches certain value a </t>
+  </si>
+  <si>
+    <t>How to drop the level 1 ( Next to top level) of an index</t>
+  </si>
+  <si>
+    <t>df.columns.droplevel(1)</t>
+  </si>
+  <si>
+    <t>How to add a list A at the 4th position of a df as a column with the same name</t>
+  </si>
+  <si>
+    <t>df.insert(loc=3,column='A',value=A)</t>
+  </si>
+  <si>
+    <t>print a dataframe without index</t>
+  </si>
+  <si>
+    <t>df.to_string(index=False)</t>
+  </si>
+  <si>
+    <t>print a date 2023-01-01 without time</t>
+  </si>
+  <si>
+    <t>datetime.date(datetime(2023,01,01)))</t>
+  </si>
+  <si>
+    <t>write the current date</t>
+  </si>
+  <si>
+    <t>datetime.now().date()</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1656,6 +1902,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,16 +2190,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="141.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="78.140625" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" bestFit="1" customWidth="1" outlineLevel="2"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1962,7 +2211,7 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1973,7 +2222,7 @@
         <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1984,51 +2233,51 @@
         <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2039,7 +2288,7 @@
         <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2050,7 +2299,7 @@
         <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2061,7 +2310,7 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2072,7 +2321,7 @@
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2083,7 +2332,7 @@
         <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2094,7 +2343,7 @@
         <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2105,7 +2354,7 @@
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2116,7 +2365,7 @@
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2127,7 +2376,7 @@
         <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2138,51 +2387,51 @@
         <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75">
@@ -2193,7 +2442,7 @@
         <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2204,7 +2453,7 @@
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2215,7 +2464,7 @@
         <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75">
@@ -2226,7 +2475,7 @@
         <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2237,7 +2486,7 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2248,40 +2497,40 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2292,84 +2541,84 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="C35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="C36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2391,7 +2640,7 @@
         <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2402,40 +2651,40 @@
         <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="C42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="C43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2446,7 +2695,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2457,40 +2706,40 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="C48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2501,7 +2750,7 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2509,43 +2758,43 @@
         <v>162</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2556,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2567,51 +2816,51 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="C57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2622,18 +2871,18 @@
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="C62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2644,7 +2893,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2655,7 +2904,7 @@
         <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2666,7 +2915,7 @@
         <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2677,18 +2926,18 @@
         <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="C67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2699,7 +2948,7 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2710,7 +2959,7 @@
         <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2721,7 +2970,7 @@
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2732,7 +2981,7 @@
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2754,7 +3003,7 @@
         <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2765,40 +3014,40 @@
         <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="C75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="C77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2809,7 +3058,7 @@
         <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2820,7 +3069,7 @@
         <v>42</v>
       </c>
       <c r="C79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2831,7 +3080,7 @@
         <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2842,40 +3091,40 @@
         <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="C83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2883,43 +3132,43 @@
         <v>160</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="C86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="C88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2927,54 +3176,54 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="C91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="C92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="C93" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2985,7 +3234,7 @@
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2993,21 +3242,21 @@
         <v>137</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C95" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="C96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3018,7 +3267,7 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3029,18 +3278,18 @@
         <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3051,29 +3300,29 @@
         <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="C101" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="C102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3084,7 +3333,7 @@
         <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3095,7 +3344,7 @@
         <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3106,7 +3355,7 @@
         <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3117,7 +3366,7 @@
         <v>177</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3125,10 +3374,10 @@
         <v>172</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3139,7 +3388,7 @@
         <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3150,7 +3399,7 @@
         <v>171</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3161,7 +3410,7 @@
         <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3172,7 +3421,7 @@
         <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3183,7 +3432,7 @@
         <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3194,18 +3443,18 @@
         <v>86</v>
       </c>
       <c r="C113" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="C114" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3216,7 +3465,7 @@
         <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3227,7 +3476,7 @@
         <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3235,10 +3484,10 @@
         <v>209</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C117" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3249,7 +3498,7 @@
         <v>208</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3260,18 +3509,18 @@
         <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="C120" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3282,7 +3531,7 @@
         <v>179</v>
       </c>
       <c r="C121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3293,7 +3542,7 @@
         <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3304,7 +3553,7 @@
         <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3312,10 +3561,10 @@
         <v>183</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C124" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3326,7 +3575,7 @@
         <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3334,10 +3583,10 @@
         <v>154</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3345,10 +3594,10 @@
         <v>155</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3359,7 +3608,7 @@
         <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3367,10 +3616,10 @@
         <v>157</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C129" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3378,10 +3627,10 @@
         <v>159</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C130" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3389,10 +3638,10 @@
         <v>158</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3400,87 +3649,87 @@
         <v>156</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C132" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C133" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="C134" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C135" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="C136" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="C137" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="C138" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C139" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3491,18 +3740,18 @@
         <v>151</v>
       </c>
       <c r="C140" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3513,18 +3762,18 @@
         <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="C143" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3535,18 +3784,18 @@
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3557,7 +3806,7 @@
         <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3568,40 +3817,40 @@
         <v>47</v>
       </c>
       <c r="C147" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="C148" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="C149" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3612,7 +3861,7 @@
         <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3623,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3634,7 +3883,7 @@
         <v>25</v>
       </c>
       <c r="C153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3645,7 +3894,7 @@
         <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3656,95 +3905,95 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="25.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="38.25">
       <c r="A156" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C156" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="25.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="38.25">
       <c r="A157" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B157" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="C157" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="C158" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="C159" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="C160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="C161" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="C162" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="C163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3755,7 +4004,7 @@
         <v>64</v>
       </c>
       <c r="C164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3766,150 +4015,150 @@
         <v>66</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="C166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C167" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C168" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C169" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C170" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="C171" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C172" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C174" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="C177" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="C178" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3920,18 +4169,18 @@
         <v>108</v>
       </c>
       <c r="C179" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="C180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3942,40 +4191,40 @@
         <v>198</v>
       </c>
       <c r="C181" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="C182" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="C183" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3986,7 +4235,7 @@
         <v>199</v>
       </c>
       <c r="C185" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3997,103 +4246,103 @@
         <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="C187" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>399</v>
-      </c>
       <c r="C188" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="C190" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C191" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C192" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C193" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="C194" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>350</v>
       </c>
       <c r="C195" t="e">
         <v>#N/A</v>
@@ -4107,7 +4356,7 @@
         <v>143</v>
       </c>
       <c r="C196" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4118,51 +4367,51 @@
         <v>121</v>
       </c>
       <c r="C197" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C198" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C199" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B200" t="s">
         <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C201" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4173,7 +4422,7 @@
         <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4184,7 +4433,7 @@
         <v>195</v>
       </c>
       <c r="C203" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4195,18 +4444,18 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B205" t="s">
         <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4217,51 +4466,51 @@
         <v>219</v>
       </c>
       <c r="C206" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C207" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="C208" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="C209" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="C210" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4272,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4283,29 +4532,29 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="C213" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="C214" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4316,7 +4565,7 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4324,21 +4573,21 @@
         <v>222</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="C216" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="C217" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4349,7 +4598,7 @@
         <v>132</v>
       </c>
       <c r="C218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4360,7 +4609,7 @@
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4371,7 +4620,7 @@
         <v>192</v>
       </c>
       <c r="C220" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4382,7 +4631,7 @@
         <v>191</v>
       </c>
       <c r="C221" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4393,7 +4642,7 @@
         <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4404,7 +4653,7 @@
         <v>73</v>
       </c>
       <c r="C223" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4415,7 +4664,7 @@
         <v>58</v>
       </c>
       <c r="C224" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4426,7 +4675,7 @@
         <v>139</v>
       </c>
       <c r="C225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4437,7 +4686,7 @@
         <v>200</v>
       </c>
       <c r="C226" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4448,7 +4697,7 @@
         <v>117</v>
       </c>
       <c r="C227" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4459,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="C228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4470,18 +4719,18 @@
         <v>134</v>
       </c>
       <c r="C229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B230" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="C230" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" ref="D230:D235" si="0">TRIM(SUBSTITUTE(B230," ",""))</f>
@@ -4490,13 +4739,13 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B231" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="C231" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="0"/>
@@ -4505,13 +4754,13 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B232" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>474</v>
-      </c>
       <c r="C232" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="0"/>
@@ -4520,13 +4769,13 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>476</v>
-      </c>
       <c r="C233" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="0"/>
@@ -4535,13 +4784,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="C234" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="0"/>
@@ -4550,13 +4799,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>480</v>
-      </c>
       <c r="C235" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="0"/>
@@ -4565,167 +4814,493 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C236" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>484</v>
-      </c>
       <c r="C237" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>486</v>
-      </c>
       <c r="C238" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B239" s="6" t="s">
-        <v>488</v>
-      </c>
       <c r="C239" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B240" s="6" t="s">
-        <v>490</v>
-      </c>
       <c r="C240" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>492</v>
-      </c>
       <c r="C241" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="C242" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="C243" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="C244" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B245" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B245" s="6" t="s">
-        <v>500</v>
-      </c>
       <c r="C245" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>502</v>
-      </c>
       <c r="C246" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>504</v>
-      </c>
       <c r="C247" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B248" t="s">
         <v>505</v>
       </c>
-      <c r="B248" t="s">
-        <v>506</v>
-      </c>
       <c r="C248" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>508</v>
-      </c>
       <c r="C249" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>510</v>
-      </c>
       <c r="C250" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C260" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C262" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1271" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9648C58-8963-4BC2-A7CF-87C315A781B5}"/>
+  <xr:revisionPtr revIDLastSave="1370" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA3CAACC-4840-4F57-BB48-38BB60F460E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="624">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Write '2023-01-01' as a period object with monthly frequency</t>
   </si>
   <si>
-    <t>pd.Period('2020-01-01',freq='M')</t>
-  </si>
-  <si>
     <t>You have a datetime object 'date' you want to get the date after 1 day, how do you write the command</t>
   </si>
   <si>
@@ -761,9 +758,6 @@
     <t>to split the words in a sentence by a comma</t>
   </si>
   <si>
-    <t>",".join(my_list)</t>
-  </si>
-  <si>
     <t>to join the words given in a list (my_list) separated by comma</t>
   </si>
   <si>
@@ -1247,9 +1241,6 @@
     <t>date+pd.DateOffset(days=29)</t>
   </si>
   <si>
-    <t>You are given a timeseries dataframe with a value column called "A". Find the three day moving average of this value</t>
-  </si>
-  <si>
     <t>df['A'].rolling(window=3).sum()</t>
   </si>
   <si>
@@ -1478,9 +1469,6 @@
     <t>Read a file called file.csv, read it as a series, assuming header is on the first line</t>
   </si>
   <si>
-    <t>pd.read_csv('file.csv',header=0).sqeeze("columns")</t>
-  </si>
-  <si>
     <t>pd.read_csv('file.csv',index_col=0)</t>
   </si>
   <si>
@@ -1745,9 +1733,6 @@
     <t>df.set_index(['A','B']}</t>
   </si>
   <si>
-    <t>df.set_index</t>
-  </si>
-  <si>
     <t>set the name of the index as a</t>
   </si>
   <si>
@@ -1818,13 +1803,609 @@
   </si>
   <si>
     <t>datetime.now().date()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you create a daily date range between two specific dates </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> using pandas?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using pandas, how do you generate a series of dates starting from a given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> date and ending at an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> date, with a frequency of one day?</t>
+    </r>
+  </si>
+  <si>
+    <t>How can you generate a range of 10 equally spaced dates between two given dates start and end using pandas?</t>
+  </si>
+  <si>
+    <t>Using pandas, what function and parameters would you use to create a series of ten dates linearly spaced between a specified start and end date?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you create a daily date range that spans from the earliest to the latest date in the index of a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you have a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and want to generate a series of daily dates starting from the earliest date in its index and ending at the latest date in its index, which pandas function and parameters would you use?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you move the rows of a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by a specified number of positions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, while keeping the index unchanged?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using pandas, what method would you use to lag or lead the values in a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> periods?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you have a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a DatetimeIndex, how can you extract the month values from the index?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using pandas, how do you retrieve the month component of each date in the index of a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you extract the day of the week (as an integer, where Monday is 0 and Sunday is 6) from the index of a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a DatetimeIndex?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to determine the specific weekday of each date in the index of a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, which attribute would you access?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you rename the columns of a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to 'D', 'E', and 'F' respectively?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you have a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with three columns and you want to change their names to 'D', 'E', and 'F', which assignment would you use?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using pandas, how can you add one day to a given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to move a specific date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> forward by one day using pandas, which method or function would you apply?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you convert a given variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into a pandas datetime object?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you adjust the rows of a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to match a comprehensive date range provided by the list or series </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>complete_date_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you have a DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and you want its index to conform to a given date sequence </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>complete_date_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, what method would you apply?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you calculate the rolling sum of column 'A' in a pandas DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with a window size of 3?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using pandas, if you want to compute the moving total of the last three values for each entry in column 'A' of DataFrame </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, which method chain would you apply?</t>
+    </r>
+  </si>
+  <si>
+    <t>pd.DataFrame(dict)</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(dict,index=labels)</t>
+  </si>
+  <si>
+    <t>create a dataframe from a dictionary of list dict--&gt; {x:[1,2],y:[3,4],z:[5,6]}</t>
+  </si>
+  <si>
+    <t>create a dataframe from a dictionary of lists with index labels--&gt; {x:[1,2],y:[3,4],z:[5,6]},labels=['a','b']</t>
+  </si>
+  <si>
+    <t>create a df from a list of dictionaries--&gt; data = [{'A': 1, 'B': 4}, {'A': 2, 'B': 5}, {'A': 3, 'B': 6}]</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(data)</t>
+  </si>
+  <si>
+    <t>create a df from a list of lists with column names--&gt; data = [[1, 4], [2, 5], [3, 6]];columns = ['A', 'B']</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(data,columns=columns)</t>
+  </si>
+  <si>
+    <t>create a df from a np array with column names--&gt; data = np.array [[1, 4], [2, 5], [3, 6]]);columns = ['A', 'B']</t>
+  </si>
+  <si>
+    <t>create a df from two series s1 and s2, Suppose you want to call them A and B</t>
+  </si>
+  <si>
+    <t>pd.DataFrame({'A':s1,'B':s2})</t>
+  </si>
+  <si>
+    <t>df.set_index([df.index,'A'])</t>
+  </si>
+  <si>
+    <t>pd.Period('2023-01-01',freq='M')</t>
+  </si>
+  <si>
+    <t>,'.join(my_list)</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',header=0).squeeze('columns')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1867,6 +2448,18 @@
       <color rgb="FF212121"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1888,7 +2481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1906,6 +2499,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2211,114 +2805,102 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="C5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="A7" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
+      <c r="A9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="C9" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
+      <c r="A10" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="C10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
+      <c r="A11" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="C11" t="s">
         <v>448</v>
@@ -2326,681 +2908,633 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>82</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="9" t="s">
+        <v>592</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="9" t="s">
+        <v>593</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>448</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>98</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25">
+      <c r="A16" s="9" t="s">
+        <v>594</v>
       </c>
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25">
+      <c r="A17" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C18" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
+    <row r="23" spans="1:3" ht="17.25">
+      <c r="A23" s="9" t="s">
+        <v>598</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="9" t="s">
+        <v>599</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>87</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="9" t="s">
+        <v>600</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>88</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="9" t="s">
+        <v>601</v>
       </c>
       <c r="B27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>232</v>
+      <c r="B28" t="s">
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C32" t="s">
-        <v>454</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>243</v>
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C35" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>273</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25">
+      <c r="A38" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25">
+      <c r="A39" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25">
+      <c r="A41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C43" t="s">
-        <v>450</v>
-      </c>
-    </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>424</v>
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
       </c>
       <c r="C44" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
+    <row r="45" spans="1:3" ht="15.75">
+      <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>226</v>
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>621</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>56</v>
+      <c r="A50" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="C50" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>399</v>
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>346</v>
+        <v>240</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>458</v>
+        <v>274</v>
       </c>
       <c r="C54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>446</v>
-      </c>
-    </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>18</v>
+      <c r="A56" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>362</v>
+        <v>239</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="C58" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C59" t="s">
-        <v>450</v>
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>363</v>
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
+      <c r="A61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
-        <v>34</v>
+      <c r="A63" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="C63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
-        <v>203</v>
+      <c r="A64" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>140</v>
+      <c r="A65" t="s">
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
+      <c r="A66" t="s">
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>359</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" t="s">
-        <v>128</v>
+      <c r="A68" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>125</v>
+      <c r="A69" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>122</v>
+      <c r="A70" t="s">
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
+      <c r="A71" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C71" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="e">
-        <v>#N/A</v>
+      <c r="A72" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C72" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="C73" t="s">
         <v>444</v>
@@ -3008,2299 +3542,2567 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>186</v>
+        <v>455</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>289</v>
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>290</v>
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" t="s">
-        <v>72</v>
+      <c r="A78" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="C78" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" t="s">
-        <v>42</v>
+      <c r="A79" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="C79" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" t="s">
-        <v>45</v>
+      <c r="A80" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>287</v>
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>443</v>
+      <c r="A84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>412</v>
+      <c r="A85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" t="s">
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>322</v>
+      <c r="A86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
       </c>
       <c r="C86" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>335</v>
+      <c r="A88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>21</v>
+      <c r="A89" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>265</v>
+      <c r="A90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>299</v>
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" t="s">
-        <v>445</v>
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>26</v>
+      <c r="A94" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>395</v>
+      <c r="A95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="C95" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
-        <v>110</v>
+      <c r="A97" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>262</v>
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>42</v>
       </c>
       <c r="C99" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>152</v>
+      <c r="A100" t="s">
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>258</v>
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101" t="s">
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="C103" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="C104" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>166</v>
+        <v>409</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="C106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>427</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>171</v>
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>281</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>69</v>
-      </c>
-      <c r="B110" t="s">
-        <v>70</v>
+      <c r="A110" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" t="s">
-        <v>68</v>
+      <c r="A111" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C111" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
       <c r="C112" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>85</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
+      <c r="A113" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C113" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>315</v>
+      <c r="A114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
       </c>
       <c r="C114" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>164</v>
+      <c r="A115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>429</v>
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>109</v>
       </c>
       <c r="C117" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>208</v>
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>108</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" t="s">
-        <v>39</v>
+      <c r="A119" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="C119" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>309</v>
+      <c r="A120" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" t="s">
+        <v>152</v>
       </c>
       <c r="C120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>35</v>
-      </c>
-      <c r="B125" t="s">
-        <v>36</v>
+      <c r="A125" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>406</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>409</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>411</v>
+      <c r="A130" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>410</v>
+      <c r="A131" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" t="s">
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="C132" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>441</v>
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" t="s">
+        <v>86</v>
       </c>
       <c r="C133" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="C134" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="C137" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>253</v>
+      <c r="A139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" t="s">
+        <v>39</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B140" t="s">
-        <v>151</v>
+      <c r="A140" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="C140" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="5" t="s">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>355</v>
+        <v>178</v>
       </c>
       <c r="C141" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B142" t="s">
-        <v>147</v>
+      <c r="A142" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" t="s">
-        <v>149</v>
+      <c r="A144" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>356</v>
+      <c r="A145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" t="s">
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" t="s">
-        <v>49</v>
+      <c r="A146" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>46</v>
-      </c>
-      <c r="B147" t="s">
-        <v>47</v>
+      <c r="A147" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C147" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="C149" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>268</v>
+        <v>408</v>
       </c>
       <c r="C150" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
+      <c r="A151" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
+      <c r="A152" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" t="s">
-        <v>25</v>
+      <c r="A153" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="C153" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" t="s">
-        <v>23</v>
+      <c r="A154" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C154" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>15</v>
-      </c>
-      <c r="B155" t="s">
-        <v>16</v>
+      <c r="A155" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="38.25">
-      <c r="A156" s="7" t="s">
-        <v>388</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="38.25">
-      <c r="A157" s="7" t="s">
-        <v>386</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="C157" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>385</v>
+        <v>248</v>
       </c>
       <c r="C158" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>382</v>
+        <v>249</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>383</v>
+        <v>251</v>
       </c>
       <c r="C159" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>381</v>
+      <c r="A160" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>330</v>
+      <c r="A162" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" t="s">
+        <v>146</v>
       </c>
       <c r="C162" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>63</v>
+      <c r="A164" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C164" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>65</v>
-      </c>
-      <c r="B165" t="s">
-        <v>66</v>
+      <c r="A165" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="C165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>401</v>
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" t="s">
+        <v>49</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>434</v>
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="5" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>435</v>
+        <v>303</v>
       </c>
       <c r="C168" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="5" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>432</v>
+        <v>305</v>
       </c>
       <c r="C169" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="5" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>433</v>
+        <v>266</v>
       </c>
       <c r="C170" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>369</v>
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>438</v>
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>439</v>
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>436</v>
+      <c r="A174" t="s">
+        <v>22</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>437</v>
+      <c r="A175" t="s">
+        <v>15</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="5" t="s">
-        <v>374</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="38.25">
+      <c r="A176" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C176" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="5" t="s">
-        <v>425</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="38.25">
+      <c r="A177" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="C177" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="5" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>108</v>
+      <c r="A179" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="C179" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="C180" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>198</v>
+      <c r="A181" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="C181" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C182" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="C183" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>414</v>
+      <c r="A184" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" t="s">
+        <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>199</v>
+      <c r="A185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B185" t="s">
+        <v>66</v>
       </c>
       <c r="C185" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B186" t="s">
-        <v>201</v>
+      <c r="A186" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="C186" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="5" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>279</v>
+        <v>431</v>
       </c>
       <c r="C187" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="5" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="C188" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>466</v>
+        <v>368</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="C189" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>464</v>
+        <v>369</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="C190" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>463</v>
+        <v>366</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>462</v>
+        <v>367</v>
       </c>
       <c r="C191" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
-        <v>461</v>
+        <v>375</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="C192" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C193" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="C194" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C195" t="e">
-        <v>#N/A</v>
+        <v>434</v>
+      </c>
+      <c r="C195" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B196" t="s">
-        <v>143</v>
+      <c r="A196" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="C196" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B197" t="s">
-        <v>121</v>
+      <c r="A197" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C197" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="C198" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>281</v>
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>107</v>
       </c>
       <c r="C199" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>269</v>
-      </c>
-      <c r="B200" t="s">
-        <v>77</v>
+      <c r="A200" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="C200" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>271</v>
-      </c>
-      <c r="B201" t="s">
-        <v>354</v>
+      <c r="A201" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C201" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C203" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>75</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" t="s">
-        <v>195</v>
-      </c>
-      <c r="C203" t="s">
-        <v>446</v>
-      </c>
-    </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" t="s">
-        <v>8</v>
+      <c r="A204" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="C204" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>270</v>
-      </c>
-      <c r="B205" t="s">
-        <v>76</v>
+      <c r="A205" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C205" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>219</v>
+      <c r="A206" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" t="s">
+        <v>200</v>
       </c>
       <c r="C206" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="5" t="s">
-        <v>392</v>
+        <v>276</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="C207" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="5" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="C208" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>297</v>
+        <v>464</v>
       </c>
       <c r="C209" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
-        <v>294</v>
+        <v>461</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>295</v>
+        <v>462</v>
       </c>
       <c r="C210" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>37</v>
-      </c>
-      <c r="B211" t="s">
-        <v>38</v>
+      <c r="A211" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="C211" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>4</v>
-      </c>
-      <c r="B212" t="s">
-        <v>5</v>
+      <c r="A212" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C212" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
-        <v>316</v>
+        <v>457</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>317</v>
+        <v>456</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>224</v>
+        <v>349</v>
       </c>
       <c r="C214" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C215" t="s">
-        <v>454</v>
+        <v>347</v>
+      </c>
+      <c r="C215" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>510</v>
+      <c r="A216" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B216" t="s">
+        <v>142</v>
       </c>
       <c r="C216" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>361</v>
+      <c r="A217" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B217" t="s">
+        <v>120</v>
       </c>
       <c r="C217" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>132</v>
+      <c r="A218" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C218" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="C219" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="B220" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="C220" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="B221" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="C221" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="C223" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>268</v>
+      </c>
+      <c r="B225" t="s">
+        <v>76</v>
+      </c>
+      <c r="C225" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C227" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C228" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C229" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C230" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C233" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C234" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C235" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C236" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C237" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C238" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C239" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>192</v>
+      </c>
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+      <c r="C240" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>189</v>
+      </c>
+      <c r="B241" t="s">
+        <v>190</v>
+      </c>
+      <c r="C241" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>24</v>
+      </c>
+      <c r="C242" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>73</v>
+      </c>
+      <c r="C243" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
         <v>57</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B244" t="s">
         <v>58</v>
       </c>
-      <c r="C224" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B225" t="s">
-        <v>139</v>
-      </c>
-      <c r="C225" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C226" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B227" t="s">
-        <v>117</v>
-      </c>
-      <c r="C227" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="4" t="s">
+      <c r="C244" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B245" t="s">
         <v>138</v>
       </c>
-      <c r="B228" t="s">
-        <v>205</v>
-      </c>
-      <c r="C228" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1" t="s">
+      <c r="C245" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C246" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B247" t="s">
+        <v>116</v>
+      </c>
+      <c r="C247" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B248" t="s">
+        <v>204</v>
+      </c>
+      <c r="C248" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B249" t="s">
         <v>133</v>
       </c>
-      <c r="B229" t="s">
-        <v>134</v>
-      </c>
-      <c r="C229" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="5" t="s">
+      <c r="C249" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C250" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" ref="D250:D255" si="0">TRIM(SUBSTITUTE(B250," ",""))</f>
+        <v>pd.DataFrame(my_list,columns='A')</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B230" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="C230" t="s">
-        <v>444</v>
-      </c>
-      <c r="D230" t="str">
-        <f t="shared" ref="D230:D235" si="0">TRIM(SUBSTITUTE(B230," ",""))</f>
-        <v>pd.DataFrame(my_list,columns='A')</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C231" t="s">
-        <v>444</v>
-      </c>
-      <c r="D231" t="str">
+      <c r="C251" t="s">
+        <v>441</v>
+      </c>
+      <c r="D251" t="str">
         <f t="shared" si="0"/>
         <v>df.set_index('A')['B'].to_dict()</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C232" t="s">
-        <v>444</v>
-      </c>
-      <c r="D232" t="str">
+    <row r="252" spans="1:4">
+      <c r="A252" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C252" t="s">
+        <v>441</v>
+      </c>
+      <c r="D252" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].to_list()</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C233" t="s">
-        <v>444</v>
-      </c>
-      <c r="D233" t="str">
+    <row r="253" spans="1:4">
+      <c r="A253" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C253" t="s">
+        <v>441</v>
+      </c>
+      <c r="D253" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].values</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C234" t="s">
-        <v>444</v>
-      </c>
-      <c r="D234" t="str">
+    <row r="254" spans="1:4">
+      <c r="A254" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C254" t="s">
+        <v>441</v>
+      </c>
+      <c r="D254" t="str">
         <f t="shared" si="0"/>
         <v>pd.DataFrame(my_array,columns='A')</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C235" t="s">
-        <v>444</v>
-      </c>
-      <c r="D235" t="str">
+    <row r="255" spans="1:4">
+      <c r="A255" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C255" t="s">
+        <v>441</v>
+      </c>
+      <c r="D255" t="str">
         <f t="shared" si="0"/>
-        <v>pd.read_csv('file.csv',header=0).sqeeze("columns")</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C236" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="C237" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C238" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C239" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C240" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C241" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C242" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="C243" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C244" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C245" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C246" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C247" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B248" t="s">
-        <v>505</v>
-      </c>
-      <c r="C248" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C249" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="C250" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>pd.read_csv('file.csv',header=0).squeeze('columns')</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="5" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>522</v>
+        <v>476</v>
+      </c>
+      <c r="C256" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="5" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>524</v>
+        <v>479</v>
+      </c>
+      <c r="C257" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="5" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>526</v>
+        <v>481</v>
+      </c>
+      <c r="C258" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="5" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>528</v>
+        <v>483</v>
+      </c>
+      <c r="C259" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="5" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="C260" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="5" t="s">
-        <v>532</v>
+        <v>486</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>533</v>
+        <v>487</v>
+      </c>
+      <c r="C261" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="5" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>535</v>
+        <v>489</v>
       </c>
       <c r="C262" t="s">
-        <v>536</v>
+        <v>441</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="5" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="C263" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="5" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>540</v>
+        <v>493</v>
+      </c>
+      <c r="C264" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="5" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>542</v>
+        <v>495</v>
+      </c>
+      <c r="C265" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="5" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>543</v>
+        <v>497</v>
+      </c>
+      <c r="C266" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="5" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>546</v>
+        <v>499</v>
+      </c>
+      <c r="C267" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>548</v>
+      <c r="A268" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B268" t="s">
+        <v>501</v>
+      </c>
+      <c r="C268" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="5" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>550</v>
+        <v>503</v>
+      </c>
+      <c r="C269" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="5" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>552</v>
+        <v>505</v>
+      </c>
+      <c r="C270" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="5" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="5" t="s">
-        <v>555</v>
+        <v>509</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>516</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" s="5" t="s">
-        <v>563</v>
+        <v>517</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
-        <v>565</v>
+        <v>519</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>526</v>
+      </c>
+      <c r="C280" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>573</v>
+        <v>528</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>530</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C282" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>533</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
-        <v>582</v>
+        <v>537</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="5" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="5" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>592</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1370" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA3CAACC-4840-4F57-BB48-38BB60F460E6}"/>
+  <xr:revisionPtr revIDLastSave="1637" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87BA89C-8E06-40EA-818D-77FC1E9BB6E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$363</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="739">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -59,12 +60,6 @@
     <t>pd.concat([df1,df2])</t>
   </si>
   <si>
-    <t>Counts the number of Non Blank Values in Column</t>
-  </si>
-  <si>
-    <t>Counts the number of Non Blank Values in Rows</t>
-  </si>
-  <si>
     <t>df.count()</t>
   </si>
   <si>
@@ -392,9 +387,6 @@
     <t>ax.legend()</t>
   </si>
   <si>
-    <t>Create a scatter plot of the x and y values on the axes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create a histogram plot of the 'data'  on the axes . Set the number of bins to 30 </t>
   </si>
   <si>
@@ -632,9 +624,6 @@
     <t>fig,ax=plt.subplots()</t>
   </si>
   <si>
-    <t>ax.scatter(x,y)</t>
-  </si>
-  <si>
     <t>ax.hist(data,bins=30)</t>
   </si>
   <si>
@@ -833,15 +822,9 @@
     <t>df.dropna(axis=1,how='all')</t>
   </si>
   <si>
-    <t>Remove all the columns that only contain missing values</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filter a df by a column A  if it has a value equal to 'a' </t>
   </si>
   <si>
-    <t>df[df['A']=='a']</t>
-  </si>
-  <si>
     <t>Counts the number of Unique Values in a category pref- and sort it in ascending order</t>
   </si>
   <si>
@@ -950,9 +933,6 @@
     <t>Filter a df by multiple categories a, b, c present in a particular column A</t>
   </si>
   <si>
-    <t>df[df['A'].isin(['a','b','c'])]</t>
-  </si>
-  <si>
     <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
   </si>
   <si>
@@ -989,9 +969,6 @@
     <t>df['A'].equals(df['B'])</t>
   </si>
   <si>
-    <t xml:space="preserve">Divide a df numeric column into three parts </t>
-  </si>
-  <si>
     <t>pd.qcut(df['A'],q=3)</t>
   </si>
   <si>
@@ -1232,9 +1209,6 @@
     <t>pd.crosstab(df['A'],df['B'],values=df['C'],aggfunc='sum')</t>
   </si>
   <si>
-    <t>[x**2forxinaifx%2==0]</t>
-  </si>
-  <si>
     <t>date= "2023-01-01" in the datetime format. You want to find the date after 29 days.How do you get in pandas</t>
   </si>
   <si>
@@ -1511,9 +1485,6 @@
     <t>pd.read_csv('file.csv',nrows=10)</t>
   </si>
   <si>
-    <t>Read a file called file.csv, skip n lines at the end</t>
-  </si>
-  <si>
     <t>pd.read_csv('file.csv',skipfooter=10)</t>
   </si>
   <si>
@@ -1577,9 +1548,6 @@
     <t>Select the rows where data is missing from a column A</t>
   </si>
   <si>
-    <t>df[df['A'].isnull()])</t>
-  </si>
-  <si>
     <t>Select the rows where values in column A is less than 2 and in B is more than 3</t>
   </si>
   <si>
@@ -1667,33 +1635,18 @@
     <t>Select all Column except one column A</t>
   </si>
   <si>
-    <t>df.loc[:,df.columns !='A']</t>
-  </si>
-  <si>
     <t>to remove first n rows of a given DataFrame.</t>
   </si>
   <si>
-    <t>df.iloc[3:]</t>
-  </si>
-  <si>
     <t>to remove last n rows in a dataframe</t>
   </si>
   <si>
-    <t>df.iloc[:-3]</t>
-  </si>
-  <si>
     <t>to add a prefix  "a_" to all columns</t>
   </si>
   <si>
-    <t>df.add_prefix("a_")</t>
-  </si>
-  <si>
     <t>to add a suffix "_b" to all columns</t>
   </si>
   <si>
-    <t>df.add_suffix("_b")</t>
-  </si>
-  <si>
     <t>to convert the column header to a lower case and remove all trailing spaces in it</t>
   </si>
   <si>
@@ -1701,21 +1654,6 @@
   </si>
   <si>
     <t>to check if merge keys are unique in both left and right datasets dfl and dfr</t>
-  </si>
-  <si>
-    <t>to check if merge keys are unique in left dataset dfl and dfr</t>
-  </si>
-  <si>
-    <t>to check if merge keys are unique in right dataset dfl and dfr</t>
-  </si>
-  <si>
-    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='one_to_one'</t>
-  </si>
-  <si>
-    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='one_to_many'</t>
-  </si>
-  <si>
-    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='many_to_one'</t>
   </si>
   <si>
     <t>Check if the two dataframes are unequal</t>
@@ -2365,9 +2303,6 @@
     <t>create a dataframe from a dictionary of list dict--&gt; {x:[1,2],y:[3,4],z:[5,6]}</t>
   </si>
   <si>
-    <t>create a dataframe from a dictionary of lists with index labels--&gt; {x:[1,2],y:[3,4],z:[5,6]},labels=['a','b']</t>
-  </si>
-  <si>
     <t>create a df from a list of dictionaries--&gt; data = [{'A': 1, 'B': 4}, {'A': 2, 'B': 5}, {'A': 3, 'B': 6}]</t>
   </si>
   <si>
@@ -2399,6 +2334,417 @@
   </si>
   <si>
     <t>pd.read_csv('file.csv',header=0).squeeze('columns')</t>
+  </si>
+  <si>
+    <t>Get the count of how many values in a df are duplicated</t>
+  </si>
+  <si>
+    <t>df.duplicated().value_count()</t>
+  </si>
+  <si>
+    <t>Get all the rows where the values are duplicated</t>
+  </si>
+  <si>
+    <t>We have a folder with a path called path and inside the path there is another folder called folder, join the two</t>
+  </si>
+  <si>
+    <t>os.path.join(path,folder)</t>
+  </si>
+  <si>
+    <t>We hava a folder with a path called path, find the list of all the files inside that path</t>
+  </si>
+  <si>
+    <t>os.listdir(path)</t>
+  </si>
+  <si>
+    <t>a,b=os.path.splitext(myfile)</t>
+  </si>
+  <si>
+    <t>Convert a date-like column 'A' to datetime with the format dd-mm-yy</t>
+  </si>
+  <si>
+    <t>split the name and extension in the file called myfile, let the two names be called a and b</t>
+  </si>
+  <si>
+    <t>pd.to_datetime(df['A'],format='%d-%m-%Y')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read an excel sheet , sheet name is 'Sheet1", get column A and B </t>
+  </si>
+  <si>
+    <t>Get the first 4 characters of a text column</t>
+  </si>
+  <si>
+    <t>df['A'].str[:4]</t>
+  </si>
+  <si>
+    <t>Save the df to pickle</t>
+  </si>
+  <si>
+    <t>df.to_pickle('file.pkl')</t>
+  </si>
+  <si>
+    <t>Read the pickle file to the df</t>
+  </si>
+  <si>
+    <t>pd.read_pickle('file.pkl')</t>
+  </si>
+  <si>
+    <t>df.iloc[n:]</t>
+  </si>
+  <si>
+    <t>[print(x) for x in my_list]</t>
+  </si>
+  <si>
+    <t>mylist.sort()</t>
+  </si>
+  <si>
+    <t>mylist.sort(reverse=True)</t>
+  </si>
+  <si>
+    <t>mylist.reverse()</t>
+  </si>
+  <si>
+    <t>mylist.clear()</t>
+  </si>
+  <si>
+    <t>mylist.count(1)</t>
+  </si>
+  <si>
+    <t>mylist.index('a')</t>
+  </si>
+  <si>
+    <t>mylist.insert(3,'d')</t>
+  </si>
+  <si>
+    <t>mylist.pop(3)</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get the length of the dictionary</t>
+  </si>
+  <si>
+    <t>len(mydict)</t>
+  </si>
+  <si>
+    <t>Create a dictionary with a=1, b=2 and c=3</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get the value of a</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get the value of a, use 'get'</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get a list of the keys</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, add c=3</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get a list of the values</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, get a list of each item as a tuple in the list</t>
+  </si>
+  <si>
+    <t>if 'b' in dict</t>
+  </si>
+  <si>
+    <t>mydict['a']</t>
+  </si>
+  <si>
+    <t>mydict.get('a')</t>
+  </si>
+  <si>
+    <t>mydict.keys()</t>
+  </si>
+  <si>
+    <t>mydict['c']=3</t>
+  </si>
+  <si>
+    <t>mydict.values()</t>
+  </si>
+  <si>
+    <t>mydict.items()</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, check if b exists in the dictionary, use only if statement</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, change b to 3</t>
+  </si>
+  <si>
+    <t>mydict['b']=3</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, change b to 3, use update method</t>
+  </si>
+  <si>
+    <t>mydict.update({'b':3})</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, remove b</t>
+  </si>
+  <si>
+    <t>mydict.pop('b')</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, remove the last inserted item</t>
+  </si>
+  <si>
+    <t>mydict.popitem()</t>
+  </si>
+  <si>
+    <t>del mydict['b']</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, delete this dictionary</t>
+  </si>
+  <si>
+    <t>del mydict</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, empty this dictionary</t>
+  </si>
+  <si>
+    <t>mydict.clear()</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, print all values in this dictionary in one line, use x as variable</t>
+  </si>
+  <si>
+    <t>[print(x) for x in mydict.values()]</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, print each item in this dictionary, use only for, use variable x</t>
+  </si>
+  <si>
+    <t>[print(x) for x in mydict.keys()]</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, print all keys and values in this dictionary in one line, use x as variable</t>
+  </si>
+  <si>
+    <t>[print(x,y) for x,y in mydict.items()]</t>
+  </si>
+  <si>
+    <t>Apply a filter on column A  so that only those rows are fetched where values are greater than 10 using loc</t>
+  </si>
+  <si>
+    <t>Apply a filter on column A  so that only those rows of column B are fetched where values are greater than 10 using loc</t>
+  </si>
+  <si>
+    <t>df.loc[df['A']&gt;a,'B']</t>
+  </si>
+  <si>
+    <t>Apply a filter on column A  so that only those rows are fetched where values are greater than 10 using iloc</t>
+  </si>
+  <si>
+    <t>df.iloc[(df['A']&gt;a).values]</t>
+  </si>
+  <si>
+    <t>You are given these bins =[0,25,50,75,100], divide a column 'A' into these bins and get the frequency count of each bin</t>
+  </si>
+  <si>
+    <t>pd.cut(df['A'],bins=bins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide a df numeric column into three equal parts ( Quartiles). </t>
+  </si>
+  <si>
+    <t>Divide a df numeric column into three equal parts ( Quartiles) , label these parts as a,b,c</t>
+  </si>
+  <si>
+    <t>pd.qcut(df['A'],q=3,labels=['a','b','c'])</t>
+  </si>
+  <si>
+    <t>to check if merge keys are unique in left dataset dfl . The two datasets are dfl and dfr</t>
+  </si>
+  <si>
+    <t>to check if merge keys are unique in right dataset  dfr. The two datasets are dfl and dfr</t>
+  </si>
+  <si>
+    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='one_to_one')</t>
+  </si>
+  <si>
+    <t>pd.merge(left=dfl,right=dfr,how='inner',validate='many_to_one')</t>
+  </si>
+  <si>
+    <t>df.loc[:,df.columns!='A']</t>
+  </si>
+  <si>
+    <t>dict(a=1,b=2,c=3)</t>
+  </si>
+  <si>
+    <t>Remove all the columns that only contain missing values. All values in the column should be NAN</t>
+  </si>
+  <si>
+    <t>df.dropna(axis=1,how='any')</t>
+  </si>
+  <si>
+    <t>Remove all the columns that only contain missing values. Any values in the column can be NAN</t>
+  </si>
+  <si>
+    <t>Given a dictionary mydict={'a':1,'b':2}, remove the last inserted item, use del</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>df.loc[df['A']=='a']</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].isnull()])</t>
+  </si>
+  <si>
+    <t>df.loc[df.duplicated()]</t>
+  </si>
+  <si>
+    <t>Counts the number of Non Blank Values in Rows of a df</t>
+  </si>
+  <si>
+    <t>Counts the number of Non Blank Values in Columns of a df</t>
+  </si>
+  <si>
+    <t>create a dataframe from a dictionary of lists with index labels--&gt; dict={x:[1,2],y:[3,4],z:[5,6]},labels=['a','b']</t>
+  </si>
+  <si>
+    <t>How to change this to concat: df1.append(df2, ignore_index=True)</t>
+  </si>
+  <si>
+    <t>pd.concat([df1, df2], ignore_index=True)</t>
+  </si>
+  <si>
+    <t>df.loc[df['A']&gt;10]</t>
+  </si>
+  <si>
+    <t>pd.read_excel('file.xlsx',sheet_name='Sheet1',usecols=['A','B'])</t>
+  </si>
+  <si>
+    <t>mylist[1]=4</t>
+  </si>
+  <si>
+    <t>mylist.append(4)</t>
+  </si>
+  <si>
+    <t>mylist.remove(2)</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], change the second item to 4</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], add an item 4 to it</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], remove item called 2 ( first item only)</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], print all item in this list</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], sort this list in the ascending order</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], sort this list in the descending order</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], Reverse the order of list items</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,3], Remove all elements from the list</t>
+  </si>
+  <si>
+    <t>Given a list mylist[1,2,1], count the number of times 1 appears</t>
+  </si>
+  <si>
+    <t>Given a list mylist['a','b','a'], get the location ( index) of first occurrence of 'a'</t>
+  </si>
+  <si>
+    <t>Given a list mylist['a','b','a'], add 'd' at 4th position</t>
+  </si>
+  <si>
+    <t>Given a list mylist['a','b','a'], remove 'd' at 4th position</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, skip 10 lines at the end</t>
+  </si>
+  <si>
+    <t>df.add_suffix('_b')</t>
+  </si>
+  <si>
+    <t>df.add_prefix('a_')</t>
+  </si>
+  <si>
+    <t>[x**2 for x in alist if x%2==0]</t>
+  </si>
+  <si>
+    <t>Create a series  with a list 'data' and name as 'name'</t>
+  </si>
+  <si>
+    <t>pd.Series(data,name='name')</t>
+  </si>
+  <si>
+    <t>Generate a list mylist of 100 numbers which starts with a and is like a1, a2 a3 etc</t>
+  </si>
+  <si>
+    <t>['a'+str(x) for x in the range(1,100)]</t>
+  </si>
+  <si>
+    <t>Get the unique count of values in a column</t>
+  </si>
+  <si>
+    <t>Create an np array of 100 normally distributed values with mean as m std deviation as s.</t>
+  </si>
+  <si>
+    <t>np.random.normal(m,s,100)</t>
+  </si>
+  <si>
+    <t>np.clip(arr,a,b)</t>
+  </si>
+  <si>
+    <t>How to convert a list mylist to an np array</t>
+  </si>
+  <si>
+    <t>np.array(mylist)</t>
+  </si>
+  <si>
+    <t>Given an nparray arr, clip the array to contain only values between a and b. If the values are less than a then they will be set equal to a, if more than b, they will be set more than b</t>
+  </si>
+  <si>
+    <t>Create a random word of 5 uppercase characters - use library 'string'</t>
+  </si>
+  <si>
+    <t>'.join(random.choices(string.ascii_uppercase,k=9))</t>
+  </si>
+  <si>
+    <t>Create a random word of 5 digits - use library 'string'</t>
+  </si>
+  <si>
+    <t>'.join(random.choices(string.digits,k=5))</t>
+  </si>
+  <si>
+    <t>You have a list 'lunique' of three unique codes, You want to create an array of 10 codes using these codes, how do you do that</t>
+  </si>
+  <si>
+    <t>np.tile(lunique,10//3+1)[:10]</t>
+  </si>
+  <si>
+    <t>To see all the rows where the value of a paricular columns are duplicated</t>
+  </si>
+  <si>
+    <t>df[df['A'].duplicated(keep=False)]</t>
+  </si>
+  <si>
+    <t>To see all the rows where the value of a paricular columns are duplicated, see the duplicate rows together</t>
+  </si>
+  <si>
+    <t>df[df['A'].duplicated(keep=False)].sort_values('A')</t>
+  </si>
+  <si>
+    <t>Rearrange the columns ABC in df as BAC</t>
+  </si>
+  <si>
+    <t>df[['B','A','C']]</t>
   </si>
 </sst>
 </file>
@@ -2784,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A375" sqref="A375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2799,657 +3145,654 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>444</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>400</v>
+      <c r="A37" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="9" t="s">
-        <v>607</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C38" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>323</v>
+        <v>393</v>
+      </c>
+      <c r="C39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="9" t="s">
+        <v>587</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C40" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>427</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>419</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="C42" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" t="s">
-        <v>196</v>
-      </c>
       <c r="C44" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75">
-      <c r="A45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>116</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>621</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>231</v>
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>599</v>
       </c>
       <c r="C48" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>437</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
+      <c r="A51" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="C51" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>389</v>
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>622</v>
+        <v>264</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" t="e">
+      <c r="A59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C59" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>443</v>
-      </c>
-    </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>214</v>
+      <c r="A61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>418</v>
+        <v>322</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>419</v>
+        <v>323</v>
       </c>
       <c r="C63" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C64" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" t="s">
-        <v>53</v>
+      <c r="A65" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3460,106 +3803,106 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>225</v>
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" t="s">
-        <v>56</v>
+      <c r="A70" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>397</v>
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>342</v>
+        <v>715</v>
       </c>
       <c r="C72" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C73" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>455</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>20</v>
+      <c r="A75" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="C75" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3570,139 +3913,139 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>301</v>
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="C78" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C79" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" t="s">
-        <v>30</v>
+      <c r="A81" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>273</v>
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" t="s">
-        <v>34</v>
+      <c r="A83" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>140</v>
+      <c r="A84" t="s">
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>357</v>
+      <c r="A87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" t="s">
-        <v>127</v>
+      <c r="A88" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3713,348 +4056,345 @@
         <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
         <v>121</v>
       </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
       <c r="C90" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>80</v>
+      <c r="A91" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" t="e">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" t="e">
         <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>185</v>
-      </c>
       <c r="C94" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>71</v>
-      </c>
-      <c r="B98" t="s">
-        <v>72</v>
+      <c r="A98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>283</v>
+      <c r="A102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>439</v>
+        <v>278</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>440</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>319</v>
+        <v>156</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="C106" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" t="s">
-        <v>281</v>
+      <c r="A109" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>263</v>
+      <c r="A110" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>296</v>
+        <v>682</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>325</v>
+        <v>684</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C112" t="s">
-        <v>442</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" t="s">
-        <v>26</v>
+      <c r="A114" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="C114" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>393</v>
+      <c r="A115" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="C115" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>351</v>
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C117" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>2</v>
       </c>
-      <c r="B117" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="B119" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4065,62 +4405,62 @@
         <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>258</v>
+      <c r="A122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
       </c>
       <c r="C122" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="C124" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C126" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4128,274 +4468,274 @@
         <v>171</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>424</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="C128" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C129" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" t="s">
-        <v>70</v>
+      <c r="B130" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C130" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="A131" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>67</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>68</v>
       </c>
-      <c r="C131" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="C132" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="C134" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>163</v>
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>84</v>
       </c>
       <c r="C135" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>210</v>
+        <v>306</v>
       </c>
       <c r="C136" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>426</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="C138" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>54</v>
-      </c>
-      <c r="B139" t="s">
-        <v>39</v>
+      <c r="A139" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>178</v>
+      <c r="A141" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C142" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C143" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>425</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" t="s">
-        <v>36</v>
+      <c r="A145" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C146" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>404</v>
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>203</v>
+        <v>394</v>
       </c>
       <c r="C148" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C149" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>408</v>
+        <v>199</v>
       </c>
       <c r="C150" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4403,1710 +4743,2197 @@
         <v>155</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="5" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C153" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="5" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="C155" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C157" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C158" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B160" t="s">
-        <v>150</v>
+      <c r="A160" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C160" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>453</v>
+        <v>245</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="C161" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C162" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="C163" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C164" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="5" t="s">
-        <v>454</v>
+        <v>257</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>48</v>
+      <c r="A166" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B166" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="C166" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="A167" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
         <v>46</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>47</v>
       </c>
-      <c r="C167" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="C168" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>305</v>
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169" t="s">
+        <v>45</v>
       </c>
       <c r="C169" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="5" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>266</v>
+        <v>686</v>
       </c>
       <c r="C170" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>13</v>
-      </c>
-      <c r="B171" t="s">
-        <v>14</v>
+      <c r="A171" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="C171" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172" t="s">
-        <v>11</v>
+      <c r="A172" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="C172" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
         <v>12</v>
       </c>
-      <c r="B173" t="s">
-        <v>25</v>
-      </c>
       <c r="C173" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="38.25">
-      <c r="A176" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>392</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="38.25">
-      <c r="A177" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="38.25">
+      <c r="A178" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C177" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="C178" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="5" t="s">
-        <v>380</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="38.25">
+      <c r="A179" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C179" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C180" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="5" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C181" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="5" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="C182" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="5" t="s">
-        <v>316</v>
+        <v>379</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>63</v>
-      </c>
-      <c r="B184" t="s">
-        <v>64</v>
+      <c r="A184" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C184" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>65</v>
-      </c>
-      <c r="B185" t="s">
-        <v>66</v>
+      <c r="A185" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="C185" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>398</v>
+        <v>674</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C186" t="s">
-        <v>445</v>
+        <v>675</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>431</v>
+      <c r="A187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" t="s">
+        <v>62</v>
       </c>
       <c r="C187" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>432</v>
+      <c r="A188" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
+        <v>64</v>
       </c>
       <c r="C188" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C190" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="C191" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C192" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="5" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C193" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="C194" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C195" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="C196" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="5" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C197" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C198" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199" t="s">
-        <v>107</v>
+      <c r="A199" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="C199" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C200" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>197</v>
+      <c r="A201" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="C201" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>309</v>
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C203" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="5" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>411</v>
+        <v>302</v>
       </c>
       <c r="C204" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>198</v>
+      <c r="A205" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C205" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B206" t="s">
-        <v>200</v>
+      <c r="A206" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="C206" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>277</v>
+      <c r="A207" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C207" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>396</v>
+      <c r="A208" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B208" t="s">
+        <v>196</v>
       </c>
       <c r="C208" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>463</v>
+        <v>270</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>464</v>
+        <v>271</v>
       </c>
       <c r="C209" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="C210" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C211" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>318</v>
+        <v>453</v>
       </c>
       <c r="C212" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C213" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C214" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C215" t="e">
+        <v>447</v>
+      </c>
+      <c r="C215" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C216" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C217" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B216" t="s">
-        <v>142</v>
-      </c>
-      <c r="C216" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B217" t="s">
-        <v>120</v>
-      </c>
-      <c r="C217" t="s">
-        <v>450</v>
-      </c>
-    </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>280</v>
+      <c r="A218" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B218" t="s">
+        <v>139</v>
       </c>
       <c r="C218" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>279</v>
+      <c r="A219" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B219" t="s">
+        <v>117</v>
       </c>
       <c r="C219" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>267</v>
-      </c>
-      <c r="B220" t="s">
-        <v>77</v>
+      <c r="A220" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C220" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>269</v>
-      </c>
-      <c r="B221" t="s">
-        <v>352</v>
+      <c r="A221" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C221" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>261</v>
+      </c>
+      <c r="B222" t="s">
         <v>75</v>
       </c>
-      <c r="B222" t="s">
-        <v>9</v>
-      </c>
       <c r="C222" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B223" t="s">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="C223" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>268</v>
+        <v>690</v>
       </c>
       <c r="B225" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="C225" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>218</v>
+      <c r="A226" t="s">
+        <v>691</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>391</v>
+      <c r="A227" t="s">
+        <v>262</v>
+      </c>
+      <c r="B227" t="s">
+        <v>74</v>
       </c>
       <c r="C227" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="C228" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="C229" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C230" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>37</v>
-      </c>
-      <c r="B231" t="s">
-        <v>38</v>
+      <c r="A231" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C231" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" t="s">
+      <c r="A232" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C232" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233" t="s">
+        <v>36</v>
+      </c>
+      <c r="C233" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>4</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B234" t="s">
         <v>5</v>
       </c>
-      <c r="C232" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C233" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="C234" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="5" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="C235" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>506</v>
+        <v>219</v>
       </c>
       <c r="C236" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="5" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>359</v>
+        <v>215</v>
       </c>
       <c r="C237" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>131</v>
+      <c r="A238" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="C238" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="5" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="C239" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>192</v>
-      </c>
-      <c r="B240" t="s">
-        <v>191</v>
+      <c r="A240" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C240" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>189</v>
-      </c>
-      <c r="B241" t="s">
-        <v>190</v>
+      <c r="A241" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C241" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="C242" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B243" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C243" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C244" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="4" t="s">
-        <v>205</v>
+      <c r="A245" t="s">
+        <v>72</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C245" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>199</v>
+      <c r="A246" t="s">
+        <v>55</v>
+      </c>
+      <c r="B246" t="s">
+        <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="1" t="s">
-        <v>125</v>
+      <c r="A247" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B247" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C247" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B248" t="s">
-        <v>204</v>
+      <c r="A248" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C248" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B249" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C249" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>466</v>
+      <c r="A250" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B250" t="s">
+        <v>200</v>
       </c>
       <c r="C250" t="s">
         <v>441</v>
       </c>
-      <c r="D250" t="str">
-        <f t="shared" ref="D250:D255" si="0">TRIM(SUBSTITUTE(B250," ",""))</f>
-        <v>pd.DataFrame(my_list,columns='A')</v>
-      </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>468</v>
+      <c r="A251" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B251" t="s">
+        <v>130</v>
       </c>
       <c r="C251" t="s">
         <v>441</v>
       </c>
-      <c r="D251" t="str">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C252" t="s">
+        <v>432</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" ref="D252:D257" si="0">TRIM(SUBSTITUTE(B252," ",""))</f>
+        <v>pd.DataFrame(my_list,columns='A')</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C253" t="s">
+        <v>432</v>
+      </c>
+      <c r="D253" t="str">
         <f t="shared" si="0"/>
         <v>df.set_index('A')['B'].to_dict()</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C252" t="s">
-        <v>441</v>
-      </c>
-      <c r="D252" t="str">
+    <row r="254" spans="1:4">
+      <c r="A254" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C254" t="s">
+        <v>432</v>
+      </c>
+      <c r="D254" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].to_list()</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C253" t="s">
-        <v>441</v>
-      </c>
-      <c r="D253" t="str">
+    <row r="255" spans="1:4">
+      <c r="A255" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C255" t="s">
+        <v>432</v>
+      </c>
+      <c r="D255" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].values</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C254" t="s">
-        <v>441</v>
-      </c>
-      <c r="D254" t="str">
+    <row r="256" spans="1:4">
+      <c r="A256" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C256" t="s">
+        <v>432</v>
+      </c>
+      <c r="D256" t="str">
         <f t="shared" si="0"/>
         <v>pd.DataFrame(my_array,columns='A')</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C255" t="s">
-        <v>441</v>
-      </c>
-      <c r="D255" t="str">
+    <row r="257" spans="1:4">
+      <c r="A257" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C257" t="s">
+        <v>432</v>
+      </c>
+      <c r="D257" t="str">
         <f t="shared" si="0"/>
         <v>pd.read_csv('file.csv',header=0).squeeze('columns')</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="5" t="s">
+    <row r="258" spans="1:4">
+      <c r="A258" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C258" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C259" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C260" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C261" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C262" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C256" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="5" t="s">
+      <c r="B263" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="C263" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C257" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="5" t="s">
+      <c r="B264" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="C264" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B265" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C258" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="5" t="s">
+      <c r="C265" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B266" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C259" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="5" t="s">
+      <c r="C266" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B267" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C260" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="5" t="s">
+      <c r="C267" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C261" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="5" t="s">
+      <c r="C268" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C262" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="5" t="s">
+      <c r="C269" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B270" t="s">
         <v>491</v>
       </c>
-      <c r="C263" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="5" t="s">
+      <c r="C270" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B271" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C264" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="5" t="s">
+      <c r="C271" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B272" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C265" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="C266" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C267" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B268" t="s">
-        <v>501</v>
-      </c>
-      <c r="C268" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C269" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C270" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>510</v>
+      <c r="C272" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>515</v>
+        <v>501</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="5" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>520</v>
+        <v>505</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C280" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C282" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>536</v>
+        <v>520</v>
+      </c>
+      <c r="C284" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="5" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>546</v>
+        <v>680</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="5" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="5" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="5" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>552</v>
+        <v>714</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="5" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>556</v>
+        <v>713</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="5" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="5" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>558</v>
+        <v>678</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="5" t="s">
-        <v>559</v>
+        <v>676</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>560</v>
+        <v>428</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="5" t="s">
-        <v>561</v>
+        <v>677</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>563</v>
+        <v>679</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="5" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>620</v>
+        <v>539</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="5" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="5" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="5" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>571</v>
+        <v>545</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>573</v>
+        <v>547</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>575</v>
+        <v>549</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>576</v>
+        <v>551</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="5" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="5" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="5" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="5" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="5" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="5" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="5" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="5" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="5" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="5" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B328" s="6" t="s">
         <v>619</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD1423B-A36F-4159-9CF6-6D339329AB8A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1637" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87BA89C-8E06-40EA-818D-77FC1E9BB6E9}"/>
+  <xr:revisionPtr revIDLastSave="1764" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402BC5AF-20E3-4147-A5CC-DDE2190F5A98}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$396</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="778">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -180,9 +181,6 @@
     <t>df['A'].dtype</t>
   </si>
   <si>
-    <t>Find the dimensions of a column A</t>
-  </si>
-  <si>
     <t>df['A'].size</t>
   </si>
   <si>
@@ -216,9 +214,6 @@
     <t>Selecting Columns A and B with loc</t>
   </si>
   <si>
-    <t>df.loc[:,'A':'B']</t>
-  </si>
-  <si>
     <t>To get the Value of a Cell at 'A' column and 'B' row</t>
   </si>
   <si>
@@ -348,15 +343,9 @@
     <t>You have a timeseries df, you want to shift all dates forward by n days</t>
   </si>
   <si>
-    <t>df.shift(n)</t>
-  </si>
-  <si>
     <t>You have a timeseries df, you want to shift all dates backwards by n days</t>
   </si>
   <si>
-    <t>df.shift(-n)</t>
-  </si>
-  <si>
     <t>pd.DataFrame()</t>
   </si>
   <si>
@@ -465,9 +454,6 @@
     <t>To get the percent change from the previous value of a column in a timerseries df</t>
   </si>
   <si>
-    <t>df['A'].pct_change()</t>
-  </si>
-  <si>
     <t>Find the number of unique values in a column</t>
   </si>
   <si>
@@ -480,9 +466,6 @@
     <t>df['A'].unique()</t>
   </si>
   <si>
-    <t>Finding if any value in a column is duplicated</t>
-  </si>
-  <si>
     <t>any(df['A'].duplicated())</t>
   </si>
   <si>
@@ -525,12 +508,6 @@
     <t>df.columns</t>
   </si>
   <si>
-    <t>df.loc[0]</t>
-  </si>
-  <si>
-    <t>df.loc[n-1]</t>
-  </si>
-  <si>
     <t>How to get the number of rows</t>
   </si>
   <si>
@@ -543,9 +520,6 @@
     <t>df.shape[1]</t>
   </si>
   <si>
-    <t>df.loc[[0,99,999]]</t>
-  </si>
-  <si>
     <t>how to get the first row using iloc</t>
   </si>
   <si>
@@ -561,9 +535,6 @@
     <t>how to get 1st, 100th and 1000th row- use loc</t>
   </si>
   <si>
-    <t>df.iloc[-1]</t>
-  </si>
-  <si>
     <t>Get all the rows of col A and B , use loc</t>
   </si>
   <si>
@@ -639,9 +610,6 @@
     <t>ax.axhspan(ymin=4,ymax=6,color='gray',alpha=0.5)</t>
   </si>
   <si>
-    <t>np.random.randn(5,1)</t>
-  </si>
-  <si>
     <t>ax.axhline(y=1,color='green')</t>
   </si>
   <si>
@@ -936,15 +904,9 @@
     <t>Filter a df by multiple categories a, b, c not present in a particular column A</t>
   </si>
   <si>
-    <t>df[~df['A'].isin(['a','b','c'])]</t>
-  </si>
-  <si>
     <t>Get only the min and max of describe function of a dataframe</t>
   </si>
   <si>
-    <t>df.describe.loc['min':'max']</t>
-  </si>
-  <si>
     <t>Create a pivot table with a df with row as R, columns as C, values as V and taking 'mean' as the aggregated function. Show the totals</t>
   </si>
   <si>
@@ -978,15 +940,9 @@
     <t>Resample a timeseries df with daily data to give you mean of the column A monthwise</t>
   </si>
   <si>
-    <t>df.resample('M')['A'].mean()</t>
-  </si>
-  <si>
     <t>Resample a timeseries df with daily data to give you count of the column A monthwise</t>
   </si>
   <si>
-    <t>df.resample('M')['A'].count()</t>
-  </si>
-  <si>
     <t>Write a zipped csv file called file</t>
   </si>
   <si>
@@ -1287,9 +1243,6 @@
     <t>sns.displot(data=df,x='A',hue='B',kind='kde')</t>
   </si>
   <si>
-    <t>df.iloc[0]</t>
-  </si>
-  <si>
     <t>df.iloc[:,3:11:2]</t>
   </si>
   <si>
@@ -1407,15 +1360,9 @@
     <t>Create a cross tabulation of the Percentage within each column of two columns A and B</t>
   </si>
   <si>
-    <t>pd.crosstab(df['A'],df['B'],normalize="columns")</t>
-  </si>
-  <si>
     <t>Convert a list (mylist) to df column A</t>
   </si>
   <si>
-    <t>pd.DataFrame(my_list,columns='A')</t>
-  </si>
-  <si>
     <t>Convert a df column A and B to dictionary, where A will be the key and B will be the value</t>
   </si>
   <si>
@@ -1473,9 +1420,6 @@
     <t>pd.read_csv('file.csv',na_values=['NA','UNKNOWN'])</t>
   </si>
   <si>
-    <t>Read a file called file.csv, parse column A as date column</t>
-  </si>
-  <si>
     <t>pd.read_csv('file.csv',parse_dates=['A'])</t>
   </si>
   <si>
@@ -1491,15 +1435,9 @@
     <t>Align dfl and dfr on the index to get the dfs adfl and adfr</t>
   </si>
   <si>
-    <t>adfl,adfr =dfl.align(dfr)</t>
-  </si>
-  <si>
     <t>Generate 1000 samples from the standard Normal distribution</t>
   </si>
   <si>
-    <t>np.random.randn(100)</t>
-  </si>
-  <si>
     <t>Read a file called file.csv assuming 'A' column as index</t>
   </si>
   <si>
@@ -1521,15 +1459,9 @@
     <t>Select all rows except the last n rows</t>
   </si>
   <si>
-    <t>df.iloc[:-n]</t>
-  </si>
-  <si>
     <t>Select all rows from the last n rows till end</t>
   </si>
   <si>
-    <t>df.iloc[-n:]</t>
-  </si>
-  <si>
     <t>word.endswith('val')</t>
   </si>
   <si>
@@ -1554,9 +1486,6 @@
     <t>df[(df['A']&lt;2)&amp;(df['B']&gt;3)]</t>
   </si>
   <si>
-    <t>df.loc['r', 'A'] = 11.5</t>
-  </si>
-  <si>
     <t>Change the value at row 'r' and column A to 11.5</t>
   </si>
   <si>
@@ -1611,9 +1540,6 @@
     <t>to check whether a given column is present in a DataFrame or not.</t>
   </si>
   <si>
-    <t>if 'A' in df.columns:print("present")</t>
-  </si>
-  <si>
     <t>remove infinite values from a given DataFrame., replace by NaN</t>
   </si>
   <si>
@@ -1623,9 +1549,6 @@
     <t> Group by the first column A and get second column B as lists in rows</t>
   </si>
   <si>
-    <t>df.groupby('A')['B'].apply(list)</t>
-  </si>
-  <si>
     <t>df.columns.get_loc('A')</t>
   </si>
   <si>
@@ -1656,9 +1579,6 @@
     <t>to check if merge keys are unique in both left and right datasets dfl and dfr</t>
   </si>
   <si>
-    <t>Check if the two dataframes are unequal</t>
-  </si>
-  <si>
     <t>df1.ne(df2)</t>
   </si>
   <si>
@@ -1668,18 +1588,12 @@
     <t>Create a multi index using default index and a column A</t>
   </si>
   <si>
-    <t>df.set_index(['A','B']}</t>
-  </si>
-  <si>
     <t>set the name of the index as a</t>
   </si>
   <si>
     <t>df.index.name='a'</t>
   </si>
   <si>
-    <t>to convert the index back into the colunm</t>
-  </si>
-  <si>
     <t>df.reset_index(level=0,inplace=True)</t>
   </si>
   <si>
@@ -1690,9 +1604,6 @@
   </si>
   <si>
     <t>check if a value 'a' exist in a single index df</t>
-  </si>
-  <si>
-    <t>a' in df.index</t>
   </si>
   <si>
     <t>sort the index level 1 of a df</t>
@@ -2330,9 +2241,6 @@
     <t>pd.Period('2023-01-01',freq='M')</t>
   </si>
   <si>
-    <t>,'.join(my_list)</t>
-  </si>
-  <si>
     <t>pd.read_csv('file.csv',header=0).squeeze('columns')</t>
   </si>
   <si>
@@ -2390,9 +2298,6 @@
     <t>pd.read_pickle('file.pkl')</t>
   </si>
   <si>
-    <t>df.iloc[n:]</t>
-  </si>
-  <si>
     <t>[print(x) for x in my_list]</t>
   </si>
   <si>
@@ -2447,9 +2352,6 @@
     <t>Given a dictionary mydict={'a':1,'b':2}, get a list of each item as a tuple in the list</t>
   </si>
   <si>
-    <t>if 'b' in dict</t>
-  </si>
-  <si>
     <t>mydict['a']</t>
   </si>
   <si>
@@ -2594,9 +2496,6 @@
     <t>df.loc[df['A']=='a']</t>
   </si>
   <si>
-    <t>df.loc[df['A'].isnull()])</t>
-  </si>
-  <si>
     <t>df.loc[df.duplicated()]</t>
   </si>
   <si>
@@ -2615,9 +2514,6 @@
     <t>pd.concat([df1, df2], ignore_index=True)</t>
   </si>
   <si>
-    <t>df.loc[df['A']&gt;10]</t>
-  </si>
-  <si>
     <t>pd.read_excel('file.xlsx',sheet_name='Sheet1',usecols=['A','B'])</t>
   </si>
   <si>
@@ -2708,9 +2604,6 @@
     <t>np.array(mylist)</t>
   </si>
   <si>
-    <t>Given an nparray arr, clip the array to contain only values between a and b. If the values are less than a then they will be set equal to a, if more than b, they will be set more than b</t>
-  </si>
-  <si>
     <t>Create a random word of 5 uppercase characters - use library 'string'</t>
   </si>
   <si>
@@ -2732,26 +2625,381 @@
     <t>To see all the rows where the value of a paricular columns are duplicated</t>
   </si>
   <si>
-    <t>df[df['A'].duplicated(keep=False)]</t>
-  </si>
-  <si>
     <t>To see all the rows where the value of a paricular columns are duplicated, see the duplicate rows together</t>
   </si>
   <si>
-    <t>df[df['A'].duplicated(keep=False)].sort_values('A')</t>
-  </si>
-  <si>
     <t>Rearrange the columns ABC in df as BAC</t>
   </si>
   <si>
     <t>df[['B','A','C']]</t>
+  </si>
+  <si>
+    <t>df.set_index(['A','B'])</t>
+  </si>
+  <si>
+    <t>adfl,adfr=dfl.align(dfr)</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].isnull()]</t>
+  </si>
+  <si>
+    <t>Finding if at least one value in a column is duplicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gives you a Series indicating which values in column A are duplicated in the form of 'true','false' mask</t>
+  </si>
+  <si>
+    <t>df['A'].duplicated()</t>
+  </si>
+  <si>
+    <t>Find those rows where the values of a particular column are duplicated</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].duplicated()}</t>
+  </si>
+  <si>
+    <t>To see all the rows except first row where the value of a paricular columns are duplicated</t>
+  </si>
+  <si>
+    <t>To see all the rows except last row where the value of a paricular columns are duplicated</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].duplicated(keep=False)]</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].duplicated(keep=False)].sort_values('A')</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].duplicated(keep='first')]</t>
+  </si>
+  <si>
+    <t>df.loc[df['A'].duplicated(keep='last')]</t>
+  </si>
+  <si>
+    <t>df.loc[~df['A'].isin(['a','b','c'])]</t>
+  </si>
+  <si>
+    <t>df.groupby('A')['B'].agg(list)</t>
+  </si>
+  <si>
+    <t>Convert the whole df to a dictionary</t>
+  </si>
+  <si>
+    <t>'a' in df.index</t>
+  </si>
+  <si>
+    <t>df.describe().loc[['min','max']:]</t>
+  </si>
+  <si>
+    <t>You have a list mylist, you want to create an array where the elements are repeaed 3 times</t>
+  </si>
+  <si>
+    <t>np.tile(mylist,3)</t>
+  </si>
+  <si>
+    <t>You have an np  array called myarray , you want to convert it into a list, how do you do it</t>
+  </si>
+  <si>
+    <t>myarray.tolist()</t>
+  </si>
+  <si>
+    <t>if 'b' in mydict</t>
+  </si>
+  <si>
+    <t>Check if the two dataframes (df1 and df2) are unequal</t>
+  </si>
+  <si>
+    <t>Read a file called file.csv, parse column A as date column[Can present as a list]</t>
+  </si>
+  <si>
+    <t>','.join(my_list)</t>
+  </si>
+  <si>
+    <t>Find the Total number of elements in  a column A</t>
+  </si>
+  <si>
+    <t>True for Empty DataFrame</t>
+  </si>
+  <si>
+    <t>df.empty</t>
+  </si>
+  <si>
+    <t>df['A'].rank()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank the values of a Dataframe column A in ascending order. </t>
+  </si>
+  <si>
+    <t>find Index label for minimum value in a df column</t>
+  </si>
+  <si>
+    <t>df['A'].idxmin()</t>
+  </si>
+  <si>
+    <t>find Index label for maximum value in a df column</t>
+  </si>
+  <si>
+    <t>df['A'].idxmax()</t>
+  </si>
+  <si>
+    <t>df.shift(periods=n)</t>
+  </si>
+  <si>
+    <t>df.shift(periods=-n)</t>
+  </si>
+  <si>
+    <t>To get the percent change from the nth value of a column in a timerseries df</t>
+  </si>
+  <si>
+    <t>df['A'].pct_change(periods=n)</t>
+  </si>
+  <si>
+    <t>df['A'].pct_change(periods=1)</t>
+  </si>
+  <si>
+    <t>Append a column of Row totals to a df</t>
+  </si>
+  <si>
+    <t>df.sum(axis=1)</t>
+  </si>
+  <si>
+    <t>Get the df index as list</t>
+  </si>
+  <si>
+    <t>df.index.tolist()</t>
+  </si>
+  <si>
+    <t>Get the df index as array</t>
+  </si>
+  <si>
+    <t>df.index.values</t>
+  </si>
+  <si>
+    <t>Resample a timeseries df to every other minute, by giving the sum</t>
+  </si>
+  <si>
+    <t>df.resample('2min').sum()</t>
+  </si>
+  <si>
+    <t>Given a monthly timeseries, resample it to twice a month by using forward filling mathod</t>
+  </si>
+  <si>
+    <t>df.resample('SMS').ffill()</t>
+  </si>
+  <si>
+    <t>df.resample('M',on='A'].mean()</t>
+  </si>
+  <si>
+    <t>df.resample('M',on='A'].count()</t>
+  </si>
+  <si>
+    <t>np.random.randn(1000)</t>
+  </si>
+  <si>
+    <t>Generate a 1-D array containing 5 random integers from 0 to 100:</t>
+  </si>
+  <si>
+    <t>Generate an array of 10 random integers between 1 to 5</t>
+  </si>
+  <si>
+    <t>np.random.randint(1,5,100)</t>
+  </si>
+  <si>
+    <r>
+      <t>np</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>random</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>randint(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF797129"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF797129"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF797129"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF797129"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF545454"/>
+        <rFont val="Var(--pst-font-family-monospace"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>Generate an array of 3 numbers in which all numbers are above 1 and the three numbers are below 3,5,10 respectively</t>
+  </si>
+  <si>
+    <t>Generate an array of 3 numbers in which the numbers are above 3,5, 10 respectively and all of them are below 20</t>
+  </si>
+  <si>
+    <t>np.random.randint([3,5,10],20)</t>
+  </si>
+  <si>
+    <t>np.random.randn(5)</t>
+  </si>
+  <si>
+    <t>df.loc[n-1:]</t>
+  </si>
+  <si>
+    <t>df.loc[0:]</t>
+  </si>
+  <si>
+    <t>df.loc[[0,99,999],:]</t>
+  </si>
+  <si>
+    <t>df.iloc[:-n,:]</t>
+  </si>
+  <si>
+    <t>df.iloc[-n:,:]</t>
+  </si>
+  <si>
+    <t>df.iloc[n:,:]</t>
+  </si>
+  <si>
+    <t>df.loc['r','A']=11.5</t>
+  </si>
+  <si>
+    <t>Given an nparray arr, clip the array to contain only values between a and b. If the values are less than a then they will be set equal to a, if more than b, they will be set equal to b</t>
+  </si>
+  <si>
+    <t>if 'A' in df.columns</t>
+  </si>
+  <si>
+    <t>pd.crosstab(df['A'],df['B'],normalize='columns')</t>
+  </si>
+  <si>
+    <t>df.iloc[-1,:]</t>
+  </si>
+  <si>
+    <t>df.iloc[0,:]</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(mylist,columns='A')</t>
+  </si>
+  <si>
+    <t>df.loc[df['A']&gt;10,:]</t>
+  </si>
+  <si>
+    <t>to convert the index back into the column, done inplace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2806,6 +3054,26 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Var(--pst-font-family-monospace"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF545454"/>
+      <name val="Var(--pst-font-family-monospace"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Var(--pst-font-family-monospace"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF797129"/>
+      <name val="Var(--pst-font-family-monospace"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2827,7 +3095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2846,6 +3114,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3130,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A375" sqref="A375"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3151,494 +3422,494 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>737</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>738</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C39" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17.25">
       <c r="A40" s="9" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="C48" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3649,92 +3920,92 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>600</v>
+        <v>727</v>
       </c>
       <c r="C59" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" t="e">
         <v>#N/A</v>
@@ -3742,3182 +4013,3350 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>741</v>
       </c>
       <c r="C61" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" t="s">
-        <v>442</v>
+      <c r="A62" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B62" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>323</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
-        <v>409</v>
+        <v>307</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C65" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>51</v>
+      <c r="A66" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C66" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
         <v>48</v>
       </c>
-      <c r="B67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="B71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>715</v>
-      </c>
       <c r="C72" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
-        <v>335</v>
+        <v>152</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>334</v>
+        <v>680</v>
       </c>
       <c r="C73" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C74" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
+      <c r="A76" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="C76" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="C77" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="C78" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C80" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C81" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C82" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>28</v>
       </c>
-      <c r="C82" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="C83" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>32</v>
       </c>
-      <c r="C84" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" t="s">
-        <v>198</v>
-      </c>
       <c r="C85" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>349</v>
+      <c r="A88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B89" t="s">
-        <v>124</v>
+      <c r="A89" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
         <v>120</v>
       </c>
-      <c r="B90" t="s">
-        <v>121</v>
-      </c>
       <c r="C90" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>78</v>
+      <c r="A92" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" t="e">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="e">
         <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" t="s">
-        <v>70</v>
+      <c r="A99" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C100" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>38</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>39</v>
       </c>
-      <c r="C102" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>312</v>
+        <v>385</v>
       </c>
       <c r="C107" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>314</v>
+        <v>752</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>325</v>
+        <v>753</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>19</v>
-      </c>
-      <c r="B110" t="s">
-        <v>275</v>
+      <c r="A110" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>682</v>
+        <v>748</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C111" t="s">
-        <v>434</v>
+        <v>749</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>684</v>
+        <v>750</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>291</v>
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>264</v>
       </c>
       <c r="C113" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>317</v>
+        <v>649</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>292</v>
+        <v>651</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C115" t="s">
-        <v>434</v>
+        <v>650</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" t="s">
-        <v>24</v>
+      <c r="A116" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C116" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>385</v>
+      <c r="A117" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="C117" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" t="s">
-        <v>106</v>
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C120" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C121" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1" t="s">
-        <v>148</v>
+      <c r="A122" t="s">
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C122" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>252</v>
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>102</v>
       </c>
       <c r="C123" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>164</v>
+      <c r="A125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>143</v>
       </c>
       <c r="C125" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C128" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="C129" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>161</v>
+        <v>763</v>
       </c>
       <c r="C130" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>167</v>
+        <v>773</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>67</v>
-      </c>
-      <c r="B132" t="s">
-        <v>68</v>
+      <c r="A132" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>774</v>
       </c>
       <c r="C132" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" t="s">
-        <v>66</v>
+      <c r="A133" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>764</v>
       </c>
       <c r="C133" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>208</v>
+        <v>765</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C135" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>306</v>
+      <c r="A136" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" t="s">
+        <v>64</v>
       </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>206</v>
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>82</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>417</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="5" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>52</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
+      <c r="A141" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="5" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
       <c r="C142" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="5" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C143" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>177</v>
+      <c r="A144" t="s">
+        <v>51</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="5" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>180</v>
+        <v>719</v>
       </c>
       <c r="C145" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" t="s">
         <v>416</v>
       </c>
-      <c r="C146" t="s">
-        <v>432</v>
-      </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>33</v>
-      </c>
-      <c r="B147" t="s">
-        <v>34</v>
+      <c r="A147" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>394</v>
+        <v>170</v>
       </c>
       <c r="C148" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C149" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>199</v>
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
+        <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C152" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>398</v>
+        <v>762</v>
       </c>
       <c r="C153" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="5" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="C155" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="5" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="C156" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="5" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="5" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>250</v>
+        <v>413</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C159" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C161" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B162" t="s">
-        <v>147</v>
+      <c r="A162" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C162" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="5" t="s">
-        <v>444</v>
+        <v>232</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="C163" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B164" t="s">
-        <v>143</v>
+      <c r="A164" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C164" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>258</v>
+      <c r="A165" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B165" t="s">
+        <v>141</v>
       </c>
       <c r="C165" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B166" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" t="s">
-        <v>434</v>
+        <v>705</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="5" t="s">
-        <v>445</v>
+      <c r="A167" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C167" t="s">
-        <v>439</v>
+        <v>708</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>46</v>
-      </c>
-      <c r="B168" t="s">
-        <v>47</v>
+      <c r="A168" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C168" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>44</v>
+      <c r="A169" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="C169" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="5" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>686</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>298</v>
+      <c r="A171" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" t="s">
+        <v>140</v>
       </c>
       <c r="C171" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="5" t="s">
-        <v>260</v>
+        <v>429</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>687</v>
+        <v>331</v>
       </c>
       <c r="C172" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>728</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C173" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>44</v>
+      </c>
+      <c r="B174" t="s">
+        <v>45</v>
+      </c>
+      <c r="C174" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C176" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C177" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>8</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B179" t="s">
         <v>9</v>
       </c>
-      <c r="C174" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="C179" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>10</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B180" t="s">
         <v>23</v>
       </c>
-      <c r="C175" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
+      <c r="C180" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
         <v>20</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B181" t="s">
         <v>21</v>
       </c>
-      <c r="C176" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="C181" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
         <v>13</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B182" t="s">
         <v>14</v>
       </c>
-      <c r="C177" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="38.25">
-      <c r="A178" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C178" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="38.25">
-      <c r="A179" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C179" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C180" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C181" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="C182" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="5" t="s">
-        <v>379</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="38.25">
+      <c r="A183" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C183" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="5" t="s">
-        <v>319</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="38.25">
+      <c r="A184" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="C184" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="5" t="s">
-        <v>673</v>
+        <v>359</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="C185" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="5" t="s">
-        <v>674</v>
+        <v>357</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>675</v>
+        <v>358</v>
+      </c>
+      <c r="C186" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>61</v>
-      </c>
-      <c r="B187" t="s">
-        <v>62</v>
+      <c r="A187" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="C187" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>63</v>
-      </c>
-      <c r="B188" t="s">
-        <v>64</v>
+      <c r="A188" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="C188" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="5" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="C189" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>362</v>
+        <v>640</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="C190" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
-        <v>363</v>
+        <v>641</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C191" t="s">
-        <v>438</v>
+        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>420</v>
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>60</v>
       </c>
       <c r="C192" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>421</v>
+      <c r="A193" t="s">
+        <v>61</v>
+      </c>
+      <c r="B193" t="s">
+        <v>62</v>
       </c>
       <c r="C193" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="5" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C194" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="5" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C195" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="5" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C196" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="5" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="C197" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="5" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C198" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C199" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="5" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C200" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="5" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C201" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202" t="s">
-        <v>105</v>
+      <c r="A202" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C202" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C203" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="5" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="C204" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C205" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>194</v>
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>101</v>
       </c>
       <c r="C207" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B208" t="s">
-        <v>196</v>
+      <c r="A208" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="C208" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C209" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="5" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C210" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
       <c r="C211" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>453</v>
+      <c r="A212" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C212" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>450</v>
+      <c r="A213" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B213" t="s">
+        <v>186</v>
       </c>
       <c r="C213" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>449</v>
+        <v>259</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="C215" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>341</v>
+        <v>772</v>
       </c>
       <c r="C216" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>338</v>
+        <v>436</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C217" t="e">
-        <v>#N/A</v>
+        <v>437</v>
+      </c>
+      <c r="C217" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B218" t="s">
-        <v>139</v>
+      <c r="A218" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="C218" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B219" t="s">
-        <v>117</v>
+      <c r="A219" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C219" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="5" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>274</v>
+        <v>431</v>
       </c>
       <c r="C220" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="5" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="C221" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" t="s">
+      <c r="A222" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C222" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B223" t="s">
+        <v>135</v>
+      </c>
+      <c r="C223" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B224" t="s">
+        <v>113</v>
+      </c>
+      <c r="C224" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C225" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B222" t="s">
-        <v>75</v>
-      </c>
-      <c r="C222" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>263</v>
-      </c>
-      <c r="B223" t="s">
-        <v>344</v>
-      </c>
-      <c r="C223" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>73</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>690</v>
-      </c>
-      <c r="B225" t="s">
-        <v>191</v>
-      </c>
-      <c r="C225" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>691</v>
-      </c>
-      <c r="B226" t="s">
-        <v>6</v>
+      <c r="B226" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="C226" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B227" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C227" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>214</v>
+      <c r="A228" t="s">
+        <v>252</v>
+      </c>
+      <c r="B228" t="s">
+        <v>329</v>
       </c>
       <c r="C228" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>383</v>
+      <c r="A229" t="s">
+        <v>71</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>304</v>
+      <c r="A230" t="s">
+        <v>656</v>
+      </c>
+      <c r="B230" t="s">
+        <v>181</v>
       </c>
       <c r="C230" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>289</v>
+      <c r="A231" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>287</v>
+      <c r="A232" t="s">
+        <v>251</v>
+      </c>
+      <c r="B232" t="s">
+        <v>72</v>
       </c>
       <c r="C232" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>35</v>
-      </c>
-      <c r="B233" t="s">
-        <v>36</v>
+      <c r="A233" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="C233" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>5</v>
+      <c r="A234" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C234" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="5" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C235" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="5" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="C236" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="5" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="C237" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>496</v>
+      <c r="A238" t="s">
+        <v>35</v>
+      </c>
+      <c r="B238" t="s">
+        <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>351</v>
+      <c r="A239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
       </c>
       <c r="C239" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C240" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C241" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C242" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C243" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C244" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C245" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C246" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>179</v>
+      </c>
+      <c r="B247" t="s">
+        <v>178</v>
+      </c>
+      <c r="C247" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>176</v>
+      </c>
+      <c r="B248" t="s">
+        <v>177</v>
+      </c>
+      <c r="C248" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250" t="s">
+        <v>69</v>
+      </c>
+      <c r="C250" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>54</v>
+      </c>
+      <c r="B251" t="s">
+        <v>55</v>
+      </c>
+      <c r="C251" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B252" t="s">
+        <v>131</v>
+      </c>
+      <c r="C252" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C253" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B254" t="s">
+        <v>110</v>
+      </c>
+      <c r="C254" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B256" t="s">
+        <v>126</v>
+      </c>
+      <c r="C256" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C240" t="s">
+      <c r="B257" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C257" t="s">
+        <v>416</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" ref="D257:D263" si="0">TRIM(SUBSTITUTE(B257," ",""))</f>
+        <v>pd.DataFrame(mylist,columns='A')</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B259" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C241" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>189</v>
-      </c>
-      <c r="B242" t="s">
-        <v>188</v>
-      </c>
-      <c r="C242" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>186</v>
-      </c>
-      <c r="B243" t="s">
-        <v>187</v>
-      </c>
-      <c r="C243" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>3</v>
-      </c>
-      <c r="B244" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>72</v>
-      </c>
-      <c r="B245" t="s">
-        <v>71</v>
-      </c>
-      <c r="C245" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>55</v>
-      </c>
-      <c r="B246" t="s">
-        <v>56</v>
-      </c>
-      <c r="C246" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B247" t="s">
-        <v>135</v>
-      </c>
-      <c r="C247" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C248" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B249" t="s">
-        <v>114</v>
-      </c>
-      <c r="C249" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B250" t="s">
-        <v>200</v>
-      </c>
-      <c r="C250" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B251" t="s">
-        <v>130</v>
-      </c>
-      <c r="C251" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C252" t="s">
-        <v>432</v>
-      </c>
-      <c r="D252" t="str">
-        <f t="shared" ref="D252:D257" si="0">TRIM(SUBSTITUTE(B252," ",""))</f>
-        <v>pd.DataFrame(my_list,columns='A')</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C253" t="s">
-        <v>432</v>
-      </c>
-      <c r="D253" t="str">
+      <c r="C259" t="s">
+        <v>416</v>
+      </c>
+      <c r="D259" t="str">
         <f t="shared" si="0"/>
         <v>df.set_index('A')['B'].to_dict()</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C254" t="s">
-        <v>432</v>
-      </c>
-      <c r="D254" t="str">
+    <row r="260" spans="1:4">
+      <c r="A260" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C260" t="s">
+        <v>416</v>
+      </c>
+      <c r="D260" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].to_list()</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C255" t="s">
-        <v>432</v>
-      </c>
-      <c r="D255" t="str">
+    <row r="261" spans="1:4">
+      <c r="A261" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C261" t="s">
+        <v>416</v>
+      </c>
+      <c r="D261" t="str">
         <f t="shared" si="0"/>
         <v>df['A'].values</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C256" t="s">
-        <v>432</v>
-      </c>
-      <c r="D256" t="str">
+    <row r="262" spans="1:4">
+      <c r="A262" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C262" t="s">
+        <v>416</v>
+      </c>
+      <c r="D262" t="str">
         <f t="shared" si="0"/>
         <v>pd.DataFrame(my_array,columns='A')</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C257" t="s">
-        <v>432</v>
-      </c>
-      <c r="D257" t="str">
+    <row r="263" spans="1:4">
+      <c r="A263" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C263" t="s">
+        <v>416</v>
+      </c>
+      <c r="D263" t="str">
         <f t="shared" si="0"/>
         <v>pd.read_csv('file.csv',header=0).squeeze('columns')</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C258" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C259" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C260" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C261" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C262" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C263" t="s">
-        <v>432</v>
-      </c>
-    </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="C264" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>712</v>
+        <v>451</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C265" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C266" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="C267" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C268" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>488</v>
+        <v>726</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="C269" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B270" t="s">
-        <v>491</v>
+      <c r="A270" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="C270" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>492</v>
+        <v>677</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="C271" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>495</v>
+        <v>702</v>
       </c>
       <c r="C272" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="5" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>498</v>
+        <v>754</v>
+      </c>
+      <c r="C273" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="5" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>500</v>
+        <v>466</v>
+      </c>
+      <c r="C274" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="5" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>688</v>
+        <v>468</v>
+      </c>
+      <c r="C275" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>503</v>
+      <c r="A276" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B276" t="s">
+        <v>470</v>
+      </c>
+      <c r="C276" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>504</v>
+        <v>471</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C277" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="5" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>507</v>
+        <v>767</v>
+      </c>
+      <c r="C278" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="5" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>513</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C282" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>518</v>
+        <v>481</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="C284" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="5" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="5" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="5" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="5" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>491</v>
+      </c>
+      <c r="C288" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="5" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="5" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>496</v>
+      </c>
+      <c r="C290" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="5" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="5" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="5" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="5" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="5" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B295" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2">
-      <c r="A299" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:3">
       <c r="A300" s="5" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="5" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="5" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="5" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>550</v>
+        <v>725</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>552</v>
+        <v>513</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="5" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="5" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="5" t="s">
-        <v>557</v>
+        <v>777</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="5" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B310" s="6" t="s">
-        <v>562</v>
+        <v>520</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>564</v>
+        <v>521</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="5" t="s">
-        <v>565</v>
+        <v>523</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>566</v>
+        <v>524</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="5" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>588</v>
+        <v>525</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="5" t="s">
-        <v>692</v>
+        <v>527</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="5" t="s">
-        <v>591</v>
+        <v>529</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>592</v>
+        <v>530</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="5" t="s">
-        <v>593</v>
+        <v>531</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>594</v>
+        <v>532</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="5" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="5" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="5" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="5" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>689</v>
+        <v>559</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="5" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="5" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="5" t="s">
-        <v>611</v>
+        <v>565</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="5" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="5" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>696</v>
+        <v>572</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="5" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="5" t="s">
-        <v>616</v>
+        <v>574</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>617</v>
+        <v>575</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="5" t="s">
-        <v>618</v>
+        <v>576</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>619</v>
+        <v>577</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="5" t="s">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>697</v>
+        <v>578</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="5" t="s">
-        <v>701</v>
+        <v>579</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>698</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="5" t="s">
-        <v>702</v>
+        <v>582</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="5" t="s">
-        <v>703</v>
+        <v>583</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="5" t="s">
-        <v>704</v>
+        <v>585</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="5" t="s">
-        <v>705</v>
+        <v>587</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="5" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="5" t="s">
-        <v>707</v>
+        <v>666</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="5" t="s">
-        <v>708</v>
+        <v>667</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>626</v>
+        <v>664</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="5" t="s">
-        <v>709</v>
+        <v>668</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="5" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="5" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="5" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="5" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>681</v>
+        <v>593</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="5" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="5" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>641</v>
+        <v>595</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="5" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="5" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="5" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>644</v>
+        <v>599</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="5" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="5" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="5" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="5" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="5" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="5" t="s">
-        <v>653</v>
+        <v>605</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>654</v>
+        <v>611</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="5" t="s">
-        <v>685</v>
+        <v>606</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>655</v>
+        <v>612</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="5" t="s">
-        <v>656</v>
+        <v>613</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>657</v>
+        <v>724</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="5" t="s">
-        <v>658</v>
+        <v>614</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>659</v>
+        <v>615</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="5" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="5" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="5" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="5" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>695</v>
+        <v>622</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="5" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>668</v>
+        <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="5" t="s">
-        <v>669</v>
+        <v>625</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="5" t="s">
-        <v>693</v>
+        <v>629</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>694</v>
+        <v>630</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="5" t="s">
-        <v>716</v>
+        <v>627</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>717</v>
+        <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="5" t="s">
-        <v>718</v>
+        <v>631</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>719</v>
+        <v>632</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="5" t="s">
-        <v>720</v>
+        <v>633</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>143</v>
+        <v>776</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="5" t="s">
-        <v>721</v>
+        <v>634</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>722</v>
+        <v>635</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="5" t="s">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>723</v>
+        <v>637</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="5" t="s">
-        <v>724</v>
+        <v>659</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>725</v>
+        <v>660</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>728</v>
+        <v>681</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>730</v>
+        <v>683</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="5" t="s">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>732</v>
+        <v>138</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="5" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="5" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>736</v>
+        <v>688</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="5" t="s">
-        <v>737</v>
+        <v>689</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>738</v>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B396" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -6927,6 +7366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB7892B-4C9D-46E7-A0FA-DD9DE1A95B87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD1423B-A36F-4159-9CF6-6D339329AB8A}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1764" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{402BC5AF-20E3-4147-A5CC-DDE2190F5A98}"/>
+  <xr:revisionPtr revIDLastSave="1773" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9A7733-5E77-44CC-B111-1FE0F7D3F7E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="779">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -2298,9 +2298,6 @@
     <t>pd.read_pickle('file.pkl')</t>
   </si>
   <si>
-    <t>[print(x) for x in my_list]</t>
-  </si>
-  <si>
     <t>mylist.sort()</t>
   </si>
   <si>
@@ -2993,6 +2990,12 @@
   </si>
   <si>
     <t>to convert the index back into the column, done inplace</t>
+  </si>
+  <si>
+    <t>[print(x) for x in mylist]</t>
+  </si>
+  <si>
+    <t>np.random.randint(100,size=(5,))</t>
   </si>
 </sst>
 </file>
@@ -3403,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A309" sqref="A309"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3555,7 +3558,7 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C15" t="s">
         <v>420</v>
@@ -3566,7 +3569,7 @@
         <v>543</v>
       </c>
       <c r="B16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25">
@@ -3574,7 +3577,7 @@
         <v>544</v>
       </c>
       <c r="B17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3582,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C18" t="s">
         <v>420</v>
@@ -3747,12 +3750,12 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
@@ -3994,7 +3997,7 @@
         <v>224</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C59" t="s">
         <v>426</v>
@@ -4016,7 +4019,7 @@
         <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C61" t="s">
         <v>418</v>
@@ -4024,10 +4027,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B62" t="s">
         <v>739</v>
-      </c>
-      <c r="B62" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4145,7 +4148,7 @@
         <v>152</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C73" t="s">
         <v>424</v>
@@ -4530,7 +4533,7 @@
         <v>298</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C108" t="s">
         <v>418</v>
@@ -4541,7 +4544,7 @@
         <v>299</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C109" t="s">
         <v>418</v>
@@ -4560,18 +4563,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>748</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4587,7 +4590,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>248</v>
@@ -4598,10 +4601,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4763,7 +4766,7 @@
         <v>162</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C130" t="s">
         <v>416</v>
@@ -4774,7 +4777,7 @@
         <v>160</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C131" t="s">
         <v>416</v>
@@ -4785,7 +4788,7 @@
         <v>159</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C132" t="s">
         <v>416</v>
@@ -4796,7 +4799,7 @@
         <v>161</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C133" t="s">
         <v>416</v>
@@ -4807,7 +4810,7 @@
         <v>163</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C134" t="s">
         <v>416</v>
@@ -4928,7 +4931,7 @@
         <v>287</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C145" t="s">
         <v>416</v>
@@ -5016,7 +5019,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C153" t="s">
         <v>424</v>
@@ -5145,7 +5148,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B165" t="s">
         <v>141</v>
@@ -5156,18 +5159,18 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5227,7 +5230,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B173" t="s">
         <v>46</v>
@@ -5252,7 +5255,7 @@
         <v>285</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C175" t="s">
         <v>418</v>
@@ -5263,7 +5266,7 @@
         <v>286</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C176" t="s">
         <v>418</v>
@@ -5274,7 +5277,7 @@
         <v>249</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C177" t="s">
         <v>418</v>
@@ -5414,7 +5417,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>296</v>
@@ -5425,10 +5428,10 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5700,7 +5703,7 @@
         <v>438</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C216" t="s">
         <v>418</v>
@@ -5851,7 +5854,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B230" t="s">
         <v>181</v>
@@ -5862,7 +5865,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
@@ -6151,7 +6154,7 @@
         <v>439</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s">
         <v>416</v>
@@ -6163,7 +6166,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>39</v>
@@ -6301,7 +6304,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>459</v>
@@ -6323,7 +6326,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>462</v>
@@ -6337,7 +6340,7 @@
         <v>463</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C272" t="s">
         <v>418</v>
@@ -6348,7 +6351,7 @@
         <v>464</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C273" t="s">
         <v>424</v>
@@ -6392,7 +6395,7 @@
         <v>471</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C277" t="s">
         <v>418</v>
@@ -6403,7 +6406,7 @@
         <v>472</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C278" t="s">
         <v>418</v>
@@ -6430,7 +6433,7 @@
         <v>478</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6446,7 +6449,7 @@
         <v>481</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6516,7 +6519,7 @@
         <v>498</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -6532,7 +6535,7 @@
         <v>501</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -6548,7 +6551,7 @@
         <v>504</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -6556,7 +6559,7 @@
         <v>505</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -6564,7 +6567,7 @@
         <v>506</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6572,7 +6575,7 @@
         <v>507</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6580,7 +6583,7 @@
         <v>508</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6596,12 +6599,12 @@
         <v>511</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>412</v>
@@ -6609,15 +6612,15 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>512</v>
@@ -6628,7 +6631,7 @@
         <v>513</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6649,7 +6652,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>517</v>
@@ -6668,7 +6671,7 @@
         <v>520</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6745,7 +6748,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>559</v>
@@ -6796,7 +6799,7 @@
         <v>573</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -6836,7 +6839,7 @@
         <v>582</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -6865,303 +6868,303 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>589</v>
+        <v>777</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B359" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B361" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B362" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B363" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B364" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B365" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B367" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B368" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B369" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B370" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B371" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>138</v>
@@ -7169,194 +7172,194 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B373" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B375" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B376" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="B376" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B377" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B378" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="B378" s="6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B379" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B380" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B385" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B386" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B388" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B389" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B390" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B391" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B392" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>381</v>
+        <v>778</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B394" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="B394" s="6" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B396" t="s">
         <v>760</v>
-      </c>
-      <c r="B396" t="s">
-        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1773" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9A7733-5E77-44CC-B111-1FE0F7D3F7E4}"/>
+  <xr:revisionPtr revIDLastSave="2199" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7912A292-24B5-494D-9E62-FF20C0509C41}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="861">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -202,9 +202,6 @@
     <t>To change a column A to datetime</t>
   </si>
   <si>
-    <t>df['A'].to_datetime()</t>
-  </si>
-  <si>
     <t>Add the row total as a column A</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
     <t>to check if a word is decimal</t>
   </si>
   <si>
-    <t>word.isdecima()</t>
-  </si>
-  <si>
     <t>To check if the word has any special character</t>
   </si>
   <si>
@@ -871,9 +865,6 @@
     <t>Convert a string column to numeric if it contains any invalid input say a - or blank</t>
   </si>
   <si>
-    <t>df.to_numeric('A',errors='coerce')</t>
-  </si>
-  <si>
     <t>Convert all the strings to numeric if the df contains any invalid input say a- or blank</t>
   </si>
   <si>
@@ -1051,9 +1042,6 @@
     <t>Change the x-ticks rotation to 45 degrees</t>
   </si>
   <si>
-    <t>ax.xticks(rotation=45)</t>
-  </si>
-  <si>
     <t>sns.countplot(data=df,x='A')</t>
   </si>
   <si>
@@ -1384,9 +1372,6 @@
     <t>Convert an ndarray(my_array) to a df column A</t>
   </si>
   <si>
-    <t>pd.DataFrame(my_array,columns='A')</t>
-  </si>
-  <si>
     <t>Read a file called file.csv, read it as a series, assuming header is on the first line</t>
   </si>
   <si>
@@ -1643,9 +1628,6 @@
   </si>
   <si>
     <t>print a date 2023-01-01 without time</t>
-  </si>
-  <si>
-    <t>datetime.date(datetime(2023,01,01)))</t>
   </si>
   <si>
     <t>write the current date</t>
@@ -2241,13 +2223,7 @@
     <t>pd.Period('2023-01-01',freq='M')</t>
   </si>
   <si>
-    <t>pd.read_csv('file.csv',header=0).squeeze('columns')</t>
-  </si>
-  <si>
     <t>Get the count of how many values in a df are duplicated</t>
-  </si>
-  <si>
-    <t>df.duplicated().value_count()</t>
   </si>
   <si>
     <t>Get all the rows where the values are duplicated</t>
@@ -2983,9 +2959,6 @@
     <t>df.iloc[0,:]</t>
   </si>
   <si>
-    <t>pd.DataFrame(mylist,columns='A')</t>
-  </si>
-  <si>
     <t>df.loc[df['A']&gt;10,:]</t>
   </si>
   <si>
@@ -2996,13 +2969,540 @@
   </si>
   <si>
     <t>np.random.randint(100,size=(5,))</t>
+  </si>
+  <si>
+    <t>pandas.DatetimeIndex</t>
+  </si>
+  <si>
+    <t>df or series as the case may be</t>
+  </si>
+  <si>
+    <t>numpy.ndarray</t>
+  </si>
+  <si>
+    <t>None. Modifies in place</t>
+  </si>
+  <si>
+    <t>pandas.Timestamp</t>
+  </si>
+  <si>
+    <t>pandas.Dataframe</t>
+  </si>
+  <si>
+    <t>pandas.Series with datatype pandas.categorical</t>
+  </si>
+  <si>
+    <t>pandas.series</t>
+  </si>
+  <si>
+    <t>matplotlib.text.Text</t>
+  </si>
+  <si>
+    <r>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>matplotlib.lines.Line2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> objects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tuple, specifically </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(matplotlib.figure.Figure, matplotlib.axes._subplots.AxesSubplot)</t>
+    </r>
+  </si>
+  <si>
+    <t>matplotlib.legend.Legend</t>
+  </si>
+  <si>
+    <t>pandas.Period</t>
+  </si>
+  <si>
+    <t>pandas.Timedelta</t>
+  </si>
+  <si>
+    <t>str(string)</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>pandas.Series</t>
+  </si>
+  <si>
+    <t>int','float' etc</t>
+  </si>
+  <si>
+    <t>matplotlib.figure.figure</t>
+  </si>
+  <si>
+    <t>pandas.Series ( with Boolean Values)</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>word.isdigit()</t>
+  </si>
+  <si>
+    <t>pd.to_datetime(df['A'])</t>
+  </si>
+  <si>
+    <t>pandas Series with pandas.Timestamp values</t>
+  </si>
+  <si>
+    <t>pandas.Index</t>
+  </si>
+  <si>
+    <t>matplotlib.axes._subplots.AxesSubplot</t>
+  </si>
+  <si>
+    <t>str'</t>
+  </si>
+  <si>
+    <t>tuple</t>
+  </si>
+  <si>
+    <t>matplotlib.patches.Polygon</t>
+  </si>
+  <si>
+    <t>list of float</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>int or float</t>
+  </si>
+  <si>
+    <t>matplotlib.lines.Line2D</t>
+  </si>
+  <si>
+    <t>pandas.Series of list objects</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>pandas.core.groupby.generic.DataFrameGroupBy</t>
+  </si>
+  <si>
+    <t>if date is pandas.Timestamp, the output is int</t>
+  </si>
+  <si>
+    <t>pandas_profiling.ProfileReport</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>pandas.Series of Boolean values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A numpy dtype (like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy.int64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>numpy.float64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>seaborn.axisgrid.FacetGrid</t>
+  </si>
+  <si>
+    <t>seaborn.axisgrid.PairGrid</t>
+  </si>
+  <si>
+    <t>matplotlib.figure.Figure</t>
+  </si>
+  <si>
+    <r>
+      <t>(n, bins, patches)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, where </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is an array of values, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is an array of bin edges, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>patches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a list of Patch objects</t>
+    </r>
+  </si>
+  <si>
+    <t>matplotlib.figure.Figure, numpy.ndarray</t>
+  </si>
+  <si>
+    <t>matplotlib.container.BarContainer</t>
+  </si>
+  <si>
+    <t>pd.to_numeric(df['A'],errors='coerce')</t>
+  </si>
+  <si>
+    <t>depends on provided dtype argument</t>
+  </si>
+  <si>
+    <t>ax.set_xticks(rotation=45)</t>
+  </si>
+  <si>
+    <t>list of 'str'</t>
+  </si>
+  <si>
+    <r>
+      <t>pandas.Series</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (although the exact output depends on the function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and the DataFrame's data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the exact output depends on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and the data)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exact output depends on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and column 'A'</t>
+    </r>
+  </si>
+  <si>
+    <t>matplolib.text.Text</t>
+  </si>
+  <si>
+    <t>matplot.legend.Legend</t>
+  </si>
+  <si>
+    <t>NoneType( Applies Gridlines to the plot)</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(mylist,columns=['A'])</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(my_array,columns=['A'])</t>
+  </si>
+  <si>
+    <t>pd.read_csv('file.csv',header=0,squeeze=True)</t>
+  </si>
+  <si>
+    <t>This returns either a pandas.Series ( if one column) or pandas.DataFrame(if more)</t>
+  </si>
+  <si>
+    <t>tuple of two pandas.DataFrame objects</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sets the frequency of the DataFrame's index but returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NoneType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>list of tuples</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This assigns a value to a DataFrame but returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NoneType</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sets a pandas display option but returns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NoneType</t>
+    </r>
+  </si>
+  <si>
+    <t>None Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>Conditional Statement</t>
+  </si>
+  <si>
+    <t>pandas.Index of strings</t>
+  </si>
+  <si>
+    <t>pandas.Dataframe of boolean values</t>
+  </si>
+  <si>
+    <t>list of indices</t>
+  </si>
+  <si>
+    <t>datetime.date(datetime(2023,1,1)))</t>
+  </si>
+  <si>
+    <t>datetime.date</t>
+  </si>
+  <si>
+    <t>pandas.DataFrame</t>
+  </si>
+  <si>
+    <t>df.duplicated().value_counts()</t>
+  </si>
+  <si>
+    <t>list of things</t>
+  </si>
+  <si>
+    <t>tuple of two strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas.Series with datetime64[ns] </t>
+  </si>
+  <si>
+    <t>pandas.Series of strings</t>
+  </si>
+  <si>
+    <t>pandas Series or pandas DataFrame</t>
+  </si>
+  <si>
+    <t>list of NoneType values</t>
+  </si>
+  <si>
+    <t>datatype depends on the contents</t>
+  </si>
+  <si>
+    <t>dict_keys</t>
+  </si>
+  <si>
+    <t>dict_values</t>
+  </si>
+  <si>
+    <t>NonType</t>
+  </si>
+  <si>
+    <t>dict_items</t>
+  </si>
+  <si>
+    <t>NoneType</t>
+  </si>
+  <si>
+    <t>list of Strings</t>
+  </si>
+  <si>
+    <t>Datatype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3077,6 +3577,30 @@
       <color rgb="FF797129"/>
       <name val="Var(--pst-font-family-monospace"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111827"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3098,7 +3622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3120,6 +3644,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3406,18 +3935,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B394" sqref="B394"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="78.140625" customWidth="1"/>
-    <col min="2" max="2" width="87.28515625" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1" outlineLevel="2"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3425,497 +3955,638 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>423</v>
+      </c>
+      <c r="D1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
+      <c r="A6" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
+      <c r="A7" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
+      <c r="A13" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
+      <c r="A14" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>728</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25">
+      <c r="A16" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25">
+      <c r="A17" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25">
+      <c r="A20" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25">
+      <c r="A21" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25">
+      <c r="A23" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25">
+      <c r="A24" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25">
+      <c r="A26" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25">
+      <c r="A27" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.25">
+      <c r="A29" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17.25">
+      <c r="A30" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.25">
+      <c r="A32" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17.25">
+      <c r="A34" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25">
+      <c r="A35" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>630</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" t="s">
+        <v>414</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25">
+      <c r="A39" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25">
+      <c r="A40" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25">
+      <c r="A42" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25">
-      <c r="A7" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>736</v>
-      </c>
-      <c r="C15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25">
-      <c r="A16" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="B16" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
-      <c r="A17" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="B17" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>737</v>
-      </c>
-      <c r="C18" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25">
-      <c r="A23" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>637</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C38" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25">
-      <c r="A39" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C39" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25">
-      <c r="A40" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C41" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25">
-      <c r="A42" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C42" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75">
-      <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
       <c r="B48" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>416</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C49" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="C50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -3923,161 +4594,206 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C53" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="B54" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>422</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C56" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" t="s">
+        <v>422</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C57" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="B59" s="8" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
         <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
       </c>
       <c r="C60" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="13" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C61" t="s">
+        <v>414</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B62" t="s">
+        <v>731</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" t="s">
+        <v>414</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B62" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D65" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C65" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C66" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -4085,10 +4801,13 @@
         <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -4096,98 +4815,125 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C69" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="B71" s="6" t="s">
-        <v>212</v>
+        <v>791</v>
       </c>
       <c r="C71" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>792</v>
       </c>
       <c r="C72" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C73" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>420</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
+        <v>415</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C75" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C76" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4195,10 +4941,13 @@
         <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -4206,54 +4955,69 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
+        <v>414</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>412</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C79" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="D80" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C80" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="B81" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -4261,21 +5025,27 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -4283,175 +5053,223 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
         <v>121</v>
       </c>
-      <c r="B88" t="s">
-        <v>122</v>
-      </c>
       <c r="C88" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" t="s">
         <v>119</v>
       </c>
-      <c r="B90" t="s">
-        <v>120</v>
-      </c>
       <c r="C90" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
         <v>116</v>
       </c>
-      <c r="B91" t="s">
-        <v>117</v>
-      </c>
       <c r="C91" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
         <v>114</v>
       </c>
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
       <c r="C92" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" t="s">
         <v>76</v>
       </c>
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
       <c r="C93" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="C95" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="C96" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>412</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C97" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
+      <c r="C98" t="s">
+        <v>412</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="C99" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
         <v>67</v>
       </c>
-      <c r="B100" t="s">
-        <v>68</v>
-      </c>
       <c r="C100" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -4459,10 +5277,13 @@
         <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -4470,10 +5291,13 @@
         <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>38</v>
       </c>
@@ -4481,441 +5305,564 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" t="s">
+        <v>412</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C104" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="C105" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C106" t="s">
+        <v>420</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C107" t="s">
+        <v>420</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C108" t="s">
         <v>414</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C106" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="C108" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C109" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>740</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>742</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C114" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>641</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" t="s">
+        <v>413</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>413</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="C118" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C120" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C122" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>413</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>413</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
         <v>142</v>
       </c>
-      <c r="B125" t="s">
-        <v>143</v>
-      </c>
       <c r="C125" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>413</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" t="s">
+        <v>414</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C126" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="C127" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" t="s">
+        <v>412</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B129" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" t="s">
+        <v>412</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C130" t="s">
+        <v>412</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C132" t="s">
+        <v>412</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C133" t="s">
+        <v>412</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C134" t="s">
+        <v>412</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>415</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" t="s">
+        <v>415</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" t="s">
+        <v>422</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C129" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="C130" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C131" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="C132" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C133" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C134" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>65</v>
-      </c>
-      <c r="B135" t="s">
-        <v>66</v>
-      </c>
-      <c r="C135" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>63</v>
-      </c>
-      <c r="B136" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="C140" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="C141" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C142" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -4923,65 +5870,83 @@
         <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C145" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" t="s">
+        <v>412</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C146" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="5" t="s">
+      <c r="B147" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="C147" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C147" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="5" t="s">
+      <c r="B148" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C148" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C148" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="B149" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C149" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -4989,257 +5954,329 @@
         <v>34</v>
       </c>
       <c r="C150" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C151" t="s">
+        <v>420</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B152" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C153" t="s">
+        <v>420</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C154" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C155" t="s">
+        <v>420</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C156" t="s">
+        <v>420</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C157" t="s">
+        <v>420</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C158" t="s">
+        <v>422</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C159" t="s">
+        <v>422</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>422</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" t="s">
+        <v>422</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C162" t="s">
+        <v>422</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C163" t="s">
+        <v>422</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164" t="s">
+        <v>422</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B165" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" t="s">
+        <v>414</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C152" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C153" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C154" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C155" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C156" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C157" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C158" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C159" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C160" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C161" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C162" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C163" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C164" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B165" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="B168" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C168" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" t="s">
         <v>137</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>414</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" t="s">
+        <v>414</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C169" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C170" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1" t="s">
+      <c r="B171" t="s">
         <v>139</v>
       </c>
-      <c r="B171" t="s">
-        <v>140</v>
-      </c>
       <c r="C171" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C172" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B173" t="s">
         <v>46</v>
       </c>
       <c r="C173" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17.25">
       <c r="A174" t="s">
         <v>44</v>
       </c>
@@ -5247,43 +6284,55 @@
         <v>45</v>
       </c>
       <c r="C174" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C175" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C176" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C177" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -5291,10 +6340,13 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5302,10 +6354,13 @@
         <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -5313,10 +6368,13 @@
         <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -5324,10 +6382,13 @@
         <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -5335,612 +6396,780 @@
         <v>14</v>
       </c>
       <c r="C182" t="s">
+        <v>414</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="38.25">
+      <c r="A183" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="38.25">
-      <c r="A183" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C183" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="38.25">
+      <c r="D183" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="38.25">
       <c r="A184" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" t="s">
+        <v>418</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" t="s">
+        <v>418</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C186" t="s">
+        <v>418</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C187" t="s">
+        <v>418</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C184" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C185" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C186" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C187" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="C188" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C189" t="s">
+        <v>414</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C190" t="s">
+        <v>414</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>58</v>
+      </c>
+      <c r="B192" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" t="s">
+        <v>415</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>60</v>
+      </c>
+      <c r="B193" t="s">
+        <v>61</v>
+      </c>
+      <c r="C193" t="s">
+        <v>415</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" t="s">
+        <v>416</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="D195" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C196" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>59</v>
-      </c>
-      <c r="B192" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>61</v>
-      </c>
-      <c r="B193" t="s">
-        <v>62</v>
-      </c>
-      <c r="C193" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C194" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="5" t="s">
+      <c r="D196" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C197" t="s">
+        <v>418</v>
+      </c>
+      <c r="D197" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" t="s">
+        <v>418</v>
+      </c>
+      <c r="D198" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" t="s">
+        <v>418</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C200" t="s">
+        <v>418</v>
+      </c>
+      <c r="D200" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C201" t="s">
+        <v>418</v>
+      </c>
+      <c r="D201" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C202" t="s">
+        <v>418</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C195" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C196" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="5" t="s">
+      <c r="B203" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" t="s">
+        <v>418</v>
+      </c>
+      <c r="D203" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C197" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C198" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C199" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C200" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C201" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
+      <c r="B204" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C202" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C203" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="C204" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D204" s="14" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C205" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D205" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C206" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D206" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C207" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C208" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D208" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C209" t="s">
+        <v>414</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C210" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C210" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C211" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="17.25">
       <c r="A212" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C212" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C213" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D213" s="14" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C214" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C215" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C217" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C218" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C219" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C220" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C222" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B223" t="s">
         <v>134</v>
       </c>
-      <c r="B223" t="s">
-        <v>135</v>
-      </c>
       <c r="C223" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D223" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B224" t="s">
         <v>112</v>
       </c>
-      <c r="B224" t="s">
-        <v>113</v>
-      </c>
       <c r="C224" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D224" s="14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C225" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C226" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
+        <v>248</v>
+      </c>
+      <c r="B227" t="s">
+        <v>72</v>
+      </c>
+      <c r="C227" t="s">
+        <v>415</v>
+      </c>
+      <c r="D227" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
         <v>250</v>
       </c>
-      <c r="B227" t="s">
-        <v>73</v>
-      </c>
-      <c r="C227" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>252</v>
-      </c>
       <c r="B228" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C228" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B230" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C230" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B232" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C232" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="C233" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C234" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D234" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C235" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C236" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>276</v>
+        <v>818</v>
       </c>
       <c r="C237" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -5948,10 +7177,13 @@
         <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -5959,109 +7191,139 @@
         <v>5</v>
       </c>
       <c r="C239" t="s">
+        <v>415</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C240" t="s">
+        <v>412</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C241" t="s">
+        <v>422</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C242" t="s">
+        <v>422</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C243" t="s">
+        <v>422</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C244" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C240" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C241" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C242" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C243" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C244" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C245" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B246" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="C246" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="17.25">
       <c r="A247" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B247" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C247" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D247" s="15" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="17.25">
       <c r="A248" t="s">
+        <v>175</v>
+      </c>
+      <c r="B248" t="s">
         <v>176</v>
       </c>
-      <c r="B248" t="s">
-        <v>177</v>
-      </c>
       <c r="C248" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="17.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
@@ -6069,1297 +7331,1717 @@
         <v>22</v>
       </c>
       <c r="C249" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B250" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C250" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D250" s="14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" t="s">
         <v>54</v>
       </c>
-      <c r="B251" t="s">
-        <v>55</v>
-      </c>
       <c r="C251" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D251" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B252" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C252" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D252" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C253" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D253" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B254" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C254" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D254" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B255" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C255" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D255" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B256" t="s">
         <v>125</v>
       </c>
-      <c r="B256" t="s">
-        <v>126</v>
-      </c>
       <c r="C256" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="D256" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
       <c r="C257" t="s">
-        <v>416</v>
-      </c>
-      <c r="D257" t="str">
-        <f t="shared" ref="D257:D263" si="0">TRIM(SUBSTITUTE(B257," ",""))</f>
-        <v>pd.DataFrame(mylist,columns='A')</v>
+        <v>412</v>
+      </c>
+      <c r="D257" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D258" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C259" t="s">
-        <v>416</v>
-      </c>
-      <c r="D259" t="str">
-        <f t="shared" si="0"/>
-        <v>df.set_index('A')['B'].to_dict()</v>
+        <v>412</v>
+      </c>
+      <c r="D259" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C260" t="s">
-        <v>416</v>
-      </c>
-      <c r="D260" t="str">
-        <f t="shared" si="0"/>
-        <v>df['A'].to_list()</v>
+        <v>412</v>
+      </c>
+      <c r="D260" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C261" t="s">
-        <v>416</v>
-      </c>
-      <c r="D261" t="str">
-        <f t="shared" si="0"/>
-        <v>df['A'].values</v>
+        <v>412</v>
+      </c>
+      <c r="D261" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>447</v>
+        <v>829</v>
       </c>
       <c r="C262" t="s">
-        <v>416</v>
-      </c>
-      <c r="D262" t="str">
-        <f t="shared" si="0"/>
-        <v>pd.DataFrame(my_array,columns='A')</v>
+        <v>412</v>
+      </c>
+      <c r="D262" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="C263" t="s">
-        <v>416</v>
-      </c>
-      <c r="D263" t="str">
-        <f t="shared" si="0"/>
-        <v>pd.read_csv('file.csv',header=0).squeeze('columns')</v>
+        <v>412</v>
+      </c>
+      <c r="D263" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C264" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D264" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C265" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D265" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C266" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D266" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C267" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D267" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C268" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D268" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C269" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D269" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C270" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D270" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C271" t="s">
-        <v>416</v>
+        <v>412</v>
+      </c>
+      <c r="D271" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C272" t="s">
+        <v>414</v>
+      </c>
+      <c r="D272" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C273" t="s">
+        <v>420</v>
+      </c>
+      <c r="D273" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C274" t="s">
+        <v>412</v>
+      </c>
+      <c r="D274" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="C275" t="s">
+        <v>414</v>
+      </c>
+      <c r="D275" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B276" t="s">
+        <v>465</v>
+      </c>
+      <c r="C276" t="s">
+        <v>414</v>
+      </c>
+      <c r="D276" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C277" t="s">
+        <v>414</v>
+      </c>
+      <c r="D277" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C278" t="s">
+        <v>414</v>
+      </c>
+      <c r="D278" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17.25">
+      <c r="A279" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D280" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D281" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D282" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="17.25">
+      <c r="A283" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D284" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="17.25">
+      <c r="A285" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D286" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="17.25">
+      <c r="A287" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C288" t="s">
+        <v>487</v>
+      </c>
+      <c r="D288" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D289" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C290" t="s">
+        <v>492</v>
+      </c>
+      <c r="D290" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D291" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D292" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D293" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D294" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D295" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="D296" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D297" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D298" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D299" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D300" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D301" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D302" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D303" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D304" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D305" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D306" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D307" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D308" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D309" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D310" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D311" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D312" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D313" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D314" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D315" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D316" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D317" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D318" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D319" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D320" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D321" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D322" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D323" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D324" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D325" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="D326" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D327" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D328" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D329" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D330" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D331" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D332" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D333" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D334" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D335" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D336" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D337" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D338" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D339" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="D340" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D341" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D342" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D343" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D344" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D345" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D346" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D347" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D348" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D349" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D350" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D351" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="D352" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D353" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D354" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D355" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D356" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D357" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D358" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D359" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D360" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D361" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D362" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D363" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D364" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D365" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="D366" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D367" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D368" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D369" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D370" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D371" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D372" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D373" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D374" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D375" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="D376" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D377" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D378" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D379" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D380" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D381" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D382" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D383" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="C272" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="C273" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C274" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C275" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B276" t="s">
-        <v>470</v>
-      </c>
-      <c r="C276" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="C277" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="C278" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="C288" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C290" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="5" t="s">
+      <c r="B384" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D384" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D385" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="D386" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D387" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B304" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2">
-      <c r="A306" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2">
-      <c r="A312" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B314" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="B315" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B322" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B323" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B324" s="6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B330" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B334" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
-      <c r="A336" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="B351" s="6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B354" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="B362" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="B363" s="6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="B370" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="B371" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B372" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374" s="5" t="s">
+      <c r="B388" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="D388" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D389" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D390" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D391" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D392" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B393" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B374" s="6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="B375" s="6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B376" s="8" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B378" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B381" s="6" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="B383" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
-      <c r="A390" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2">
-      <c r="A391" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2">
-      <c r="A392" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
-      <c r="A393" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+      <c r="D393" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2">
+        <v>748</v>
+      </c>
+      <c r="D394" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <v>749</v>
+      </c>
+      <c r="D395" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B396" t="s">
-        <v>760</v>
+        <v>752</v>
+      </c>
+      <c r="D396" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,16 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2354" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188EAFF0-4D05-42B8-AB53-98316085A37D}"/>
+  <xr:revisionPtr revIDLastSave="2445" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7127E444-9C01-4A0F-A8D2-7E3E7C4E8D4C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$398</definedName>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="916">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -66,9 +62,6 @@
     <t>df.count()</t>
   </si>
   <si>
-    <t>df.value_counts()</t>
-  </si>
-  <si>
     <t>Drops the rows which contain null values</t>
   </si>
   <si>
@@ -255,12 +248,6 @@
     <t>Aggregate a sum on col B of the groupby object on A</t>
   </si>
   <si>
-    <t>df.value_counts(normalize=True)</t>
-  </si>
-  <si>
-    <t>df.value_counts(ascending=True)</t>
-  </si>
-  <si>
     <t>You are given these bins =[0,25,50,75,100], divide a column 'A' into these bins</t>
   </si>
   <si>
@@ -459,9 +446,6 @@
     <t>df['A'].unique()</t>
   </si>
   <si>
-    <t>any(df['A'].duplicated())</t>
-  </si>
-  <si>
     <t>How to read an xlsb file</t>
   </si>
   <si>
@@ -579,9 +563,6 @@
     <t>Randomly selects 10 values from a df</t>
   </si>
   <si>
-    <t>df.count(axis=0)</t>
-  </si>
-  <si>
     <t>df.columns=['D','E','F']</t>
   </si>
   <si>
@@ -753,15 +734,6 @@
     <t>f"{pi:.2%}"</t>
   </si>
   <si>
-    <t>How to make a df wide to long, you don’t' want to change column A, call changed column as B and value as C</t>
-  </si>
-  <si>
-    <t>pd.melt(df,id_vars='A',var_name='B',value_name='C')</t>
-  </si>
-  <si>
-    <t>How to make a df wide to long, you don’t' want to change column A and B, call changed column as C and value as D</t>
-  </si>
-  <si>
     <t>pd.melt(df,id_vars=['A','B'],var_name='C',value_name='D')</t>
   </si>
   <si>
@@ -1008,15 +980,6 @@
     <t>df['A'].value_counts(dropna=False)</t>
   </si>
   <si>
-    <t>df.nsmallest(5,'A')</t>
-  </si>
-  <si>
-    <t>df.nlargest(5,'A')</t>
-  </si>
-  <si>
-    <t>Take out the rows from a df which are between 4000 to 10000</t>
-  </si>
-  <si>
     <t>set the x-ticks to the values represented by variable values = [0,25,50,75,100]</t>
   </si>
   <si>
@@ -1452,9 +1415,6 @@
     <t>Select the rows where values in column A is less than 2 and in B is more than 3</t>
   </si>
   <si>
-    <t>df[(df['A']&lt;2)&amp;(df['B']&gt;3)]</t>
-  </si>
-  <si>
     <t>Change the value at row 'r' and column A to 11.5</t>
   </si>
   <si>
@@ -1521,9 +1481,6 @@
     <t>df.columns.get_loc('A')</t>
   </si>
   <si>
-    <t>to get column index from column name A of a given DataFrame.</t>
-  </si>
-  <si>
     <t>Select all Column except one column A</t>
   </si>
   <si>
@@ -1612,9 +1569,6 @@
   </si>
   <si>
     <t>write the current date</t>
-  </si>
-  <si>
-    <t>datetime.now().date()</t>
   </si>
   <si>
     <r>
@@ -2387,12 +2341,6 @@
     <t>Apply a filter on column A  so that only those rows are fetched where values are greater than 10 using loc</t>
   </si>
   <si>
-    <t>df.loc[df['A']&gt;a,'B']</t>
-  </si>
-  <si>
-    <t>df.iloc[(df['A']&gt;a).values]</t>
-  </si>
-  <si>
     <t>You are given these bins =[0,25,50,75,100], divide a column 'A' into these bins and get the frequency count of each bin</t>
   </si>
   <si>
@@ -2459,9 +2407,6 @@
     <t>How to change this to concat: df1.append(df2, ignore_index=True)</t>
   </si>
   <si>
-    <t>pd.concat([df1, df2], ignore_index=True)</t>
-  </si>
-  <si>
     <t>pd.read_excel('file.xlsx',sheet_name='Sheet1',usecols=['A','B'])</t>
   </si>
   <si>
@@ -2651,9 +2596,6 @@
     <t>myarray.tolist()</t>
   </si>
   <si>
-    <t>if 'b' in mydict</t>
-  </si>
-  <si>
     <t>Check if the two dataframes (df1 and df2) are unequal</t>
   </si>
   <si>
@@ -2690,12 +2632,6 @@
     <t>df['A'].idxmax()</t>
   </si>
   <si>
-    <t>df.shift(periods=n)</t>
-  </si>
-  <si>
-    <t>df.shift(periods=-n)</t>
-  </si>
-  <si>
     <t>To get the percent change from the nth value of a column in a timerseries df</t>
   </si>
   <si>
@@ -2750,139 +2686,6 @@
     <t>np.random.randint(1,5,100)</t>
   </si>
   <si>
-    <r>
-      <t>np</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>random</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>randint(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF797129"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF797129"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF797129"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF797129"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF545454"/>
-        <rFont val="Var(--pst-font-family-monospace"/>
-      </rPr>
-      <t>])</t>
-    </r>
-  </si>
-  <si>
     <t>Generate an array of 3 numbers in which all numbers are above 1 and the three numbers are below 3,5,10 respectively</t>
   </si>
   <si>
@@ -2898,9 +2701,6 @@
     <t>df.loc[n-1:]</t>
   </si>
   <si>
-    <t>df.loc[0:]</t>
-  </si>
-  <si>
     <t>df.loc[[0,99,999],:]</t>
   </si>
   <si>
@@ -2941,9 +2741,6 @@
   </si>
   <si>
     <t>np.random.randint(100,size=(5,))</t>
-  </si>
-  <si>
-    <t>df or series as the case may be</t>
   </si>
   <si>
     <t>numpy.ndarray</t>
@@ -3491,15 +3288,9 @@
     <t>Replace all the occurance of 'a' in a column 'A' by 'b', in place.Similar to ctrl+h</t>
   </si>
   <si>
-    <t>df['A'].replace(to_replace='a',value='b',inplace=True)</t>
-  </si>
-  <si>
     <t>Replace all the occurance of integer'a' in a column 'A' by 'b', in place.Similar to ctrl+h</t>
   </si>
   <si>
-    <t>df['A'].replace(to_replace=int('a'),value='b',inplace=True)</t>
-  </si>
-  <si>
     <t>df['A'].value_counts(ascending=True)</t>
   </si>
   <si>
@@ -3528,9 +3319,6 @@
   </si>
   <si>
     <t>Find the number(frequency distribution) of unique combination of two columns A and B in a df</t>
-  </si>
-  <si>
-    <t>df.groupby(['A', 'B']).size()</t>
   </si>
   <si>
     <t>Apply a filter on column A  so that only those rows of column B are fetched where values are greater than 'a' using loc</t>
@@ -3693,12 +3481,159 @@
   <si>
     <t>Given df['A']=['X','Y','X','Y'],use dictionary to divide into two different groups Group1(rows with 'X') and Group2 (rows with 'Y')</t>
   </si>
+  <si>
+    <t>df.groupby(['A'],group_keys=True).apply(lambda x:x)</t>
+  </si>
+  <si>
+    <t>Group a df by a column 'A' keeping all columns the same</t>
+  </si>
+  <si>
+    <t>df['A'].duplicated().any()</t>
+  </si>
+  <si>
+    <t>pd.concat([df1, df2],ignore_index=True)</t>
+  </si>
+  <si>
+    <t>Create a series with the list mylist= [1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>pd.Series(mylist)</t>
+  </si>
+  <si>
+    <t>Create a list with the series s</t>
+  </si>
+  <si>
+    <t>s.to_list()</t>
+  </si>
+  <si>
+    <t>pd.Series(d1)</t>
+  </si>
+  <si>
+    <t>Convert a numpy array arr to a series</t>
+  </si>
+  <si>
+    <t>pd.Series(arr)</t>
+  </si>
+  <si>
+    <t>Convert a dictionary d1={'a':1,'b':2,'c':3} to a series</t>
+  </si>
+  <si>
+    <t>convert a series s to an array</t>
+  </si>
+  <si>
+    <t>s.values</t>
+  </si>
+  <si>
+    <t>Given a series s find  all values or s which are less than n</t>
+  </si>
+  <si>
+    <t>s[s&lt;n]</t>
+  </si>
+  <si>
+    <t>Given index of df as [1,2,3] change it to [1,3,2]</t>
+  </si>
+  <si>
+    <t>df.reindex([1,3,2])</t>
+  </si>
+  <si>
+    <t>Given columns of as [1,2,3], change it to [1,3,2], use reindex method</t>
+  </si>
+  <si>
+    <t>df.reindex([1,3,2],axis=1)</t>
+  </si>
+  <si>
+    <t>s1[~s1.isin(s2)]</t>
+  </si>
+  <si>
+    <t>Get the items in series s1 not present in another series s2</t>
+  </si>
+  <si>
+    <t>Get the 25 percentile in a series s</t>
+  </si>
+  <si>
+    <t>s.quantile(0.25)</t>
+  </si>
+  <si>
+    <t>replace  the value of a column by 10 wherever it is greater than 10 , else same</t>
+  </si>
+  <si>
+    <t>df['A'].where(df['A']&lt;10,10)</t>
+  </si>
+  <si>
+    <t>if 'b' in mydict:</t>
+  </si>
+  <si>
+    <t>df.count(axis=1)</t>
+  </si>
+  <si>
+    <t>to get column index(location or position) of column name A of a given DataFrame.</t>
+  </si>
+  <si>
+    <t>to get row position or location of a row index 'Ra' of a given DataFrame</t>
+  </si>
+  <si>
+    <t>df.index.get_loc('Ra')</t>
+  </si>
+  <si>
+    <t>print a dataframe without trunctation of rows ( large dataframe)</t>
+  </si>
+  <si>
+    <t>df.groupby(['A','B']).size()</t>
+  </si>
+  <si>
+    <t>random.sample(string.ascii_uppercase, k=9)</t>
+  </si>
+  <si>
+    <t>produce a series of 9 uppercase letters ( the letters can repeat)</t>
+  </si>
+  <si>
+    <t>random.choices(string.ascii_uppercase, k=9)</t>
+  </si>
+  <si>
+    <t>produce a series of 9 distinct uppercase letters ( The letters cannot repeat)</t>
+  </si>
+  <si>
+    <t>df['A'].replace('a','b',inplace=True)</t>
+  </si>
+  <si>
+    <t>df['A'].replace(int('a'),'b',inplace=True)</t>
+  </si>
+  <si>
+    <t>pd.Timestamp.now().date()</t>
+  </si>
+  <si>
+    <t>Take out the rows from a df if the column 'A' values  are between 4000 to 10000</t>
+  </si>
+  <si>
+    <t>df or series as the case may be. "Shift gears by 'n' periods in the DataFrame car!"</t>
+  </si>
+  <si>
+    <t>pandas.Series with datatype pandas.categorical. Cut the apple (A) into designated bins.</t>
+  </si>
+  <si>
+    <t>pandas.series.</t>
+  </si>
+  <si>
+    <t>print(df.to_string())</t>
+  </si>
+  <si>
+    <t>How to make a df wide to long, you don’t' want to change column A and B, melt all rest of columns as a single column called 'C' and call the columns of corresponding values as D</t>
+  </si>
+  <si>
+    <t>df['A'].nlargest(5)</t>
+  </si>
+  <si>
+    <t>df['A'].nsmallest(5)</t>
+  </si>
+  <si>
+    <t>df.shift(n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3752,11 +3687,6 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Var(--pst-font-family-monospace"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3831,13 +3761,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4123,1625 +4053,1625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="78.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1" outlineLevel="2"/>
+    <col min="2" max="2" width="62" customWidth="1" outlineLevel="2"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>719</v>
+        <v>915</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>719</v>
+        <v>915</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>915</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>720</v>
+        <v>915</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>765</v>
+        <v>909</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>766</v>
+        <v>910</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="9" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C42" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="C47" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C48" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C49" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C50" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
-        <v>30</v>
-      </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C53" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C56" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C59" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
         <v>56</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
       </c>
       <c r="C60" t="e">
         <v>#N/A</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B62" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C65" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
       <c r="C67" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="B68" t="s">
-        <v>48</v>
-      </c>
       <c r="C68" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="C72" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>323</v>
+        <v>907</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
         <v>17</v>
       </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
       <c r="C77" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
         <v>15</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
       <c r="C78" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C82" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
         <v>27</v>
       </c>
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
       <c r="C83" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
         <v>31</v>
       </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C94" t="e">
         <v>#N/A</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
         <v>66</v>
       </c>
-      <c r="B100" t="s">
-        <v>67</v>
-      </c>
       <c r="C100" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B102" t="s">
         <v>42</v>
       </c>
-      <c r="B102" t="s">
-        <v>43</v>
-      </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
         <v>38</v>
       </c>
-      <c r="B103" t="s">
-        <v>39</v>
-      </c>
       <c r="C103" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C106" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="C108" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="C109" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C114" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C116" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C117" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5749,13 +5679,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5763,503 +5693,503 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C125" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>236</v>
+        <v>912</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C126" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C128" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>155</v>
+        <v>723</v>
       </c>
       <c r="C129" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C130" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>755</v>
+        <v>855</v>
       </c>
       <c r="C132" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>881</v>
+        <v>724</v>
       </c>
       <c r="C133" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>746</v>
+      <c r="A134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>64</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>764</v>
+        <v>398</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>62</v>
-      </c>
-      <c r="B136" t="s">
-        <v>63</v>
+      <c r="A136" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>790</v>
+        <v>405</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>194</v>
+      <c r="A137" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" t="s">
+        <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>79</v>
-      </c>
-      <c r="B138" t="s">
-        <v>80</v>
+      <c r="A138" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>791</v>
+        <v>398</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="C139" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>792</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C140" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>391</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>189</v>
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>793</v>
+        <v>397</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>51</v>
-      </c>
-      <c r="B144" t="s">
-        <v>37</v>
+      <c r="A144" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="C144" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
-        <v>278</v>
+        <v>157</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>701</v>
+        <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>390</v>
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>33</v>
-      </c>
-      <c r="B150" t="s">
-        <v>34</v>
+      <c r="A150" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C150" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C151" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>370</v>
+        <v>722</v>
       </c>
       <c r="C152" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>794</v>
+        <v>738</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>743</v>
+        <v>361</v>
       </c>
       <c r="C153" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C154" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C155" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="5" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C157" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6267,1312 +6197,1312 @@
         <v>226</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C160" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C161" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="C162" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>232</v>
+      <c r="A164" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B164" t="s">
+        <v>869</v>
       </c>
       <c r="C164" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>793</v>
+        <v>752</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B165" t="s">
-        <v>138</v>
-      </c>
-      <c r="C165" t="s">
-        <v>408</v>
+        <v>670</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>795</v>
+        <v>741</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="1" t="s">
-        <v>689</v>
+      <c r="A167" s="5" t="s">
+        <v>407</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>690</v>
+        <v>914</v>
+      </c>
+      <c r="C167" t="s">
+        <v>402</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>321</v>
+      <c r="A168" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" t="s">
+        <v>132</v>
       </c>
       <c r="C168" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" t="s">
+        <v>397</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" t="s">
         <v>134</v>
       </c>
-      <c r="B169" t="s">
-        <v>135</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="C171" t="s">
+        <v>397</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D169" s="11" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D170" s="11"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C171" t="s">
-        <v>408</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B172" t="s">
-        <v>137</v>
+      <c r="B172" s="6" t="s">
+        <v>913</v>
       </c>
       <c r="C172" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>322</v>
+      <c r="A173" t="s">
+        <v>692</v>
+      </c>
+      <c r="B173" t="s">
+        <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17.25">
       <c r="A174" t="s">
-        <v>710</v>
+        <v>43</v>
       </c>
       <c r="B174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>408</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="17.25">
-      <c r="A175" t="s">
-        <v>44</v>
-      </c>
-      <c r="B175" t="s">
-        <v>45</v>
+        <v>397</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="C175" t="s">
-        <v>408</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>796</v>
+        <v>397</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="C176" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>697</v>
+        <v>620</v>
       </c>
       <c r="C177" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>636</v>
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>13</v>
-      </c>
-      <c r="B183" t="s">
-        <v>14</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="38.25">
+      <c r="A183" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="C183" t="s">
-        <v>408</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>764</v>
+        <v>401</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="38.25">
       <c r="A184" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C184" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="38.25">
-      <c r="A185" s="7" t="s">
-        <v>351</v>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C185" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C186" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C187" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C188" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="5" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
-        <v>412</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>798</v>
+        <v>397</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="5" t="s">
-        <v>295</v>
+        <v>606</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C190" t="s">
-        <v>408</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>764</v>
+        <v>397</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="5" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C191" t="s">
-        <v>408</v>
+        <v>608</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>765</v>
+      <c r="A192" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C192" t="s">
+        <v>398</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>60</v>
-      </c>
-      <c r="B194" t="s">
-        <v>61</v>
+      <c r="A194" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="C194" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="5" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
-        <v>410</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>763</v>
+        <v>401</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C197" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C198" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="C199" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="C200" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C201" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C202" t="s">
         <v>401</v>
       </c>
-      <c r="C202" t="s">
-        <v>412</v>
-      </c>
       <c r="D202" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C203" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="5" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="C204" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C205" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C206" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>379</v>
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>95</v>
       </c>
       <c r="C207" t="s">
-        <v>412</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>799</v>
+        <v>395</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" t="s">
-        <v>98</v>
+      <c r="A208" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>764</v>
+        <v>401</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>380</v>
+        <v>271</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="C209" t="s">
-        <v>412</v>
-      </c>
-      <c r="D209" s="13" t="s">
-        <v>799</v>
+        <v>397</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="5" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="C210" t="s">
-        <v>408</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>764</v>
+        <v>401</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="5" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C211" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>377</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="17.25">
+      <c r="A212" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C212" t="s">
-        <v>412</v>
-      </c>
-      <c r="D212" s="13" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="17.25">
+        <v>404</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>181</v>
+        <v>122</v>
+      </c>
+      <c r="B213" t="s">
+        <v>178</v>
       </c>
       <c r="C213" t="s">
-        <v>415</v>
-      </c>
-      <c r="D213" s="14" t="s">
-        <v>800</v>
+        <v>404</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B214" t="s">
-        <v>183</v>
+      <c r="A214" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C214" t="s">
-        <v>415</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>801</v>
+        <v>395</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="5" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="C215" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>363</v>
+        <v>731</v>
       </c>
       <c r="C216" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>753</v>
+        <v>416</v>
       </c>
       <c r="C217" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C218" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>424</v>
+        <v>280</v>
       </c>
       <c r="C219" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="C220" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>421</v>
+        <v>309</v>
       </c>
       <c r="C221" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C222" t="s">
-        <v>406</v>
+        <v>307</v>
+      </c>
+      <c r="C222" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C223" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D223" s="11" t="s">
-        <v>794</v>
+      <c r="A223" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B223" t="s">
+        <v>129</v>
+      </c>
+      <c r="C223" t="s">
+        <v>401</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B224" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C224" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B225" t="s">
-        <v>110</v>
+      <c r="A225" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C225" t="s">
-        <v>415</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>802</v>
+        <v>395</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C226" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>255</v>
+      <c r="A227" t="s">
+        <v>837</v>
+      </c>
+      <c r="B227" t="s">
+        <v>836</v>
       </c>
       <c r="C227" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="B228" t="s">
-        <v>861</v>
+        <v>312</v>
       </c>
       <c r="C228" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="B229" t="s">
-        <v>320</v>
+        <v>841</v>
       </c>
       <c r="C229" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>864</v>
+        <v>622</v>
       </c>
       <c r="B230" t="s">
-        <v>866</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B231" t="s">
-        <v>178</v>
+        <v>894</v>
       </c>
       <c r="C231" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>639</v>
+        <v>840</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>842</v>
       </c>
       <c r="C232" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>865</v>
-      </c>
-      <c r="B233" t="s">
-        <v>867</v>
+      <c r="A233" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C233" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="C234" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="C235" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C236" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>269</v>
+        <v>780</v>
       </c>
       <c r="C237" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>803</v>
+      <c r="A238" t="s">
+        <v>34</v>
+      </c>
+      <c r="B238" t="s">
+        <v>35</v>
       </c>
       <c r="C238" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>804</v>
+        <v>741</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>5</v>
+      <c r="A240" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="C240" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="5" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="C241" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C242" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>789</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>201</v>
+        <v>451</v>
       </c>
       <c r="C243" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="5" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>462</v>
+        <v>782</v>
       </c>
       <c r="C244" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>805</v>
+      <c r="A245" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C245" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>121</v>
+      <c r="A246" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C246" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>198</v>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="17.25">
+      <c r="A247" t="s">
+        <v>172</v>
+      </c>
+      <c r="B247" t="s">
+        <v>171</v>
       </c>
       <c r="C247" t="s">
-        <v>416</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>793</v>
+        <v>397</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17.25">
       <c r="A248" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B248" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>408</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>807</v>
+        <v>397</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17.25">
       <c r="A249" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="B249" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="17.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B250" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C250" t="s">
-        <v>408</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>809</v>
+        <v>398</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B251" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C251" t="s">
-        <v>409</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>771</v>
+        <v>397</v>
+      </c>
+      <c r="D251" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" t="s">
-        <v>53</v>
+      <c r="A252" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B252" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C252" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D252" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B253" t="s">
-        <v>128</v>
+      <c r="A253" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C253" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D253" t="s">
         <v>787</v>
@@ -7580,3665 +7510,1871 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B254" t="s">
+        <v>104</v>
+      </c>
+      <c r="C254" t="s">
+        <v>404</v>
+      </c>
+      <c r="D254" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C254" t="s">
-        <v>415</v>
-      </c>
-      <c r="D254" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="B255" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C255" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D255" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="4" t="s">
-        <v>127</v>
+      <c r="A256" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B256" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="C256" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D256" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B257" t="s">
-        <v>123</v>
+      <c r="A257" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>790</v>
       </c>
       <c r="C257" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D257" t="s">
-        <v>812</v>
+        <v>741</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>429</v>
+        <v>682</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="C258" t="s">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="D258" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5" t="s">
-        <v>699</v>
+        <v>419</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>39</v>
+        <v>420</v>
+      </c>
+      <c r="C259" t="s">
+        <v>395</v>
       </c>
       <c r="D259" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C260" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D260" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C261" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D261" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>435</v>
+        <v>791</v>
       </c>
       <c r="C262" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D262" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="C263" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D263" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>815</v>
+        <v>427</v>
       </c>
       <c r="C264" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D264" t="s">
-        <v>816</v>
+        <v>741</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C265" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D265" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C266" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D266" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C267" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D267" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C268" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D268" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>446</v>
+        <v>690</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C269" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D269" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>708</v>
+        <v>438</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C270" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D270" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>449</v>
+        <v>642</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C271" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D271" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>659</v>
+        <v>441</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="C272" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D272" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="C273" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D273" t="s">
-        <v>817</v>
+        <v>738</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>735</v>
+        <v>444</v>
       </c>
       <c r="C274" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D274" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C275" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D275" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>457</v>
+      <c r="A276" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B276" t="s">
+        <v>448</v>
       </c>
       <c r="C276" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D276" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B277" t="s">
-        <v>459</v>
+      <c r="A277" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>725</v>
       </c>
       <c r="C277" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D277" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="C278" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D278" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="17.25">
       <c r="A279" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="C279" t="s">
-        <v>408</v>
-      </c>
-      <c r="D279" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="17.25">
+        <v>453</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>818</v>
+        <v>455</v>
+      </c>
+      <c r="D280" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>466</v>
+        <v>668</v>
       </c>
       <c r="D281" t="s">
-        <v>819</v>
+        <v>741</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D282" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="17.25">
+      <c r="A283" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D284" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="17.25">
+      <c r="A285" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D286" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="17.25">
+      <c r="A287" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="D282" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="5" t="s">
+      <c r="B288" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="D283" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="17.25">
-      <c r="A284" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="D284" s="9" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D285" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="17.25">
-      <c r="A286" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D286" s="9" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D287" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="17.25">
-      <c r="A288" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>822</v>
+      <c r="C288" t="s">
+        <v>469</v>
+      </c>
+      <c r="D288" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C289" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D289" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>483</v>
+        <v>473</v>
+      </c>
+      <c r="C290" t="s">
+        <v>474</v>
       </c>
       <c r="D290" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C291" t="s">
-        <v>486</v>
+        <v>730</v>
       </c>
       <c r="D291" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>752</v>
+        <v>477</v>
       </c>
       <c r="D292" t="s">
-        <v>824</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>489</v>
+        <v>681</v>
       </c>
       <c r="D293" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="5" t="s">
-        <v>490</v>
+        <v>895</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>698</v>
+        <v>479</v>
       </c>
       <c r="D294" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="5" t="s">
-        <v>492</v>
+        <v>896</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="D295" t="s">
-        <v>789</v>
+        <v>897</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="5" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D296" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="5" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="D297" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="5" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="D298" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="5" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D299" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="5" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="D300" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D301" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="D302" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D303" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D304" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D305" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="D306" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D307" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="D308" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D309" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D310" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="D311" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D312" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D313" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D314" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D315" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D316" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="D317" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="D318" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>523</v>
+        <v>906</v>
       </c>
       <c r="D319" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D320" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D321" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D322" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D323" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D324" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D325" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="D326" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="D327" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D328" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D329" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D330" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="5" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D331" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="D332" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="D333" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D334" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D335" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="D336" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="D337" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="D338" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="D339" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="D340" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D341" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="D342" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D343" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D344" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D345" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D346" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D347" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="D348" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D349" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="D350" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D351" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D352" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D353" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D354" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D355" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>706</v>
+        <v>893</v>
       </c>
       <c r="D356" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="D357" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D358" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D359" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D360" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="D361" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="D362" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D363" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D364" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D365" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="D366" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="D367" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5" t="s">
-        <v>872</v>
+        <v>846</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="D368" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="D369" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>642</v>
+        <v>870</v>
       </c>
       <c r="D370" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="D371" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="D372" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D373" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5" t="s">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="D375" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="D376" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="D377" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="D378" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="D379" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="D380" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="D381" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="D382" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="D383" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="D384" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="5" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="D385" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="D386" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="D387" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="5" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="D388" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="5" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D389" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="5" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="D390" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="5" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="D391" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="5" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="D392" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="5" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="D393" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="5" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="D394" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="D395" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="5" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="B396" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="D396" t="s">
         <v>738</v>
-      </c>
-      <c r="D396" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="5" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="D397" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="5" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B398" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="D398" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="D399" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>860</v>
+        <v>905</v>
       </c>
       <c r="D400" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="5" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="5" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="5" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="5" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="5" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="5" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B419" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B407" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="5"/>
-      <c r="B408" s="6"/>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>902</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8DB8BE-ADC7-4531-83A8-3AE2E8B90454}">
-  <dimension ref="A1:A370"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="17.25">
-      <c r="A21" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75">
-      <c r="A22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="6" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="6" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="6" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="6" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="6" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="6" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="6" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="6" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="6" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="6" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="8" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="6" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="6" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="6" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="6" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="6" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="6" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="6" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="6" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="6" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="6" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="6" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="6" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="6" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="6" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="8" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="8" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="6" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="6" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="6" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="10" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15532B2-AAF0-477E-B95A-491F215BD0AE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB7892B-4C9D-46E7-A0FA-DD9DE1A95B87}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD1423B-A36F-4159-9CF6-6D339329AB8A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2445" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7127E444-9C01-4A0F-A8D2-7E3E7C4E8D4C}"/>
+  <xr:revisionPtr revIDLastSave="2552" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33359F8D-9F95-4B82-B384-DE698F03B592}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$C$398</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$D$425</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="972">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -1290,9 +1290,6 @@
   </si>
   <si>
     <t>pd.crosstab(df['A'],df['B'],normalize=True)</t>
-  </si>
-  <si>
-    <t>Create a cross tabulation of the Percentage within each column of two columns A and B</t>
   </si>
   <si>
     <t>Convert a list (mylist) to df column A</t>
@@ -3491,9 +3488,6 @@
     <t>df['A'].duplicated().any()</t>
   </si>
   <si>
-    <t>pd.concat([df1, df2],ignore_index=True)</t>
-  </si>
-  <si>
     <t>Create a series with the list mylist= [1,2,3,4,5,6]</t>
   </si>
   <si>
@@ -3627,6 +3621,180 @@
   </si>
   <si>
     <t>df.shift(n)</t>
+  </si>
+  <si>
+    <t>date.replace(day=1)</t>
+  </si>
+  <si>
+    <t>Change a date-'date' (eg.'2023-01-08) ( datetime format) to the first day of that month ( eg. to '2023-01-01')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have A, B, C, D, E; You want to find the column list other than A, B, How to do that </t>
+  </si>
+  <si>
+    <t>df.columns.difference(['A','B'])</t>
+  </si>
+  <si>
+    <t>Create a cross tabulation of the Percentage over columns of two columns A and B</t>
+  </si>
+  <si>
+    <t>Create a cross tabulation of the Percentage over rows of two columns A and B</t>
+  </si>
+  <si>
+    <t>pd.crosstab(df['A'],df['B'],normalize='index')</t>
+  </si>
+  <si>
+    <t>pd.concat([df1,df2],ignore_index=True)</t>
+  </si>
+  <si>
+    <t>df.index.is_unique</t>
+  </si>
+  <si>
+    <t>df.columns.is_unique</t>
+  </si>
+  <si>
+    <t>Returns the datatype of row labels</t>
+  </si>
+  <si>
+    <t>Check if the rows have unique labels</t>
+  </si>
+  <si>
+    <t>Check if the columns have unique labels</t>
+  </si>
+  <si>
+    <t>df.index.dtype</t>
+  </si>
+  <si>
+    <t>Returns the datatype of column labels</t>
+  </si>
+  <si>
+    <t>df.columns.dtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the shape of row labels </t>
+  </si>
+  <si>
+    <t>df.index.shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns the shape of column labels </t>
+  </si>
+  <si>
+    <t>df.columns.shape</t>
+  </si>
+  <si>
+    <t>df.index[n-1]</t>
+  </si>
+  <si>
+    <t>Returns the column label at nth position</t>
+  </si>
+  <si>
+    <t>Returns the row label at nth position</t>
+  </si>
+  <si>
+    <t>df.columns[n-1]</t>
+  </si>
+  <si>
+    <t>To get a unique set of all the row labels of two dfs df1 and df2</t>
+  </si>
+  <si>
+    <t>df1.index.union(df2.index)</t>
+  </si>
+  <si>
+    <t>To get the set of all the row labels common to two dfs df1 and df2</t>
+  </si>
+  <si>
+    <t>df1.index.intersection(df2.index)</t>
+  </si>
+  <si>
+    <t>To get the set of all the row labels which are in df1 but not in df2</t>
+  </si>
+  <si>
+    <t>df1.index.difference(df2.index)</t>
+  </si>
+  <si>
+    <t>To get a unique set of all the column labels of two dfs df1 and df2</t>
+  </si>
+  <si>
+    <t>To get the set of all the column labels common to two dfs df1 and df2</t>
+  </si>
+  <si>
+    <t>To get the set of all the column labels which are in df1 but not in df2</t>
+  </si>
+  <si>
+    <t>df1.columns.union(df2.columns)</t>
+  </si>
+  <si>
+    <t>df1.columns.intersection(df2.columns)</t>
+  </si>
+  <si>
+    <t>df1.columns.difference(df2.columns)</t>
+  </si>
+  <si>
+    <t>to sort the row labels of a dataframe</t>
+  </si>
+  <si>
+    <t>to sort the column labels of a dataframe</t>
+  </si>
+  <si>
+    <t>df1.column.difference(df2.column)</t>
+  </si>
+  <si>
+    <t>df.drop(['A','B'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to drop rows labeled A and B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to drop columns labeled A and B </t>
+  </si>
+  <si>
+    <t>To get the position of a particular row label A</t>
+  </si>
+  <si>
+    <t>df.index.get_loc['A']</t>
+  </si>
+  <si>
+    <t>To get the position of a particular column label A</t>
+  </si>
+  <si>
+    <t>df.columns.get_loc['A']</t>
+  </si>
+  <si>
+    <t>To check if the row labels contain these labels lab--&gt;[A, B, C]</t>
+  </si>
+  <si>
+    <t>df.index.isin(lab)</t>
+  </si>
+  <si>
+    <t>To check if the column labels contain these labels lab--&gt;[A, B, C]</t>
+  </si>
+  <si>
+    <t>df.columns.isin(lab)</t>
+  </si>
+  <si>
+    <t>To generate a series of dates starting from 1/1/2020,frequency of 30 days and for 4 periods</t>
+  </si>
+  <si>
+    <t>pd.period_range('1/1/2020',freq='30d',periods=4)</t>
+  </si>
+  <si>
+    <t>To subtract 30 days from a date column A</t>
+  </si>
+  <si>
+    <t>df['A']-pd.Timedelta('30 d')</t>
+  </si>
+  <si>
+    <t>To get the day name of a date column A</t>
+  </si>
+  <si>
+    <t>df['A'].dt.day_name()</t>
+  </si>
+  <si>
+    <t>Drop rows only if the value are na in column A</t>
+  </si>
+  <si>
+    <t>df.dropna(subset='A')</t>
   </si>
 </sst>
 </file>
@@ -4053,10 +4221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D422"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -4078,7 +4246,7 @@
         <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4092,29 +4260,29 @@
         <v>399</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4128,29 +4296,29 @@
         <v>399</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4208,29 +4376,29 @@
         <v>399</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4238,35 +4406,35 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C15" t="s">
         <v>399</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4274,13 +4442,13 @@
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C18" t="s">
         <v>399</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4294,29 +4462,29 @@
         <v>399</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B20" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4330,29 +4498,29 @@
         <v>399</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B24" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4366,29 +4534,29 @@
         <v>397</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" t="s">
         <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B27" t="s">
         <v>174</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4402,29 +4570,29 @@
         <v>399</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4438,18 +4606,18 @@
         <v>399</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4463,29 +4631,29 @@
         <v>399</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4493,15 +4661,15 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -4510,7 +4678,7 @@
         <v>398</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4524,12 +4692,12 @@
         <v>397</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>355</v>
@@ -4538,18 +4706,18 @@
         <v>397</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>357</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4563,7 +4731,7 @@
         <v>396</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
@@ -4577,7 +4745,7 @@
         <v>404</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
@@ -4591,7 +4759,7 @@
         <v>404</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4605,7 +4773,7 @@
         <v>400</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
@@ -4619,7 +4787,7 @@
         <v>404</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
@@ -4633,7 +4801,7 @@
         <v>404</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4641,13 +4809,13 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C47" t="s">
         <v>399</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4655,13 +4823,13 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C48" t="s">
         <v>399</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4675,7 +4843,7 @@
         <v>405</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4689,7 +4857,7 @@
         <v>405</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4703,7 +4871,7 @@
         <v>397</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4717,7 +4885,7 @@
         <v>397</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4731,7 +4899,7 @@
         <v>405</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4745,7 +4913,7 @@
         <v>405</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4759,7 +4927,7 @@
         <v>395</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4773,7 +4941,7 @@
         <v>405</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4801,7 +4969,7 @@
         <v>397</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4809,13 +4977,13 @@
         <v>215</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C59" t="s">
         <v>405</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4829,7 +4997,7 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4837,24 +5005,24 @@
         <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C61" t="s">
         <v>397</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B62" t="s">
         <v>701</v>
       </c>
-      <c r="B62" t="s">
-        <v>702</v>
-      </c>
       <c r="D62" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4868,7 +5036,7 @@
         <v>405</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4882,7 +5050,7 @@
         <v>397</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4896,7 +5064,7 @@
         <v>401</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4910,7 +5078,7 @@
         <v>401</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4924,7 +5092,7 @@
         <v>397</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4938,7 +5106,7 @@
         <v>397</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4952,7 +5120,7 @@
         <v>405</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4966,7 +5134,7 @@
         <v>405</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4974,13 +5142,13 @@
         <v>203</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C71" t="s">
         <v>405</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4988,13 +5156,13 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C72" t="s">
         <v>397</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5002,13 +5170,13 @@
         <v>145</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C73" t="s">
         <v>403</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5022,7 +5190,7 @@
         <v>398</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5036,12 +5204,12 @@
         <v>398</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>409</v>
@@ -5050,7 +5218,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5064,7 +5232,7 @@
         <v>397</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5078,7 +5246,7 @@
         <v>397</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5092,7 +5260,7 @@
         <v>395</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5106,7 +5274,7 @@
         <v>401</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5120,7 +5288,7 @@
         <v>401</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5134,7 +5302,7 @@
         <v>401</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5148,7 +5316,7 @@
         <v>397</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5162,7 +5330,7 @@
         <v>395</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5176,7 +5344,7 @@
         <v>397</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5190,7 +5358,7 @@
         <v>404</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5204,7 +5372,7 @@
         <v>404</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5218,7 +5386,7 @@
         <v>404</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5232,7 +5400,7 @@
         <v>402</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5246,7 +5414,7 @@
         <v>404</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5260,7 +5428,7 @@
         <v>404</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5274,7 +5442,7 @@
         <v>404</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5288,7 +5456,7 @@
         <v>397</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5302,7 +5470,7 @@
         <v>#N/A</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5316,7 +5484,7 @@
         <v>395</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5330,7 +5498,7 @@
         <v>395</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5344,7 +5512,7 @@
         <v>395</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5358,7 +5526,7 @@
         <v>395</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5372,7 +5540,7 @@
         <v>395</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5386,7 +5554,7 @@
         <v>398</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5400,7 +5568,7 @@
         <v>397</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5414,7 +5582,7 @@
         <v>397</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5428,7 +5596,7 @@
         <v>397</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5436,13 +5604,13 @@
         <v>250</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C104" t="s">
         <v>395</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5456,7 +5624,7 @@
         <v>395</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5470,7 +5638,7 @@
         <v>403</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5484,7 +5652,7 @@
         <v>403</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5492,13 +5660,13 @@
         <v>281</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C108" t="s">
         <v>397</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5506,13 +5674,13 @@
         <v>282</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C109" t="s">
         <v>397</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5526,29 +5694,29 @@
         <v>397</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>710</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>712</v>
-      </c>
       <c r="D112" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5562,12 +5730,12 @@
         <v>397</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>236</v>
@@ -5576,18 +5744,18 @@
         <v>397</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5601,7 +5769,7 @@
         <v>396</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5615,7 +5783,7 @@
         <v>396</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5629,7 +5797,7 @@
         <v>397</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5643,7 +5811,7 @@
         <v>397</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5657,7 +5825,7 @@
         <v>404</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5671,7 +5839,7 @@
         <v>404</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5685,7 +5853,7 @@
         <v>396</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5699,7 +5867,7 @@
         <v>396</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5713,7 +5881,7 @@
         <v>397</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5727,12 +5895,12 @@
         <v>396</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>231</v>
@@ -5741,7 +5909,7 @@
         <v>397</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5755,7 +5923,7 @@
         <v>395</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5769,7 +5937,7 @@
         <v>395</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5777,13 +5945,13 @@
         <v>155</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C129" t="s">
         <v>395</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5791,13 +5959,13 @@
         <v>153</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C130" t="s">
         <v>395</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5805,13 +5973,13 @@
         <v>152</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C131" t="s">
         <v>395</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5819,13 +5987,13 @@
         <v>154</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C132" t="s">
         <v>395</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5833,13 +6001,13 @@
         <v>156</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C133" t="s">
         <v>395</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5853,7 +6021,7 @@
         <v>398</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5867,7 +6035,7 @@
         <v>398</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5881,7 +6049,7 @@
         <v>405</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5895,7 +6063,7 @@
         <v>399</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5909,7 +6077,7 @@
         <v>398</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5923,7 +6091,7 @@
         <v>395</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5937,7 +6105,7 @@
         <v>405</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5951,7 +6119,7 @@
         <v>405</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5965,7 +6133,7 @@
         <v>405</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5979,7 +6147,7 @@
         <v>397</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5987,13 +6155,13 @@
         <v>270</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C144" t="s">
         <v>395</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6007,7 +6175,7 @@
         <v>395</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6021,7 +6189,7 @@
         <v>395</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6035,7 +6203,7 @@
         <v>395</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6049,7 +6217,7 @@
         <v>395</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6063,7 +6231,7 @@
         <v>397</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6077,7 +6245,7 @@
         <v>403</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6091,7 +6259,7 @@
         <v>403</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6099,13 +6267,13 @@
         <v>144</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C152" t="s">
         <v>403</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6119,7 +6287,7 @@
         <v>403</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6133,7 +6301,7 @@
         <v>403</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6147,7 +6315,7 @@
         <v>403</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6161,7 +6329,7 @@
         <v>403</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6175,7 +6343,7 @@
         <v>405</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6189,7 +6357,7 @@
         <v>405</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6203,7 +6371,7 @@
         <v>405</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6217,7 +6385,7 @@
         <v>405</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6231,7 +6399,7 @@
         <v>405</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6245,7 +6413,7 @@
         <v>405</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6259,43 +6427,43 @@
         <v>405</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B164" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C164" t="s">
         <v>397</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>671</v>
-      </c>
       <c r="D165" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>673</v>
-      </c>
       <c r="D166" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6303,13 +6471,13 @@
         <v>407</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C167" t="s">
         <v>402</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6323,15 +6491,15 @@
         <v>397</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D169" s="11"/>
     </row>
@@ -6346,7 +6514,7 @@
         <v>397</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6360,7 +6528,7 @@
         <v>397</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6368,18 +6536,18 @@
         <v>408</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C172" t="s">
         <v>402</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
@@ -6388,7 +6556,7 @@
         <v>397</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17.25">
@@ -6402,7 +6570,7 @@
         <v>397</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6410,13 +6578,13 @@
         <v>268</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C175" t="s">
         <v>397</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6424,13 +6592,13 @@
         <v>269</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C176" t="s">
         <v>397</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6438,13 +6606,13 @@
         <v>237</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C177" t="s">
         <v>397</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6458,7 +6626,7 @@
         <v>397</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6472,7 +6640,7 @@
         <v>397</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6486,7 +6654,7 @@
         <v>397</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6500,7 +6668,7 @@
         <v>397</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6514,7 +6682,7 @@
         <v>397</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="38.25">
@@ -6528,7 +6696,7 @@
         <v>401</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="38.25">
@@ -6542,7 +6710,7 @@
         <v>401</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6556,7 +6724,7 @@
         <v>401</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6570,7 +6738,7 @@
         <v>401</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6584,7 +6752,7 @@
         <v>401</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6598,7 +6766,7 @@
         <v>401</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6612,12 +6780,12 @@
         <v>397</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>279</v>
@@ -6626,18 +6794,18 @@
         <v>397</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="D191" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6651,7 +6819,7 @@
         <v>398</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6665,7 +6833,7 @@
         <v>398</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6679,7 +6847,7 @@
         <v>399</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6693,7 +6861,7 @@
         <v>401</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6707,7 +6875,7 @@
         <v>401</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6721,7 +6889,7 @@
         <v>401</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6735,7 +6903,7 @@
         <v>401</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6749,7 +6917,7 @@
         <v>401</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6763,7 +6931,7 @@
         <v>401</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6777,7 +6945,7 @@
         <v>401</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6791,7 +6959,7 @@
         <v>401</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6805,7 +6973,7 @@
         <v>401</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6819,7 +6987,7 @@
         <v>401</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6833,7 +7001,7 @@
         <v>401</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6847,7 +7015,7 @@
         <v>401</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6861,7 +7029,7 @@
         <v>395</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6875,7 +7043,7 @@
         <v>401</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6889,7 +7057,7 @@
         <v>397</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6903,7 +7071,7 @@
         <v>401</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6917,7 +7085,7 @@
         <v>401</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17.25">
@@ -6931,7 +7099,7 @@
         <v>404</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6945,7 +7113,7 @@
         <v>404</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6959,7 +7127,7 @@
         <v>395</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6973,1461 +7141,1459 @@
         <v>397</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
-        <v>417</v>
+        <v>919</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C216" t="s">
-        <v>397</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>741</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="D216" s="11"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
-        <v>415</v>
+        <v>918</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>416</v>
+        <v>730</v>
       </c>
       <c r="C217" t="s">
         <v>397</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C218" t="s">
         <v>397</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="C219" t="s">
         <v>397</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C220" t="s">
         <v>397</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C221" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C222" t="s">
+        <v>395</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B223" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C222" t="e">
+      <c r="C223" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D222" s="11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B223" t="s">
-        <v>129</v>
-      </c>
-      <c r="C223" t="s">
-        <v>401</v>
-      </c>
-      <c r="D223" s="13" t="s">
-        <v>774</v>
+      <c r="D223" s="11" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B224" t="s">
+        <v>129</v>
+      </c>
+      <c r="C224" t="s">
+        <v>401</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>107</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>404</v>
       </c>
-      <c r="D224" s="13" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C225" t="s">
-        <v>395</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>741</v>
+      <c r="D225" s="13" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C226" t="s">
         <v>395</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>837</v>
-      </c>
-      <c r="B227" t="s">
-        <v>836</v>
+      <c r="A227" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C227" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B228" t="s">
-        <v>312</v>
+        <v>835</v>
       </c>
       <c r="C228" t="s">
         <v>398</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B229" t="s">
-        <v>841</v>
+        <v>312</v>
       </c>
       <c r="C229" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>622</v>
+        <v>838</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>840</v>
       </c>
       <c r="C230" t="s">
         <v>397</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B231" t="s">
-        <v>894</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>397</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>840</v>
+        <v>622</v>
       </c>
       <c r="B232" t="s">
-        <v>842</v>
+        <v>892</v>
       </c>
       <c r="C232" t="s">
+        <v>397</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>839</v>
+      </c>
+      <c r="B233" t="s">
+        <v>841</v>
+      </c>
+      <c r="C233" t="s">
         <v>398</v>
       </c>
-      <c r="D232" s="11" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C233" t="s">
-        <v>405</v>
-      </c>
       <c r="D233" s="11" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>347</v>
+        <v>195</v>
       </c>
       <c r="C234" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="C235" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C236" t="s">
         <v>397</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>780</v>
+        <v>261</v>
       </c>
       <c r="C237" t="s">
         <v>397</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>34</v>
-      </c>
-      <c r="B238" t="s">
-        <v>35</v>
+      <c r="A238" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="C238" t="s">
         <v>397</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" t="s">
+        <v>397</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
         <v>4</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>5</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>398</v>
       </c>
-      <c r="D239" s="11" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C240" t="s">
-        <v>395</v>
-      </c>
       <c r="D240" s="11" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="5" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="C241" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C242" t="s">
         <v>405</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
       <c r="C243" t="s">
         <v>405</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C244" t="s">
+        <v>405</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B245" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="C245" t="s">
+        <v>402</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" t="s">
+        <v>404</v>
+      </c>
+      <c r="D246" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="C244" t="s">
-        <v>402</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C245" t="s">
-        <v>404</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="5" t="s">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B247" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
         <v>405</v>
       </c>
-      <c r="D246" s="11" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="17.25">
-      <c r="A247" t="s">
-        <v>172</v>
-      </c>
-      <c r="B247" t="s">
-        <v>171</v>
-      </c>
-      <c r="C247" t="s">
-        <v>397</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>784</v>
+      <c r="D247" s="11" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17.25">
       <c r="A248" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B248" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C248" t="s">
         <v>397</v>
       </c>
-      <c r="D248" s="9" t="s">
-        <v>785</v>
+      <c r="D248" s="14" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17.25">
       <c r="A249" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B249" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C249" t="s">
         <v>397</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="17.25">
       <c r="A250" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B250" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>398</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>748</v>
+        <v>397</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
+        <v>68</v>
+      </c>
+      <c r="B251" t="s">
+        <v>67</v>
+      </c>
+      <c r="C251" t="s">
+        <v>398</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
         <v>52</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>53</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>397</v>
       </c>
-      <c r="D251" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="4" t="s">
+      <c r="D252" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>125</v>
-      </c>
-      <c r="C252" t="s">
-        <v>404</v>
-      </c>
-      <c r="D252" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C253" t="s">
         <v>404</v>
       </c>
       <c r="D253" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B254" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C254" t="s">
         <v>404</v>
       </c>
       <c r="D254" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="4" t="s">
-        <v>124</v>
+      <c r="A255" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B255" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="C255" t="s">
         <v>404</v>
       </c>
       <c r="D255" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="1" t="s">
-        <v>119</v>
+      <c r="A256" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B256" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="C256" t="s">
         <v>404</v>
       </c>
       <c r="D256" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>790</v>
+      <c r="A257" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B257" t="s">
+        <v>120</v>
       </c>
       <c r="C257" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="D257" t="s">
-        <v>741</v>
+        <v>788</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>682</v>
+        <v>417</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>38</v>
+        <v>789</v>
+      </c>
+      <c r="C258" t="s">
+        <v>395</v>
       </c>
       <c r="D258" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5" t="s">
-        <v>419</v>
+        <v>681</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C259" t="s">
-        <v>395</v>
+        <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C260" t="s">
         <v>395</v>
       </c>
       <c r="D260" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C261" t="s">
         <v>395</v>
       </c>
       <c r="D261" t="s">
-        <v>738</v>
+        <v>782</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>791</v>
+        <v>423</v>
       </c>
       <c r="C262" t="s">
         <v>395</v>
       </c>
       <c r="D262" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C263" t="s">
         <v>395</v>
       </c>
       <c r="D263" t="s">
-        <v>793</v>
+        <v>740</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>427</v>
+        <v>791</v>
       </c>
       <c r="C264" t="s">
         <v>395</v>
       </c>
       <c r="D264" t="s">
-        <v>741</v>
+        <v>792</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C265" t="s">
         <v>395</v>
       </c>
       <c r="D265" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C266" t="s">
         <v>395</v>
       </c>
       <c r="D266" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C267" t="s">
         <v>395</v>
       </c>
       <c r="D267" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C268" t="s">
         <v>395</v>
       </c>
       <c r="D268" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
-        <v>690</v>
+        <v>434</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C269" t="s">
         <v>395</v>
       </c>
       <c r="D269" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>438</v>
+        <v>689</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C270" t="s">
         <v>395</v>
       </c>
       <c r="D270" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
-        <v>642</v>
+        <v>437</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C271" t="s">
         <v>395</v>
       </c>
       <c r="D271" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>441</v>
+        <v>641</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>667</v>
+        <v>439</v>
       </c>
       <c r="C272" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D272" t="s">
-        <v>794</v>
+        <v>740</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>715</v>
+        <v>666</v>
       </c>
       <c r="C273" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D273" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>444</v>
+        <v>714</v>
       </c>
       <c r="C274" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D274" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C275" t="s">
+        <v>395</v>
+      </c>
+      <c r="D275" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C275" t="s">
-        <v>397</v>
-      </c>
-      <c r="D275" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B276" t="s">
-        <v>448</v>
       </c>
       <c r="C276" t="s">
         <v>397</v>
       </c>
       <c r="D276" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>725</v>
+      <c r="A277" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B277" t="s">
+        <v>447</v>
       </c>
       <c r="C277" t="s">
         <v>397</v>
       </c>
       <c r="D277" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C278" t="s">
         <v>397</v>
       </c>
       <c r="D278" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="17.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C279" t="s">
+        <v>397</v>
+      </c>
+      <c r="D279" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="17.25">
+      <c r="A280" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D280" t="s">
-        <v>796</v>
+      <c r="D280" s="9" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>668</v>
+        <v>454</v>
       </c>
       <c r="D281" t="s">
-        <v>741</v>
+        <v>795</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D282" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D283" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="17.25">
+      <c r="A284" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="D282" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="17.25">
-      <c r="A283" s="5" t="s">
+      <c r="B284" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="D283" s="9" t="s">
+      <c r="B285" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D285" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="17.25">
+      <c r="A286" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D286" s="9" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D284" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="17.25">
-      <c r="A285" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B285" s="6" t="s">
+    <row r="287" spans="1:4">
+      <c r="A287" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D285" s="9" t="s">
+      <c r="B287" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D287" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B286" s="6" t="s">
+    <row r="288" spans="1:4" ht="17.25">
+      <c r="A288" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D286" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="17.25">
-      <c r="A287" s="5" t="s">
+      <c r="B288" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C288" t="s">
-        <v>469</v>
-      </c>
-      <c r="D288" t="s">
-        <v>741</v>
+      <c r="D288" s="9" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
+      </c>
+      <c r="C289" t="s">
+        <v>468</v>
       </c>
       <c r="D289" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C290" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D290" t="s">
-        <v>800</v>
+        <v>740</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>730</v>
+        <v>472</v>
+      </c>
+      <c r="C291" t="s">
+        <v>473</v>
       </c>
       <c r="D291" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>477</v>
+        <v>729</v>
       </c>
       <c r="D292" t="s">
-        <v>741</v>
+        <v>800</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>681</v>
+        <v>476</v>
       </c>
       <c r="D293" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="5" t="s">
-        <v>895</v>
+        <v>477</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>479</v>
+        <v>680</v>
       </c>
       <c r="D294" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>897</v>
+        <v>478</v>
+      </c>
+      <c r="D295" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="5" t="s">
-        <v>480</v>
+        <v>894</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D296" t="s">
-        <v>741</v>
+        <v>895</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>727</v>
+        <v>612</v>
       </c>
       <c r="D297" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D298" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="D299" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>643</v>
       </c>
       <c r="D300" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>486</v>
+        <v>642</v>
       </c>
       <c r="D301" t="s">
-        <v>802</v>
+        <v>740</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>611</v>
+        <v>485</v>
       </c>
       <c r="D302" t="s">
-        <v>741</v>
+        <v>801</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5" t="s">
-        <v>609</v>
+        <v>486</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>391</v>
+        <v>610</v>
       </c>
       <c r="D303" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>612</v>
+        <v>391</v>
       </c>
       <c r="D304" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5" t="s">
-        <v>689</v>
+        <v>609</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>488</v>
+        <v>611</v>
       </c>
       <c r="D305" t="s">
-        <v>803</v>
+        <v>740</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>489</v>
+        <v>688</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>666</v>
+        <v>487</v>
       </c>
       <c r="D306" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>541</v>
+        <v>665</v>
       </c>
       <c r="D307" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="D308" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
-        <v>735</v>
+        <v>490</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D309" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>494</v>
+        <v>734</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D310" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>683</v>
+        <v>493</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="D311" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>498</v>
+        <v>682</v>
       </c>
       <c r="D312" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="D313" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D314" t="s">
-        <v>804</v>
+        <v>740</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D315" t="s">
-        <v>756</v>
+        <v>803</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D316" t="s">
-        <v>799</v>
+        <v>755</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>831</v>
+        <v>505</v>
       </c>
       <c r="D317" t="s">
-        <v>770</v>
+        <v>798</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="D318" t="s">
-        <v>806</v>
+        <v>769</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>906</v>
+        <v>804</v>
       </c>
       <c r="D319" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>531</v>
+        <v>904</v>
       </c>
       <c r="D320" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D321" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5" t="s">
-        <v>534</v>
+        <v>623</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D322" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D323" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D324" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D325" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>808</v>
+        <v>539</v>
       </c>
       <c r="D326" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>621</v>
+        <v>807</v>
       </c>
       <c r="D327" t="s">
-        <v>807</v>
+        <v>747</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>546</v>
+        <v>620</v>
       </c>
       <c r="D328" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D329" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D330" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8435,260 +8601,260 @@
         <v>550</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D331" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="D332" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="D333" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D334" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D335" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5" t="s">
-        <v>630</v>
+        <v>557</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>627</v>
+        <v>558</v>
       </c>
       <c r="D336" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D337" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D338" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>736</v>
+        <v>628</v>
       </c>
       <c r="D339" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>560</v>
+        <v>735</v>
       </c>
       <c r="D340" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D341" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D342" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D343" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D344" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D345" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D346" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D347" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D348" t="s">
-        <v>766</v>
+        <v>814</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
       <c r="D349" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="D350" t="s">
-        <v>815</v>
+        <v>761</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D351" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D352" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D353" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D354" t="s">
         <v>817</v>
@@ -8696,425 +8862,425 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D355" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>893</v>
+        <v>581</v>
       </c>
       <c r="D356" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>585</v>
+        <v>891</v>
       </c>
       <c r="D357" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D358" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D359" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D360" t="s">
-        <v>759</v>
+        <v>819</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D361" t="s">
-        <v>820</v>
+        <v>758</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D362" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D363" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D364" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D365" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D366" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>734</v>
+        <v>601</v>
       </c>
       <c r="D367" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5" t="s">
-        <v>846</v>
+        <v>602</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>847</v>
+        <v>733</v>
       </c>
       <c r="D368" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D369" t="s">
-        <v>807</v>
+        <v>747</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5" t="s">
-        <v>625</v>
+        <v>847</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="D370" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>647</v>
+        <v>921</v>
       </c>
       <c r="D371" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D372" t="s">
-        <v>821</v>
+        <v>747</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>132</v>
+        <v>648</v>
       </c>
       <c r="D373" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5" t="s">
-        <v>843</v>
+        <v>649</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>844</v>
+        <v>132</v>
+      </c>
+      <c r="D374" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5" t="s">
-        <v>651</v>
+        <v>842</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="D375" t="s">
-        <v>738</v>
+        <v>843</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5" t="s">
-        <v>729</v>
+        <v>650</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D376" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D377" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>654</v>
       </c>
       <c r="D378" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D379" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>658</v>
       </c>
       <c r="D380" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>686</v>
+        <v>660</v>
       </c>
       <c r="D381" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D382" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D383" t="s">
-        <v>807</v>
+        <v>746</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D384" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="5" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D385" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D386" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D387" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="5" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="D388" t="s">
-        <v>752</v>
+        <v>806</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D389" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D390" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D391" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="5" t="s">
-        <v>833</v>
+        <v>698</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D392" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="5" t="s">
-        <v>705</v>
+        <v>832</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D393" t="s">
         <v>747</v>
@@ -9122,247 +9288,250 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D394" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B395" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D395" t="s">
         <v>737</v>
-      </c>
-      <c r="D395" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="D396" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="B397" s="10" t="s">
-        <v>862</v>
+        <v>716</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>717</v>
       </c>
       <c r="D397" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B398" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>861</v>
       </c>
       <c r="D398" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>904</v>
+        <v>719</v>
+      </c>
+      <c r="B399" t="s">
+        <v>720</v>
       </c>
       <c r="D399" t="s">
-        <v>820</v>
+        <v>737</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D400" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D401" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B401" s="6" t="s">
+      <c r="B403" s="6" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
-      <c r="A402" s="5" t="s">
+    <row r="404" spans="1:4">
+      <c r="A404" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B404" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B405" s="6" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
-      <c r="A403" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404" s="5" t="s">
+    <row r="406" spans="1:4">
+      <c r="A406" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B406" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B404" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
-      <c r="A405" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
-      <c r="A406" s="5" t="s">
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B408" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="B406" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407" s="5" t="s">
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B409" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="B407" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2">
-      <c r="A408" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="B408" s="6" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
-      <c r="A409" s="5" t="s">
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B409" s="6" t="s">
+      <c r="B411" s="6" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
-      <c r="A410" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
-      <c r="A411" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:4">
       <c r="A412" s="5" t="s">
         <v>876</v>
       </c>
       <c r="B412" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="5" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413" s="5" t="s">
+      <c r="B414" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B413" s="6" t="s">
+      <c r="B415" s="6" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="5" t="s">
+    <row r="416" spans="1:4">
+      <c r="A416" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B414" s="6" t="s">
+      <c r="B416" s="6" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
-      <c r="A415" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="5" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="5" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="5" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -9370,7 +9539,239 @@
         <v>901</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>902</v>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2552" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33359F8D-9F95-4B82-B384-DE698F03B592}"/>
+  <xr:revisionPtr revIDLastSave="2683" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AB6BDF5-CAA5-45E7-878B-70328F2C2F1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Basic Commands'!$A$1:$D$425</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="1030">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -282,9 +283,6 @@
   </si>
   <si>
     <t>You have a datetime object 'date' you want to get the date after 1 day, how do you write the command</t>
-  </si>
-  <si>
-    <t>date+pd.DateOffset(days=1)</t>
   </si>
   <si>
     <t>You want to create a series of datetime objects with start date as start= '2023-01-01' and end date is end= '2023-12-01' , frequency- Daily</t>
@@ -2131,15 +2129,9 @@
     <t>create a df from a list of dictionaries--&gt; data = [{'A': 1, 'B': 4}, {'A': 2, 'B': 5}, {'A': 3, 'B': 6}]</t>
   </si>
   <si>
-    <t>pd.DataFrame(data)</t>
-  </si>
-  <si>
     <t>create a df from a list of lists with column names--&gt; data = [[1, 4], [2, 5], [3, 6]];columns = ['A', 'B']</t>
   </si>
   <si>
-    <t>pd.DataFrame(data,columns=columns)</t>
-  </si>
-  <si>
     <t>create a df from a np array with column names--&gt; data = np.array [[1, 4], [2, 5], [3, 6]]);columns = ['A', 'B']</t>
   </si>
   <si>
@@ -2497,9 +2489,6 @@
     <t>Create a random word of 5 uppercase characters - use library 'string'</t>
   </si>
   <si>
-    <t>'.join(random.choices(string.ascii_uppercase,k=9))</t>
-  </si>
-  <si>
     <t>Create a random word of 5 digits - use library 'string'</t>
   </si>
   <si>
@@ -2693,9 +2682,6 @@
   </si>
   <si>
     <t>np.random.randn(5)</t>
-  </si>
-  <si>
-    <t>df.loc[n-1:]</t>
   </si>
   <si>
     <t>df.loc[[0,99,999],:]</t>
@@ -3467,9 +3453,6 @@
     </r>
   </si>
   <si>
-    <t>df.groupby(lambda x: df['A'][x] % 2)</t>
-  </si>
-  <si>
     <t>groups the df into two groups based on whether the value in column 'A' is even or odd ( Use lambda)</t>
   </si>
   <si>
@@ -3776,9 +3759,6 @@
     <t>To generate a series of dates starting from 1/1/2020,frequency of 30 days and for 4 periods</t>
   </si>
   <si>
-    <t>pd.period_range('1/1/2020',freq='30d',periods=4)</t>
-  </si>
-  <si>
     <t>To subtract 30 days from a date column A</t>
   </si>
   <si>
@@ -3795,6 +3775,201 @@
   </si>
   <si>
     <t>df.dropna(subset='A')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To get the date from a datetime series s </t>
+  </si>
+  <si>
+    <t>s.dt.date</t>
+  </si>
+  <si>
+    <t>To get the time from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.time</t>
+  </si>
+  <si>
+    <t>To get the year from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.year</t>
+  </si>
+  <si>
+    <t>To get the month from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.month</t>
+  </si>
+  <si>
+    <t>To get the day from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.day</t>
+  </si>
+  <si>
+    <t>To get the hour from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.hour</t>
+  </si>
+  <si>
+    <t>To get the minute from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.minute</t>
+  </si>
+  <si>
+    <t>To get the second from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.second</t>
+  </si>
+  <si>
+    <t>s.dt.dayofweek</t>
+  </si>
+  <si>
+    <t>To get the day of the week from a datetime series s ( Monday=0, Sunday=6)</t>
+  </si>
+  <si>
+    <t>To get the day of the year from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.dayofyear</t>
+  </si>
+  <si>
+    <t>To get the quarter of the date from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.quarter</t>
+  </si>
+  <si>
+    <t>s.dt.is_month_start</t>
+  </si>
+  <si>
+    <t>s.dt.is_month_end</t>
+  </si>
+  <si>
+    <t>s.dt.is_quarter_start</t>
+  </si>
+  <si>
+    <t>s.dt.is_quarter_end</t>
+  </si>
+  <si>
+    <t>s.dt.is_year_start</t>
+  </si>
+  <si>
+    <t>s.dt.is_year_end</t>
+  </si>
+  <si>
+    <t>s.dt.is_leap_year</t>
+  </si>
+  <si>
+    <t>s.dt.daysinmonth</t>
+  </si>
+  <si>
+    <t>s.dt.strftime('%d-%m-%Y')</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is first day of the month from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is last day of the month from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is first day of the quarter from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is last day of the quarter from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is first day of the year from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is last day of the year from a datetime series s</t>
+  </si>
+  <si>
+    <t>Indicates whether the date is  in the leap year from a datetime series s</t>
+  </si>
+  <si>
+    <t>No of days in the month of that date from a datetime series s</t>
+  </si>
+  <si>
+    <t>Convert a datetime to format dd-mm-yy from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.month_name</t>
+  </si>
+  <si>
+    <t>Return the days name from a datetime series s</t>
+  </si>
+  <si>
+    <t>Return the months name from a datetime series s</t>
+  </si>
+  <si>
+    <t>s.dt.day_name</t>
+  </si>
+  <si>
+    <t>Converts a date series s into its time components</t>
+  </si>
+  <si>
+    <t>s.dt.components</t>
+  </si>
+  <si>
+    <t>Aggregate a daily datetime column A , find summing column B with a frequency of 2 days</t>
+  </si>
+  <si>
+    <t>df.groupby(pd.Grouper(key='A',freq='2D'))['B'].sum()</t>
+  </si>
+  <si>
+    <t>Aggregate a daily datetime column A , find summing column B with a frequency of first by month then by days</t>
+  </si>
+  <si>
+    <t>df.groupby(pd.Grouper(key='A',freq='M'),pd.Grouper(key='A',freq='D'))['B'].sum()</t>
+  </si>
+  <si>
+    <t>Aggreate a column by A, summing column B, naming it 'sumB'</t>
+  </si>
+  <si>
+    <t>df.groupby('A').agg(sumB=('B','sum'))</t>
+  </si>
+  <si>
+    <t>pd.period_range('2020-01-01',freq='30D',periods=4)</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(data=data,columns=columns)</t>
+  </si>
+  <si>
+    <t>pd.DataFrame(data=data)</t>
+  </si>
+  <si>
+    <t>'.join(random.choices(string.ascii_uppercase,k=5))</t>
+  </si>
+  <si>
+    <t>df.groupby(lambda x:df['A'][x]%2)</t>
+  </si>
+  <si>
+    <t>How to get the difference from the previous value in a timeseries column A</t>
+  </si>
+  <si>
+    <t>df['A'].diff().value_counts()</t>
+  </si>
+  <si>
+    <t>if you get value_counts other than the period, there are gaps</t>
+  </si>
+  <si>
+    <t>df.loc[n-1,:]</t>
+  </si>
+  <si>
+    <t>Drop rows where all the values are blank</t>
+  </si>
+  <si>
+    <t>df.dropna(how='all')</t>
+  </si>
+  <si>
+    <t>date+pd.DateOffset('1D')</t>
+  </si>
+  <si>
+    <t>date+pd.DateOffset(j'1D')</t>
   </si>
 </sst>
 </file>
@@ -4221,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="B420" sqref="B420"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -4243,284 +4418,284 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="C11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B16" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
       <c r="C19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4528,35 +4703,35 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4564,35 +4739,35 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>1028</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>1029</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>1028</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4603,57 +4778,57 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
       <c r="C33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4661,147 +4836,147 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
       <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
       <c r="C44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4809,13 +4984,13 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4823,55 +4998,55 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="C49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="C50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4882,108 +5057,108 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="C58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4997,88 +5172,88 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="C63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="C64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="C66" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5089,10 +5264,10 @@
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5103,52 +5278,52 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="C70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5156,69 +5331,69 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5229,10 +5404,10 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5243,66 +5418,66 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="C81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C82" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5313,24 +5488,24 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="C84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5341,108 +5516,108 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
         <v>115</v>
       </c>
-      <c r="B88" t="s">
-        <v>116</v>
-      </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="C89" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
         <v>113</v>
       </c>
-      <c r="B90" t="s">
-        <v>114</v>
-      </c>
       <c r="C90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
         <v>110</v>
       </c>
-      <c r="B91" t="s">
-        <v>111</v>
-      </c>
       <c r="C91" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="B92" t="s">
-        <v>109</v>
-      </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5453,10 +5628,10 @@
         <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5464,83 +5639,83 @@
         <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" t="e">
         <v>#N/A</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="C95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="C96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="C99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5551,10 +5726,10 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5565,10 +5740,10 @@
         <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5579,10 +5754,10 @@
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5593,130 +5768,130 @@
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C104" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C108" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5724,122 +5899,122 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="C116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C117" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="C121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5847,13 +6022,13 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5861,153 +6036,153 @@
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="C124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
         <v>135</v>
       </c>
-      <c r="B125" t="s">
-        <v>136</v>
-      </c>
       <c r="C125" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="C127" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>722</v>
+        <v>1025</v>
       </c>
       <c r="C129" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C130" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C131" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C132" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6018,10 +6193,10 @@
         <v>64</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6032,24 +6207,24 @@
         <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6060,80 +6235,80 @@
         <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="C138" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="C139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="C140" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="C142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6144,80 +6319,80 @@
         <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C144" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6228,335 +6403,335 @@
         <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C151" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C154" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C155" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C156" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C157" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="C158" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="C160" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="C161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="C162" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B164" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C164" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" t="s">
         <v>131</v>
       </c>
-      <c r="B168" t="s">
-        <v>132</v>
-      </c>
       <c r="C168" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="C170" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B171" t="s">
         <v>133</v>
       </c>
-      <c r="B171" t="s">
-        <v>134</v>
-      </c>
       <c r="C171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17.25">
@@ -6567,52 +6742,52 @@
         <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C175" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C176" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C177" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6623,10 +6798,10 @@
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6637,10 +6812,10 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6651,10 +6826,10 @@
         <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6665,10 +6840,10 @@
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6679,133 +6854,133 @@
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="38.25">
       <c r="A183" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C183" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="38.25">
       <c r="A184" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="C184" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="C185" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="C186" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="C187" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="C189" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C190" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6816,10 +6991,10 @@
         <v>58</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6830,192 +7005,192 @@
         <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="C194" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C196" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C198" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="C199" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C200" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C203" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C204" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="C205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="C206" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7023,442 +7198,442 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C207" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="C209" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="C210" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="C211" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17.25">
       <c r="A212" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C212" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C213" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="C214" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="C215" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D216" s="11"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C217" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="C218" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C219" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C221" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="C222" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="C223" t="e">
         <v>#N/A</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B224" t="s">
         <v>128</v>
       </c>
-      <c r="B224" t="s">
-        <v>129</v>
-      </c>
       <c r="C224" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B225" t="s">
         <v>106</v>
       </c>
-      <c r="B225" t="s">
-        <v>107</v>
-      </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C226" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="C227" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B228" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C228" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B229" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C229" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B230" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C230" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B232" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C232" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B233" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C233" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="C234" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="C235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="C236" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="C237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C238" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7469,10 +7644,10 @@
         <v>35</v>
       </c>
       <c r="C239" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7483,136 +7658,136 @@
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="C241" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="C242" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C243" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C244" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C245" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C246" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="C247" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17.25">
       <c r="A248" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B248" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17.25">
       <c r="A249" t="s">
+        <v>168</v>
+      </c>
+      <c r="B249" t="s">
         <v>169</v>
       </c>
-      <c r="B249" t="s">
-        <v>170</v>
-      </c>
       <c r="C249" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="17.25">
@@ -7623,10 +7798,10 @@
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7637,10 +7812,10 @@
         <v>67</v>
       </c>
       <c r="C251" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7651,2060 +7826,2060 @@
         <v>53</v>
       </c>
       <c r="C252" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D252" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B253" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D253" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C254" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D254" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B255" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C255" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D255" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B256" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D256" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B257" t="s">
         <v>119</v>
       </c>
-      <c r="B257" t="s">
-        <v>120</v>
-      </c>
       <c r="C257" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D257" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C258" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D258" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="C260" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D260" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="C261" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D261" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="C262" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D262" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C263" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D263" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C264" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D264" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C265" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D265" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>429</v>
-      </c>
       <c r="C266" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D266" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="C267" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D267" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="C268" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D268" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="C269" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D269" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C270" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D270" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="C271" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D271" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C272" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D272" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C273" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D273" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C274" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D274" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="C275" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D275" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D276" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B277" t="s">
         <v>446</v>
       </c>
-      <c r="B277" t="s">
-        <v>447</v>
-      </c>
       <c r="C277" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D277" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C278" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D278" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C279" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D279" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="17.25">
       <c r="A280" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B280" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="D280" s="9" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="D281" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D282" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D283" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="17.25">
       <c r="A284" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="D285" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17.25">
       <c r="A286" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>461</v>
-      </c>
       <c r="D286" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>463</v>
-      </c>
       <c r="D287" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="17.25">
       <c r="A288" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="D288" s="9" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="C289" t="s">
         <v>467</v>
       </c>
-      <c r="C289" t="s">
-        <v>468</v>
-      </c>
       <c r="D289" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="D290" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="C291" t="s">
         <v>472</v>
       </c>
-      <c r="C291" t="s">
-        <v>473</v>
-      </c>
       <c r="D291" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D292" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>476</v>
-      </c>
       <c r="D293" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D294" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D295" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D297" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D298" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D299" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D300" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D301" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>485</v>
-      </c>
       <c r="D302" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D303" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D304" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D305" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D306" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D307" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D308" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>491</v>
-      </c>
       <c r="D309" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D310" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>494</v>
-      </c>
       <c r="D311" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D312" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B313" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B313" s="8" t="s">
-        <v>497</v>
-      </c>
       <c r="D313" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B314" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B314" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="D314" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D315" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B316" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B316" s="6" t="s">
-        <v>503</v>
-      </c>
       <c r="D316" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B317" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>505</v>
-      </c>
       <c r="D317" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D318" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D319" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D320" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D321" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D322" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>534</v>
+        <v>1019</v>
       </c>
       <c r="D323" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>536</v>
+        <v>1018</v>
       </c>
       <c r="D324" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>536</v>
+        <v>1018</v>
       </c>
       <c r="D325" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D326" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D327" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D328" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D329" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D330" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D331" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D332" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D333" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D334" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D335" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D336" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D337" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D338" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D339" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D340" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D341" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D342" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D343" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D344" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D345" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D346" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D347" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D348" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D349" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D350" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D351" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D352" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D353" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D354" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D355" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D356" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D357" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D358" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D359" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D360" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D361" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D362" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D363" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D364" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D365" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D366" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D367" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D368" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D369" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D370" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D371" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D372" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D373" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D374" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D376" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D377" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D378" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>656</v>
+        <v>1020</v>
       </c>
       <c r="D379" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D380" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D381" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D382" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D383" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D384" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="5" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D385" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B386" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B386" s="6" t="s">
-        <v>677</v>
-      </c>
       <c r="D386" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B387" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>678</v>
-      </c>
       <c r="D387" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D388" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D389" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D390" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D391" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D392" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D393" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D394" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D395" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D396" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D397" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D398" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B399" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D399" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D400" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="5" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D401" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="5" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="5" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="5" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="5" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="5" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="5" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>862</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="5" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="5" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="5" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="5" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="5" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="5" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="5" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="5" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="5" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="5" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="5" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="5" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="5" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="5" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="5" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="5" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="5" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="5" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="5" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="5" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="5" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="5" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="5" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="5" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>20</v>
@@ -9712,70 +9887,309 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="5" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="5" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="5" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="5" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="5" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>965</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="5" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="5" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B455" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="B451" s="6" t="s">
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="5" t="s">
         <v>971</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FA7286-7964-45CC-9368-015905BAEF54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PythonPracticeGame/data.xlsx
+++ b/PythonPracticeGame/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0db7a4ccf9508934/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2697" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44319C88-0B70-446E-BD5D-E9EA33BBE1E2}"/>
+  <xr:revisionPtr revIDLastSave="3006" documentId="11_F25DC773A252ABDACC10481C895851BA5ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532C91ED-9F39-45B5-8B0C-CB34C8A5951C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1178">
   <si>
     <t>Create an empty Dataframe</t>
   </si>
@@ -738,9 +738,6 @@
     <t>How to split a text column A containing value eg. ab_c on underscore_</t>
   </si>
   <si>
-    <t>df.A.str.split('_')</t>
-  </si>
-  <si>
     <t>Find the number of missing values in each column of df</t>
   </si>
   <si>
@@ -1507,9 +1504,6 @@
   </si>
   <si>
     <t>df.reset_index(level=['a','b'])</t>
-  </si>
-  <si>
-    <t>check if a value 'a' exist in a single index df</t>
   </si>
   <si>
     <t>sort the index level 1 of a df</t>
@@ -2598,12 +2592,6 @@
     <t>df.resample('SMS').ffill()</t>
   </si>
   <si>
-    <t>df.resample('M',on='A'].mean()</t>
-  </si>
-  <si>
-    <t>df.resample('M',on='A'].count()</t>
-  </si>
-  <si>
     <t>np.random.randn(1000)</t>
   </si>
   <si>
@@ -3079,9 +3067,6 @@
     <t>list of indices</t>
   </si>
   <si>
-    <t>datetime.date(datetime(2023,1,1)))</t>
-  </si>
-  <si>
     <t>datetime.date</t>
   </si>
   <si>
@@ -3961,6 +3946,474 @@
   </si>
   <si>
     <t>df.loc[df['column_name'] &gt; 35,:].index</t>
+  </si>
+  <si>
+    <t>Captitalize the elements of string series s</t>
+  </si>
+  <si>
+    <t>Lowercase the elements of string series s</t>
+  </si>
+  <si>
+    <t>Uppercase the elements of string series s</t>
+  </si>
+  <si>
+    <t>Titlecase the elements of string series s</t>
+  </si>
+  <si>
+    <t>s.str.capitalize()</t>
+  </si>
+  <si>
+    <t>s.str.lower()</t>
+  </si>
+  <si>
+    <t>s.str.upper()</t>
+  </si>
+  <si>
+    <t>s.str.title()</t>
+  </si>
+  <si>
+    <t>Swap the case of elements of string series s</t>
+  </si>
+  <si>
+    <t>s.str.swapcase()</t>
+  </si>
+  <si>
+    <t>s1.str.cat(s2,sep='-')</t>
+  </si>
+  <si>
+    <t>s1.str.cat(s2,sep='-',join='outer')</t>
+  </si>
+  <si>
+    <t>s1.str.cat(s2,sep='-',join='inner')</t>
+  </si>
+  <si>
+    <t>how many times a has occurred in each of the value of series</t>
+  </si>
+  <si>
+    <t>s is a series with values of 3 characters, need to fill before and after with dots(.) so that total characters become 8</t>
+  </si>
+  <si>
+    <t>s is a series with values of 3 characters, need to fill before with dots(.) so that total characters become 8</t>
+  </si>
+  <si>
+    <t>s is a series with values of 3 characters, need to fill after with dots(.) so that total characters become 8</t>
+  </si>
+  <si>
+    <t>s.str.center(8,fillchar='.')</t>
+  </si>
+  <si>
+    <t>s.str.ljust(8,fillchar='.')</t>
+  </si>
+  <si>
+    <t>s.str.rjust(8,fillchar='.')</t>
+  </si>
+  <si>
+    <t>s.str.count('a')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If s endswith t </t>
+  </si>
+  <si>
+    <t>s.str.endswith('t')</t>
+  </si>
+  <si>
+    <t>if s startswith t</t>
+  </si>
+  <si>
+    <t>s.str.startswith('t')</t>
+  </si>
+  <si>
+    <t>Find the  positions of the letter t in a series s</t>
+  </si>
+  <si>
+    <t>s.str.find('t')</t>
+  </si>
+  <si>
+    <t>Get the  rows of the letter t in a series s</t>
+  </si>
+  <si>
+    <t>s.str.findall('t')</t>
+  </si>
+  <si>
+    <t>Get the first word of every value in a series</t>
+  </si>
+  <si>
+    <t>s.str.get(0)</t>
+  </si>
+  <si>
+    <t>Find the length  of each element in the series</t>
+  </si>
+  <si>
+    <t>s.str.len()</t>
+  </si>
+  <si>
+    <t>s.str.contains('^apple')</t>
+  </si>
+  <si>
+    <t>s.str.contains('pie$')</t>
+  </si>
+  <si>
+    <t>s.str.contains('pie\\Z')</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s start with 'apple', use regex and caret</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s start with 'apple', use regex and slash</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s end with 'pie', use regex and dollar</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s end with 'pie', use regex and slash</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s contains the whole word 'apple' use regex</t>
+  </si>
+  <si>
+    <t>Find if the values contain pie not as a separate word but a part of another word</t>
+  </si>
+  <si>
+    <t>^ (Start of string, or start of line in multi-line pattern)</t>
+  </si>
+  <si>
+    <t>s.str.contains('\\Aapple')</t>
+  </si>
+  <si>
+    <t>$ (End of string, or end of line in multi-line pattern)</t>
+  </si>
+  <si>
+    <t>\A (Start of string). To represent a literal backslash, you need to use two backslashes (\\) in python.</t>
+  </si>
+  <si>
+    <t>The sequence \Z matches the end of a string. To represent a literal backslash, you need to use two backslashes (\\) in python.</t>
+  </si>
+  <si>
+    <t>\b (Word boundary). The r prefix before a string in Python indicates a "raw" string. In raw strings, backslashes (\) are treated as literal characters and not as escape characters.</t>
+  </si>
+  <si>
+    <t>\B (Not word boundary)</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'pie\B')</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\bapple\b')</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s contain a white space</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\s')</t>
+  </si>
+  <si>
+    <t>\s White space</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that do not contain a white space</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\S')</t>
+  </si>
+  <si>
+    <t>\S Not White Space</t>
+  </si>
+  <si>
+    <t>\d matches any digit between 0 to 9</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\d')</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that contains a digit from 0 to 9</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that do not contain a digit from 0 to 9</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\D')</t>
+  </si>
+  <si>
+    <t>\D Not digit</t>
+  </si>
+  <si>
+    <t>\w matches any word character, alphanumeric and underscore</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\w')</t>
+  </si>
+  <si>
+    <t>\W not a word character</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that contains a word</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that do not contain a word</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'\W')</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred 0 or more times</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'aa*')</t>
+  </si>
+  <si>
+    <t>* 0 or more</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred exactlly 3 times</t>
+  </si>
+  <si>
+    <t>{3} exactly 3</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a{3}')</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred 1 or more times</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a+')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  +  one or more</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred 3 or more times</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a{3,}')</t>
+  </si>
+  <si>
+    <t>{3,} 3 or more</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred 0 or 1</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a?')</t>
+  </si>
+  <si>
+    <t>? 0 or 1</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that indicates if a has occurred 3, 4 or 5 times</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a{3,5}')</t>
+  </si>
+  <si>
+    <t>{3,5}=&gt; 3, 4 or 5</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s that has any charcter between a and c</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a.c')</t>
+  </si>
+  <si>
+    <t>.    =&gt;(Any character except newline \n):</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s has either charcters a or b</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'a|b')</t>
+  </si>
+  <si>
+    <t>a|b a or b</t>
+  </si>
+  <si>
+    <t>Find if the values in a series s contains ab together followed by c</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'(ab)c')</t>
+  </si>
+  <si>
+    <t>(ab)c Groups 'ab' and matches it followed by 'c'.</t>
+  </si>
+  <si>
+    <t>Find if the values in a seris s contains either a or b or c</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'[abc]')</t>
+  </si>
+  <si>
+    <t>[abc] a or b or c</t>
+  </si>
+  <si>
+    <t>Find if the values in a seris s contains every character except  a or b or c</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'[^abc]')</t>
+  </si>
+  <si>
+    <t>Matches any character except 'a', 'b', and 'c'.</t>
+  </si>
+  <si>
+    <t>Find if the values in a seris s contains lowercase characters from a to q</t>
+  </si>
+  <si>
+    <t>Find if the values in a seris s contains uppercase characters from a to q</t>
+  </si>
+  <si>
+    <t>Find if the values in a seris s contains digits from 0 to 7</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'[a-q]')</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'[A-Q]')</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'[0-7]')</t>
+  </si>
+  <si>
+    <t>matches between a-q</t>
+  </si>
+  <si>
+    <t>matches between A-Q</t>
+  </si>
+  <si>
+    <t>matches between 0-7</t>
+  </si>
+  <si>
+    <t>Find if the values in a series are occurring together twice e.g. aa bb cc</t>
+  </si>
+  <si>
+    <t>s.str.contains(r'(.)\1')</t>
+  </si>
+  <si>
+    <t>\x reference a previously captured gp eg. (.)\1 means aa, bb etc</t>
+  </si>
+  <si>
+    <t>df.resample(on='A',freq='M').count()</t>
+  </si>
+  <si>
+    <t>df.resample(on='A',freq='M').mean()</t>
+  </si>
+  <si>
+    <t>s1 and s2 are two series with same different  length, concat their elements with - separator, outer join</t>
+  </si>
+  <si>
+    <t>s1 and s2 are two series with the  different lengths, concat their elements with - separator, inner join</t>
+  </si>
+  <si>
+    <t>s1 and s2 are two series with the same length, concat their elements with - separator</t>
+  </si>
+  <si>
+    <t>datetime(2023, 1, 1).date()</t>
+  </si>
+  <si>
+    <t>df['A'].str.split('_')</t>
+  </si>
+  <si>
+    <t>check if a value 'a' exist in a df index</t>
+  </si>
+  <si>
+    <t>Check if a value 'a' is present in a dataframe</t>
+  </si>
+  <si>
+    <t>df.isin(['a']).any().any()</t>
+  </si>
+  <si>
+    <t>How to convert the values of a dictionary-mydict- with a key 'A' to a list</t>
+  </si>
+  <si>
+    <t>list(mydict['A'])</t>
+  </si>
+  <si>
+    <t>df.isin(['a']).any()</t>
+  </si>
+  <si>
+    <t>Check how many values of  'a' are present in a dataframe</t>
+  </si>
+  <si>
+    <t>df.isin(['a']).sum().sum()</t>
+  </si>
+  <si>
+    <t>df.isin(['a']).sum()</t>
+  </si>
+  <si>
+    <t>Get the rows in which a value 'a' is present in a dataframe</t>
+  </si>
+  <si>
+    <t>How to replace 'b', 'c','d' values in a dataframe column A with 'a'</t>
+  </si>
+  <si>
+    <t>df['A'].replace({'a':'b','c','d'})</t>
+  </si>
+  <si>
+    <t>df.loc[df.isin(['a']).any(axis=1)]</t>
+  </si>
+  <si>
+    <t>How to copy the second row and append it at the end ( equation with = sign)</t>
+  </si>
+  <si>
+    <t>df.loc[df.shape[0]]=df.loc[1]</t>
+  </si>
+  <si>
+    <t>How to copy the second row and insert it after the first row</t>
+  </si>
+  <si>
+    <t>pd.concat([df.iloc[:1],df.iloc[1],df.iloc[1:]),reset.index(drop=True)</t>
+  </si>
+  <si>
+    <t>df.isna().any().any()</t>
+  </si>
+  <si>
+    <t>To quickly check if the entire dataframe haa any NA value ( one single true or false value)</t>
+  </si>
+  <si>
+    <t>To check if any column has at least one NA value ( One single value for each column)</t>
+  </si>
+  <si>
+    <t>df.isna().any()</t>
+  </si>
+  <si>
+    <t>To check if any column has all NA values ( One single value for each column)</t>
+  </si>
+  <si>
+    <t>df.isna().all()</t>
+  </si>
+  <si>
+    <t>To check if any row has at least one NA value ( one single value for each row)</t>
+  </si>
+  <si>
+    <t>df.isna().any(axis=1)</t>
+  </si>
+  <si>
+    <t>To check if any row has all NA values ( one single value for each row)</t>
+  </si>
+  <si>
+    <t>df.isna().all(axis=1)</t>
+  </si>
+  <si>
+    <t>To quickly check total NA values in entire dataframe  ( one single sum value)</t>
+  </si>
+  <si>
+    <t>df.isna().sum().sum()</t>
+  </si>
+  <si>
+    <t>To check the number of NA values in a column ( One single value for each column)</t>
+  </si>
+  <si>
+    <t>df.isna().sum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if any column has at least one value  'a' </t>
+  </si>
+  <si>
+    <t>Check the number of times 'a'  is present in every column in a dataframe</t>
+  </si>
+  <si>
+    <t>Get the rows with NA values</t>
+  </si>
+  <si>
+    <t>df[df.isna().any(axis=1)]</t>
   </si>
 </sst>
 </file>
@@ -4387,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="A540" sqref="A540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="2"/>
@@ -4409,10 +4862,10 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D1" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4423,32 +4876,32 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4459,76 +4912,76 @@
         <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>298</v>
-      </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4539,32 +4992,32 @@
         <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4572,35 +5025,35 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B16" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B17" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4608,13 +5061,13 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4625,32 +5078,32 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4661,32 +5114,32 @@
         <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B24" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4697,32 +5150,32 @@
         <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B26" t="s">
         <v>173</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B27" t="s">
         <v>173</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4730,35 +5183,35 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25">
       <c r="A29" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B29" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B30" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4769,21 +5222,21 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25">
       <c r="A32" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4794,32 +5247,32 @@
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25">
       <c r="A34" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25">
       <c r="A35" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B35" t="s">
         <v>87</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4827,91 +5280,91 @@
         <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25">
       <c r="A39" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25">
       <c r="A40" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="C41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25">
       <c r="A42" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25">
@@ -4922,10 +5375,10 @@
         <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4936,10 +5389,10 @@
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25">
@@ -4950,10 +5403,10 @@
         <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75">
@@ -4964,10 +5417,10 @@
         <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4975,13 +5428,13 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4989,13 +5442,13 @@
         <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5006,10 +5459,10 @@
         <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5020,24 +5473,24 @@
         <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5048,10 +5501,10 @@
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -5059,13 +5512,13 @@
         <v>213</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -5076,24 +5529,24 @@
         <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -5104,10 +5557,10 @@
         <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5118,7 +5571,7 @@
         <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>212</v>
@@ -5126,16 +5579,16 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="C58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5143,13 +5596,13 @@
         <v>214</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -5163,7 +5616,7 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -5171,24 +5624,24 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B62" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5199,52 +5652,52 @@
         <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="C64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>370</v>
-      </c>
       <c r="C65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>372</v>
-      </c>
       <c r="C66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5255,10 +5708,10 @@
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5269,10 +5722,10 @@
         <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5283,10 +5736,10 @@
         <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5297,10 +5750,10 @@
         <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5308,13 +5761,13 @@
         <v>202</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5322,13 +5775,13 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5336,55 +5789,55 @@
         <v>144</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5395,10 +5848,10 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5409,66 +5862,66 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="C81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5479,24 +5932,24 @@
         <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5507,10 +5960,10 @@
         <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5521,10 +5974,10 @@
         <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5535,10 +5988,10 @@
         <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5549,24 +6002,24 @@
         <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5577,10 +6030,10 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5591,10 +6044,10 @@
         <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5605,10 +6058,10 @@
         <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5619,10 +6072,10 @@
         <v>72</v>
       </c>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5636,7 +6089,7 @@
         <v>#N/A</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5647,10 +6100,10 @@
         <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5661,52 +6114,52 @@
         <v>164</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="C97" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5717,10 +6170,10 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5731,10 +6184,10 @@
         <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5745,10 +6198,10 @@
         <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5759,52 +6212,52 @@
         <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5812,77 +6265,77 @@
         <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C107" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>702</v>
+        <v>1137</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>703</v>
+        <v>1136</v>
       </c>
       <c r="C109" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="C110" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5890,80 +6343,80 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="C116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="C117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5974,10 +6427,10 @@
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5985,27 +6438,27 @@
         <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="C121" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6016,10 +6469,10 @@
         <v>96</v>
       </c>
       <c r="C122" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6030,10 +6483,10 @@
         <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6041,13 +6494,13 @@
         <v>231</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>232</v>
+        <v>1142</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6058,24 +6511,24 @@
         <v>135</v>
       </c>
       <c r="C125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6086,10 +6539,10 @@
         <v>148</v>
       </c>
       <c r="C127" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6100,10 +6553,10 @@
         <v>150</v>
       </c>
       <c r="C128" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6111,13 +6564,13 @@
         <v>154</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C129" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6125,13 +6578,13 @@
         <v>152</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6139,13 +6592,13 @@
         <v>151</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6153,13 +6606,13 @@
         <v>153</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6167,13 +6620,13 @@
         <v>155</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6184,10 +6637,10 @@
         <v>64</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6198,10 +6651,10 @@
         <v>62</v>
       </c>
       <c r="C135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6212,10 +6665,10 @@
         <v>188</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6226,24 +6679,24 @@
         <v>77</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="C138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6254,10 +6707,10 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6268,10 +6721,10 @@
         <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6279,13 +6732,13 @@
         <v>184</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C141" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6296,10 +6749,10 @@
         <v>183</v>
       </c>
       <c r="C142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6310,24 +6763,24 @@
         <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C144" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6338,10 +6791,10 @@
         <v>157</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6352,10 +6805,10 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6366,10 +6819,10 @@
         <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6377,13 +6830,13 @@
         <v>161</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6394,10 +6847,10 @@
         <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6405,13 +6858,13 @@
         <v>136</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C150" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6419,13 +6872,13 @@
         <v>137</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6433,13 +6886,13 @@
         <v>143</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6447,13 +6900,13 @@
         <v>139</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C153" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6461,13 +6914,13 @@
         <v>141</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C154" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6475,13 +6928,13 @@
         <v>140</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C155" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6489,13 +6942,13 @@
         <v>138</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C156" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6503,13 +6956,13 @@
         <v>217</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6520,10 +6973,10 @@
         <v>221</v>
       </c>
       <c r="C158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6534,10 +6987,10 @@
         <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6548,10 +7001,10 @@
         <v>229</v>
       </c>
       <c r="C160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6562,10 +7015,10 @@
         <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6576,10 +7029,10 @@
         <v>223</v>
       </c>
       <c r="C162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6590,60 +7043,60 @@
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B164" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C164" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C167" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6654,33 +7107,33 @@
         <v>131</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="C170" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6691,38 +7144,38 @@
         <v>133</v>
       </c>
       <c r="C171" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C172" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B173" t="s">
         <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="17.25">
@@ -6733,52 +7186,52 @@
         <v>44</v>
       </c>
       <c r="C174" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C175" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6789,10 +7242,10 @@
         <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6803,10 +7256,10 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6817,10 +7270,10 @@
         <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6831,10 +7284,10 @@
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6845,133 +7298,133 @@
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="38.25">
       <c r="A183" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C183" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="38.25">
       <c r="A184" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="C185" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="C187" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="C188" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6982,10 +7435,10 @@
         <v>58</v>
       </c>
       <c r="C192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6996,192 +7449,192 @@
         <v>60</v>
       </c>
       <c r="C193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C194" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C197" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="C199" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D199" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C200" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D200" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C201" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D201" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D202" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C203" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D203" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C204" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D204" s="13" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="C205" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D205" s="13" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>364</v>
-      </c>
       <c r="C206" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7192,66 +7645,66 @@
         <v>94</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="C208" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D208" s="13" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B210" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="C210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B211" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="C211" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="17.25">
@@ -7262,10 +7715,10 @@
         <v>175</v>
       </c>
       <c r="C212" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7276,145 +7729,145 @@
         <v>177</v>
       </c>
       <c r="C213" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="C214" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="C215" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="5" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D216" s="11"/>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C217" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B218" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="C218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C219" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C220" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C221" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="C222" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="C223" t="e">
         <v>#N/A</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7425,10 +7878,10 @@
         <v>128</v>
       </c>
       <c r="C224" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7439,122 +7892,122 @@
         <v>106</v>
       </c>
       <c r="C225" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D225" s="13" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C226" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B227" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B227" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="C227" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D227" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B228" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C228" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B229" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C229" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B230" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C230" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B232" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C232" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B233" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C233" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7565,66 +8018,66 @@
         <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B235" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B235" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="C235" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="C236" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B237" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="C237" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C238" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7635,10 +8088,10 @@
         <v>35</v>
       </c>
       <c r="C239" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D239" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7649,24 +8102,24 @@
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="C241" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D241" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7677,10 +8130,10 @@
         <v>199</v>
       </c>
       <c r="C242" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D242" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7691,10 +8144,10 @@
         <v>195</v>
       </c>
       <c r="C243" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D243" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7702,27 +8155,27 @@
         <v>197</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C244" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D244" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C245" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D245" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7733,10 +8186,10 @@
         <v>117</v>
       </c>
       <c r="C246" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D246" s="11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7747,10 +8200,10 @@
         <v>192</v>
       </c>
       <c r="C247" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D247" s="11" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="17.25">
@@ -7761,10 +8214,10 @@
         <v>170</v>
       </c>
       <c r="C248" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="17.25">
@@ -7775,10 +8228,10 @@
         <v>169</v>
       </c>
       <c r="C249" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="17.25">
@@ -7789,10 +8242,10 @@
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7803,10 +8256,10 @@
         <v>67</v>
       </c>
       <c r="C251" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7817,10 +8270,10 @@
         <v>53</v>
       </c>
       <c r="C252" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D252" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7831,10 +8284,10 @@
         <v>124</v>
       </c>
       <c r="C253" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D253" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7845,10 +8298,10 @@
         <v>176</v>
       </c>
       <c r="C254" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D254" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7859,10 +8312,10 @@
         <v>103</v>
       </c>
       <c r="C255" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D255" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7873,10 +8326,10 @@
         <v>180</v>
       </c>
       <c r="C256" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D256" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7887,1990 +8340,1990 @@
         <v>119</v>
       </c>
       <c r="C257" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D257" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C258" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D258" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D259" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B260" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B260" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C260" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D260" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B261" s="6" t="s">
-        <v>417</v>
-      </c>
       <c r="C261" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D261" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="C262" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D262" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C263" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D263" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C264" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D264" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C265" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D265" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>425</v>
-      </c>
       <c r="C266" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D266" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D267" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B268" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B268" s="6" t="s">
-        <v>429</v>
-      </c>
       <c r="C268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D268" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="C269" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D269" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C270" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D270" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B271" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="C271" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D271" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C272" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D272" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C273" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D273" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C274" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D274" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="C275" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D275" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="C276" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D276" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B277" t="s">
         <v>442</v>
       </c>
-      <c r="B277" t="s">
-        <v>443</v>
-      </c>
       <c r="C277" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D277" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C278" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D278" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C279" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D279" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="17.25">
       <c r="A280" s="5" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B281" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>448</v>
-      </c>
       <c r="D281" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D282" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D283" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="17.25">
       <c r="A284" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="D285" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="17.25">
       <c r="A286" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B286" s="6" t="s">
-        <v>455</v>
-      </c>
       <c r="D286" s="9" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="D287" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="17.25">
       <c r="A288" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="D288" s="9" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B289" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="C289" t="s">
         <v>461</v>
       </c>
-      <c r="C289" t="s">
-        <v>462</v>
-      </c>
       <c r="D289" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B290" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="D290" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B291" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="C291" t="s">
         <v>466</v>
       </c>
-      <c r="C291" t="s">
-        <v>467</v>
-      </c>
       <c r="D291" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D292" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B293" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>470</v>
-      </c>
       <c r="D293" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D294" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D295" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D297" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D298" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D299" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D300" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D301" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B302" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B302" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="D302" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D303" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D304" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B305" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="D305" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D306" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D307" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D308" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>485</v>
-      </c>
       <c r="D309" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D310" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>488</v>
-      </c>
       <c r="D311" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="5" t="s">
-        <v>489</v>
+        <v>1143</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D312" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D313" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D314" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D315" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D316" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D317" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="D318" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>791</v>
+        <v>1141</v>
       </c>
       <c r="D319" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D320" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D321" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D322" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D323" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D324" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D325" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D326" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D327" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D328" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D329" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D330" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D331" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B332" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B332" s="6" t="s">
-        <v>542</v>
-      </c>
       <c r="D332" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D333" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D334" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D335" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D336" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D337" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D338" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D339" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D340" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D341" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D342" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D343" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D344" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D345" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D346" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D347" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D348" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D349" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D350" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D351" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D352" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D353" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D354" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D355" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D356" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D357" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D358" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D359" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D360" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D361" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D362" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D363" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D364" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D365" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D366" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D367" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D368" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D369" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="5" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D370" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D371" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D372" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D373" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>131</v>
       </c>
       <c r="D374" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D376" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D377" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D378" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D379" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D380" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D381" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D382" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D383" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D384" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D385" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D386" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D387" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D388" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D389" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D390" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D391" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D392" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="5" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D393" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D394" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D395" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D396" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D397" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D398" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B399" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D399" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D400" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="5" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D401" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="5" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="5" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="5" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="5" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="5" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="5" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="5" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="5" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="5" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="5" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="5" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="5" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="5" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="5" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="5" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="5" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="5" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="5" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="5" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="5" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="5" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="5" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="5" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="5" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="5" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="5" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="5" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="5" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="5" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="5" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="5" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="5" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="5" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>20</v>
@@ -9878,285 +10331,862 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="5" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="5" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="5" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="5" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="5" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="5" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="5" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="5" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="5" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="5" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="5" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="5" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="5" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="5" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="5" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="5" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="5" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="5" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="5" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="5" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="5" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="5" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="5" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="5" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="5" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="5" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="5" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="5" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="5" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D478" t="s">
-        <v>1013</v>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
